--- a/db/Database.xlsx
+++ b/db/Database.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blakerowley/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clabesse/Sites/lewagon/clique-connect/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DBFD43-BDA8-1241-83B4-88D43CA61DA5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Businesses" sheetId="1" r:id="rId1"/>
     <sheet name="Clicks" sheetId="2" r:id="rId2"/>
     <sheet name="Suggestions" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="134">
   <si>
     <t>name</t>
   </si>
@@ -75,9 +74,6 @@
   </si>
   <si>
     <t>Tinder</t>
-  </si>
-  <si>
-    <t>Atlassian</t>
   </si>
   <si>
     <t>Dating
@@ -701,11 +697,14 @@
     <t>Deliveroo
 Uber Eats</t>
   </si>
+  <si>
+    <t>Event Cinema</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -742,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -755,6 +754,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1034,10 +1035,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -1084,684 +1085,684 @@
         <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
         <v>71</v>
       </c>
-      <c r="C26" t="s">
-        <v>72</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
         <v>121</v>
       </c>
-      <c r="C29" t="s">
-        <v>122</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1771,7 +1772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="333" zoomScalePageLayoutView="333" workbookViewId="0">
@@ -1822,54 +1823,133 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D54D736-1D58-884E-BD55-A61361365596}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A2:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="6">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="6">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="6">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="6">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="6">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="6">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="6">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="6">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/Database.xlsx
+++ b/db/Database.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blakerowley/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A000DEA0-7304-164C-85FC-075ECFA12E01}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Businesses" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Clicks" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Suggestions" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Businesses" sheetId="1" r:id="rId1"/>
+    <sheet name="Clicks" sheetId="2" r:id="rId2"/>
+    <sheet name="Suggestions" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Businesses!$A$1:$H$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Businesses!$A$1:$H$66</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,42 +30,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="338">
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">industry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desired_skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acquired_skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">competitors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desired_partnerships</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acquired_partnerships</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customer_interests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tinder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dating
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="429">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>desired_skills</t>
+  </si>
+  <si>
+    <t>acquired_skills</t>
+  </si>
+  <si>
+    <t>competitors</t>
+  </si>
+  <si>
+    <t>desired_partnerships</t>
+  </si>
+  <si>
+    <t>acquired_partnerships</t>
+  </si>
+  <si>
+    <t>customer_interests</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>Tinder</t>
+  </si>
+  <si>
+    <t>Dating
 Matchmaking
 Swiping
 Cheating
@@ -72,7 +77,7 @@
 Social Media</t>
   </si>
   <si>
-    <t xml:space="preserve">51 to 100</t>
+    <t>51 to 100</t>
   </si>
   <si>
     <t xml:space="preserve">Event Partnerships
@@ -96,7 +101,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Hoyts Group
+    <t>Hoyts Group
 Event Cinemas
 Deliveroo</t>
   </si>
@@ -130,13 +135,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://tinder.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad Paws</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dogs
+    <t>https://tinder.com/</t>
+  </si>
+  <si>
+    <t>Mad Paws</t>
+  </si>
+  <si>
+    <t>Dogs
 Dog Walkers
 Everyday People
 Cats
@@ -146,23 +151,23 @@
 Pet</t>
   </si>
   <si>
-    <t xml:space="preserve">11 to 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TaskRabbit
+    <t>11 to 50</t>
+  </si>
+  <si>
+    <t>TaskRabbit
 AirTasker</t>
   </si>
   <si>
-    <t xml:space="preserve">Clique Labs
+    <t>Clique Labs
 Tribe
 Happn</t>
   </si>
   <si>
-    <t xml:space="preserve">Clique Labs
+    <t>Clique Labs
 Tribe</t>
   </si>
   <si>
-    <t xml:space="preserve">Entertainement
+    <t>Entertainement
 Netflix
 Dating
 Family
@@ -187,13 +192,13 @@
 Sport</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.madpaws.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Cinemas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cinema
+    <t>https://www.madpaws.com.au/</t>
+  </si>
+  <si>
+    <t>Event Cinemas</t>
+  </si>
+  <si>
+    <t>Cinema
 Lifestyle
 Nightlife
 Dating
@@ -203,24 +208,24 @@
 Celebrities</t>
   </si>
   <si>
-    <t xml:space="preserve">750 to 1000</t>
+    <t>750 to 1000</t>
   </si>
   <si>
     <t xml:space="preserve">Hoyts Group
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Happn
 Bumble
 Glamcorner</t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Happn</t>
   </si>
   <si>
-    <t xml:space="preserve">Netflix
+    <t>Netflix
 Game of Thrones
 Tom Cruise
 Confectonary
@@ -229,13 +234,13 @@
 Kids</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.eventcinemas.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoyts Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cinema
+    <t>https://www.eventcinemas.com.au/</t>
+  </si>
+  <si>
+    <t>Hoyts Group</t>
+  </si>
+  <si>
+    <t>Cinema
 Lifestyle
 Nightlife
 Dating
@@ -248,10 +253,10 @@
 Social Media</t>
   </si>
   <si>
-    <t xml:space="preserve">Glamcorner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nightlife
+    <t>Glamcorner</t>
+  </si>
+  <si>
+    <t>Nightlife
 Gaming
 Entertainement
 Netflix
@@ -260,13 +265,13 @@
 Kids</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.hoyts.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recomazing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Reccomendations
+    <t>https://www.hoyts.com.au/</t>
+  </si>
+  <si>
+    <t>Recomazing</t>
+  </si>
+  <si>
+    <t>Product Reccomendations
 Social Media
 Influencers
 Technology
@@ -276,13 +281,13 @@
 Tech</t>
   </si>
   <si>
-    <t xml:space="preserve">1 to 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Hunt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tribe
+    <t>1 to 10</t>
+  </si>
+  <si>
+    <t>Product Hunt</t>
+  </si>
+  <si>
+    <t>Tribe
 Clique Labs</t>
   </si>
   <si>
@@ -297,10 +302,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.recomazing.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Airtasker</t>
+    <t>https://www.recomazing.com/</t>
+  </si>
+  <si>
+    <t>Airtasker</t>
   </si>
   <si>
     <t xml:space="preserve">Everyday People
@@ -316,12 +321,12 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">TaskRabbit
+    <t>TaskRabbit
 Design Crowd
 Redbubble</t>
   </si>
   <si>
-    <t xml:space="preserve">Tribe
+    <t>Tribe
 Happn
 Clique Labs
 Gather Online
@@ -350,10 +355,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.airtasker.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gather Online</t>
+    <t>https://www.airtasker.com/</t>
+  </si>
+  <si>
+    <t>Gather Online</t>
   </si>
   <si>
     <t xml:space="preserve">Information Technology
@@ -370,20 +375,20 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Event Cinemas
+    <t>Event Cinemas
 Hoyts
 Tinder
 Happn
 Bumble</t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Clique Labs
 Deliveroo
 Product Hunt</t>
   </si>
   <si>
-    <t xml:space="preserve">Social
+    <t>Social
 Depression
 Movies
 Fandom
@@ -391,10 +396,10 @@
 Gaming</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gatheronline.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fashion
+    <t>https://www.gatheronline.com/</t>
+  </si>
+  <si>
+    <t>Fashion
 E-Commerce
 Dresses
 Glamourous
@@ -405,7 +410,7 @@
 Sharing Economy</t>
   </si>
   <si>
-    <t xml:space="preserve">DesignerEx
+    <t>DesignerEx
 The Iconic
 Asos
 Insitchu
@@ -445,13 +450,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.glamcorner.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clique Labs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instagram
+    <t>https://www.glamcorner.com.au/</t>
+  </si>
+  <si>
+    <t>Clique Labs</t>
+  </si>
+  <si>
+    <t>Instagram
 Models
 Everyday People
 Creative Marketplace
@@ -464,11 +469,11 @@
 Enterprise Software</t>
   </si>
   <si>
-    <t xml:space="preserve">Tribe
+    <t>Tribe
 Visual Amplifiers</t>
   </si>
   <si>
-    <t xml:space="preserve">Insitchu
+    <t>Insitchu
 Glamcorner
 Deliveroo
 Happn
@@ -477,7 +482,7 @@
 Canva</t>
   </si>
   <si>
-    <t xml:space="preserve">The Iconic
+    <t>The Iconic
 Coles
 Canva
 Tinder</t>
@@ -503,21 +508,21 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cliquelabs.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tribe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clique Labs
+    <t>https://www.cliquelabs.com/</t>
+  </si>
+  <si>
+    <t>Tribe</t>
+  </si>
+  <si>
+    <t>Clique Labs
 Visual Amplifiers</t>
   </si>
   <si>
-    <t xml:space="preserve">Insitchu
+    <t>Insitchu
 Glamcorner</t>
   </si>
   <si>
-    <t xml:space="preserve">Everyday People
+    <t>Everyday People
 Influencer
 Money
 Instagram
@@ -525,18 +530,18 @@
 Chia Seeds</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.tribegroup.co/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visual Amplifiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insitchu
+    <t>https://www.tribegroup.co/</t>
+  </si>
+  <si>
+    <t>Visual Amplifiers</t>
+  </si>
+  <si>
+    <t>Insitchu
 Coles
 Canva</t>
   </si>
   <si>
-    <t xml:space="preserve">Money
+    <t>Money
 Instagram
 Experiences
 Photography
@@ -545,13 +550,13 @@
 Chia Seeds</t>
   </si>
   <si>
-    <t xml:space="preserve">http://visualamplifiers.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deliveroo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Late Night
+    <t>http://visualamplifiers.com/</t>
+  </si>
+  <si>
+    <t>Deliveroo</t>
+  </si>
+  <si>
+    <t>Late Night
 Dine-In
 Date Night
 Delivery
@@ -560,7 +565,7 @@
 Same Day Delivery</t>
   </si>
   <si>
-    <t xml:space="preserve">101 to 250</t>
+    <t>101 to 250</t>
   </si>
   <si>
     <t xml:space="preserve">Uber Eats
@@ -568,7 +573,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Happn</t>
+    <t>Happn</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -597,13 +602,13 @@
 Marketing</t>
   </si>
   <si>
-    <t xml:space="preserve">https://deliveroo.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uber Eats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1001 to 5000</t>
+    <t>https://deliveroo.com.au/</t>
+  </si>
+  <si>
+    <t>Uber Eats</t>
+  </si>
+  <si>
+    <t>1001 to 5000</t>
   </si>
   <si>
     <t xml:space="preserve">Deliveroo
@@ -623,7 +628,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Millenial
+    <t>Millenial
 Takeaway
 Netflix
 Movies
@@ -631,10 +636,10 @@
 Marketing</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ubereats.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dating
+    <t>https://www.ubereats.com/</t>
+  </si>
+  <si>
+    <t>Dating
 Matchmaking
 Cheating
 Restaurants
@@ -645,11 +650,11 @@
 Social Media</t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Bumble</t>
   </si>
   <si>
-    <t xml:space="preserve">Coles
+    <t>Coles
 Nexvet</t>
   </si>
   <si>
@@ -670,10 +675,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.happn.com/en/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bumble</t>
+    <t>https://www.happn.com/en/</t>
+  </si>
+  <si>
+    <t>Bumble</t>
   </si>
   <si>
     <t xml:space="preserve">Hipster
@@ -695,13 +700,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://bumble.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DesignerEx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Iconic
+    <t>https://bumble.com/</t>
+  </si>
+  <si>
+    <t>DesignerEx</t>
+  </si>
+  <si>
+    <t>The Iconic
 Asos
 Insitchu
 Style Rocks
@@ -717,7 +722,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Fashion
+    <t>Fashion
 Vouge
 Prada
 Westfield
@@ -728,17 +733,17 @@
 New York</t>
   </si>
   <si>
-    <t xml:space="preserve">https://designerex.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canva
+    <t>https://designerex.com.au/</t>
+  </si>
+  <si>
+    <t>Canva
 The Iconic</t>
   </si>
   <si>
-    <t xml:space="preserve">Canva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everyday People
+    <t>Canva</t>
+  </si>
+  <si>
+    <t>Everyday People
 Influencer
 Money
 Instagram
@@ -758,22 +763,22 @@
 Amazon</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.producthunt.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TaskRabbit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Airtasker
+    <t>https://www.producthunt.com/</t>
+  </si>
+  <si>
+    <t>TaskRabbit</t>
+  </si>
+  <si>
+    <t>Airtasker
 Mad Paws</t>
   </si>
   <si>
-    <t xml:space="preserve">Deliveroo
+    <t>Deliveroo
 Uber Eats
 Tinder</t>
   </si>
   <si>
-    <t xml:space="preserve">Deliveroo
+    <t>Deliveroo
 Uber Eats</t>
   </si>
   <si>
@@ -793,13 +798,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.taskrabbit.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DesignCrowd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apps
+    <t>https://www.taskrabbit.com/</t>
+  </si>
+  <si>
+    <t>DesignCrowd</t>
+  </si>
+  <si>
+    <t>Apps
 E-Commerce
 Internet
 Mobile
@@ -810,16 +815,16 @@
 Crowdsourced</t>
   </si>
   <si>
-    <t xml:space="preserve">TaskRabbit
+    <t>TaskRabbit
 AirTasker
 Canva</t>
   </si>
   <si>
-    <t xml:space="preserve">Recomazing
+    <t>Recomazing
 Splend</t>
   </si>
   <si>
-    <t xml:space="preserve">Design
+    <t>Design
 Creative Arts
 Fashion
 Art
@@ -828,19 +833,19 @@
 Meditation</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.designcrowd.com.au</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nexvet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biotechnology
+    <t>https://www.designcrowd.com.au</t>
+  </si>
+  <si>
+    <t>Nexvet</t>
+  </si>
+  <si>
+    <t>Biotechnology
 Health Care 
 Pet
 Medicine</t>
   </si>
   <si>
-    <t xml:space="preserve">Photography
+    <t>Photography
 Animals
 Parks
 Art
@@ -850,10 +855,10 @@
 Clean Eating</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.zoetis.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Iconic</t>
+    <t>https://www.zoetis.com.au/</t>
+  </si>
+  <si>
+    <t>The Iconic</t>
   </si>
   <si>
     <t xml:space="preserve">Fashion 
@@ -863,10 +868,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">501 to 1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DesignerEx
+    <t>501 to 1000</t>
+  </si>
+  <si>
+    <t>DesignerEx
 Asos
 Insitchu
 Style Rocks
@@ -878,7 +883,7 @@
 Bloch Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Happn
 Bumble
 Clique Labs
@@ -887,7 +892,7 @@
 Mastercard</t>
   </si>
   <si>
-    <t xml:space="preserve">Fashion
+    <t>Fashion
 Vouge
 Prada
 Westfield
@@ -898,13 +903,13 @@
 Amazon</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.theiconic.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DesignerEx
+    <t>https://www.theiconic.com.au/</t>
+  </si>
+  <si>
+    <t>Asos</t>
+  </si>
+  <si>
+    <t>DesignerEx
 The Iconic
 Insitchu
 Style Rocks
@@ -927,7 +932,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Fashion
+    <t>Fashion
 Vouge
 Prada
 Westfield
@@ -935,10 +940,10 @@
 Instyle Magazine</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.asos.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graphic Design
+    <t>http://www.asos.com/</t>
+  </si>
+  <si>
+    <t>Graphic Design
 Photo Editing
 Web Apps
 Web Design
@@ -950,7 +955,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Clique Labs
+    <t>Clique Labs
 Tribe
 The Iconic</t>
   </si>
@@ -960,7 +965,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Art
+    <t>Art
 Tasks
 Marketing
 Professional
@@ -978,13 +983,13 @@
 Amazon</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.canva.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venmo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rent
+    <t>https://www.canva.com</t>
+  </si>
+  <si>
+    <t>Venmo</t>
+  </si>
+  <si>
+    <t>Rent
 Utilities
 Dinner
 Drinks
@@ -994,15 +999,15 @@
 Laughs</t>
   </si>
   <si>
-    <t xml:space="preserve">Zelle
+    <t>Zelle
 Mastercard</t>
   </si>
   <si>
-    <t xml:space="preserve">Asos
+    <t>Asos
 Tinder</t>
   </si>
   <si>
-    <t xml:space="preserve">Hipster
+    <t>Hipster
 Beach
 Dating
 Clubbing
@@ -1017,13 +1022,13 @@
 Netflix</t>
   </si>
   <si>
-    <t xml:space="preserve">https://venmo.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiverr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apps
+    <t>https://venmo.com/</t>
+  </si>
+  <si>
+    <t>Fiverr</t>
+  </si>
+  <si>
+    <t>Apps
 E-Commerce
 Internet
 Mobile
@@ -1038,7 +1043,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Art
+    <t>Art
 Tasks
 Marketing
 Professional
@@ -1047,13 +1052,13 @@
 Fiverr</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.fiverr.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insitchu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DesignerEx
+    <t>https://www.fiverr.com/</t>
+  </si>
+  <si>
+    <t>Insitchu</t>
+  </si>
+  <si>
+    <t>DesignerEx
 The Iconic
 Asos
 Style Rocks
@@ -1065,7 +1070,7 @@
 Bloch Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Happn
 Bumble
 Clique Labs
@@ -1099,50 +1104,50 @@
 Netflix</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.institchu.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile Payments
+    <t>https://www.institchu.com</t>
+  </si>
+  <si>
+    <t>Zelle</t>
+  </si>
+  <si>
+    <t>Mobile Payments
 Payments
 Peer to Peer</t>
   </si>
   <si>
-    <t xml:space="preserve">Venmo
+    <t>Venmo
 Mastercard</t>
   </si>
   <si>
-    <t xml:space="preserve">Money
+    <t>Money
 Reality TV
 Game of Thrones
 Friends
 Netflix</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.zellepay.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mastercard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payments
+    <t>https://www.zellepay.com/</t>
+  </si>
+  <si>
+    <t>Mastercard</t>
+  </si>
+  <si>
+    <t>Payments
 Credit Card
 Financial Institution 
 Credit
 Bank</t>
   </si>
   <si>
-    <t xml:space="preserve">10000 to 100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venmo
+    <t>10000 to 100000</t>
+  </si>
+  <si>
+    <t>Venmo
 Mastercard
 Zelle</t>
   </si>
   <si>
-    <t xml:space="preserve">Money
+    <t>Money
 Space
 Car Sharing
 Reality TV
@@ -1152,20 +1157,20 @@
 Netflix</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mastercard.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supermarket
+    <t>https://www.mastercard.com.au/</t>
+  </si>
+  <si>
+    <t>Coles</t>
+  </si>
+  <si>
+    <t>Supermarket
 Fresh Food</t>
   </si>
   <si>
-    <t xml:space="preserve">1000 to 10000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wine Gallery
+    <t>1000 to 10000</t>
+  </si>
+  <si>
+    <t>Wine Gallery
 Asos
 Mastercard</t>
   </si>
@@ -1180,13 +1185,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.coles.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Splend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automotive
+    <t>https://www.coles.com.au/</t>
+  </si>
+  <si>
+    <t>Splend</t>
+  </si>
+  <si>
+    <t>Automotive
 Leasing
 Sharing Economy
 Transportation
@@ -1200,14 +1205,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Spacer
+    <t>Spacer
 Hourz
 Huddle Money
 Rentwolf
 Happn</t>
   </si>
   <si>
-    <t xml:space="preserve">Car Sharing
+    <t>Car Sharing
 Money
 Economics
 Music Loving
@@ -1222,13 +1227,13 @@
 Sport</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.splend.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liftango</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ride-Sharing
+    <t>https://www.splend.com.au/</t>
+  </si>
+  <si>
+    <t>Liftango</t>
+  </si>
+  <si>
+    <t>Ride-Sharing
 Crowd-Sourced
 Parking
 Taxi
@@ -1240,7 +1245,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Car Sharing
+    <t>Car Sharing
 Money
 Economics
 Spotify
@@ -1248,29 +1253,29 @@
 Friends</t>
   </si>
   <si>
-    <t xml:space="preserve">http://liftango.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spacer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storage
+    <t>http://liftango.com/</t>
+  </si>
+  <si>
+    <t>Spacer</t>
+  </si>
+  <si>
+    <t>Storage
 Marketplace
 E-Commerce
 Space
 Storage Unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Wine Cue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.spacer.com.au</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redbubble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Art
+    <t>Wine Cue</t>
+  </si>
+  <si>
+    <t>https://www.spacer.com.au</t>
+  </si>
+  <si>
+    <t>Redbubble</t>
+  </si>
+  <si>
+    <t>Art
 Creative Marketplace
 E-Commerce
 Internet
@@ -1286,11 +1291,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Glamcorner
+    <t>Glamcorner
 Nude by Nature</t>
   </si>
   <si>
-    <t xml:space="preserve">Design
+    <t>Design
 Art
 E-Commerce
 Ranking
@@ -1298,13 +1303,13 @@
 Meditation</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.redbubble.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dining
+    <t>https://www.redbubble.com/</t>
+  </si>
+  <si>
+    <t>Liven</t>
+  </si>
+  <si>
+    <t>Dining
 Nightlife
 Dinner
 Restaurants
@@ -1320,16 +1325,16 @@
 Virtual Currency</t>
   </si>
   <si>
-    <t xml:space="preserve">Qpay
+    <t>Qpay
 GiggedIn</t>
   </si>
   <si>
-    <t xml:space="preserve">TaskRabbit
+    <t>TaskRabbit
 Liftango
 Spacer</t>
   </si>
   <si>
-    <t xml:space="preserve">Restaurants
+    <t>Restaurants
 Fine Dining
 Health
 France
@@ -1343,10 +1348,10 @@
 Kids</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.liven.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qpay</t>
+    <t>https://www.liven.com.au/</t>
+  </si>
+  <si>
+    <t>Qpay</t>
   </si>
   <si>
     <t xml:space="preserve">Discounts
@@ -1358,16 +1363,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Giggedn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://getqpay.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car Next Door</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bondi Beach
+    <t>Giggedn</t>
+  </si>
+  <si>
+    <t>https://getqpay.com/</t>
+  </si>
+  <si>
+    <t>Car Next Door</t>
+  </si>
+  <si>
+    <t>Bondi Beach
 Pets
 Family
 Netflix
@@ -1380,13 +1385,13 @@
 Kids</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.carnextdoor.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tinybeans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content
+    <t>https://www.carnextdoor.com.au/</t>
+  </si>
+  <si>
+    <t>Tinybeans</t>
+  </si>
+  <si>
+    <t>Content
 Journalism
 Parenting
 Photography
@@ -1399,7 +1404,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Content
+    <t>Content
 Netflix
 YouTube
 Esports
@@ -1414,13 +1419,13 @@
 Nightlife</t>
   </si>
   <si>
-    <t xml:space="preserve">https://tinybeans.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GiggedIn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Art
+    <t>https://tinybeans.com/</t>
+  </si>
+  <si>
+    <t>GiggedIn</t>
+  </si>
+  <si>
+    <t>Art
 Innovation Management
 Media and Entertainment
 Music
@@ -1435,7 +1440,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Keynected</t>
+    <t>Keynected</t>
   </si>
   <si>
     <t xml:space="preserve">Esports
@@ -1443,10 +1448,10 @@
 Journalism </t>
   </si>
   <si>
-    <t xml:space="preserve">Voicebyte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apps
+    <t>Voicebyte</t>
+  </si>
+  <si>
+    <t>Apps
 Information Technology
 Media and Entertainment
 Social Media</t>
@@ -1460,15 +1465,15 @@
 Journalism </t>
   </si>
   <si>
-    <t xml:space="preserve">Apps
+    <t>Apps
 Mobile
 Social Media</t>
   </si>
   <si>
-    <t xml:space="preserve">HowAboutEat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wine
+    <t>HowAboutEat</t>
+  </si>
+  <si>
+    <t>Wine
 Food
 Health
 Cheese
@@ -1476,18 +1481,18 @@
 Millenial</t>
   </si>
   <si>
-    <t xml:space="preserve">Paws for Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-Commerce
+    <t>Paws for Life</t>
+  </si>
+  <si>
+    <t>E-Commerce
 Food and Beverage
 Retail</t>
   </si>
   <si>
-    <t xml:space="preserve">Madpaws</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reality TV
+    <t>Madpaws</t>
+  </si>
+  <si>
+    <t>Reality TV
 Pets
 Social Media
 Food Delivery
@@ -1496,20 +1501,20 @@
 Dogs</t>
   </si>
   <si>
-    <t xml:space="preserve">Wine Gallery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consumer
+    <t>Wine Gallery</t>
+  </si>
+  <si>
+    <t>Consumer
 E-Commerce
 Wine And Spirits</t>
   </si>
   <si>
-    <t xml:space="preserve">Asos
+    <t>Asos
 Deliveroo
 Uber Eats</t>
   </si>
   <si>
-    <t xml:space="preserve">Photograhy
+    <t>Photograhy
 Travel
 Health
 Affluent 
@@ -1527,7 +1532,7 @@
 Nightlife</t>
   </si>
   <si>
-    <t xml:space="preserve">Delivery
+    <t>Delivery
 Delivery Service
 Food and Beverag
 Service Industry</t>
@@ -1538,7 +1543,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Photography
+    <t>Photography
 Animals
 Parks
 Art
@@ -1548,14 +1553,11 @@
 Clean Eating</t>
   </si>
   <si>
-    <t xml:space="preserve">E-Commerce
+    <t>E-Commerce
 Wine And Spirits</t>
   </si>
   <si>
-    <t xml:space="preserve">Nudie Juices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creativity
+    <t>Creativity
 Family
 Economics
 Business
@@ -1568,21 +1570,21 @@
 Kids</t>
   </si>
   <si>
-    <t xml:space="preserve">Food and Beverage
+    <t>Food and Beverage
 Natural Resources
 Organic Food</t>
   </si>
   <si>
-    <t xml:space="preserve">Caravela Coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tinder
+    <t>Caravela Coffee</t>
+  </si>
+  <si>
+    <t>Tinder
 Wine Gallery
 Asos
 Mastercard</t>
   </si>
   <si>
-    <t xml:space="preserve">Sport
+    <t>Sport
 Health
 Running
 Marathons
@@ -1592,22 +1594,18 @@
 Nightlife</t>
   </si>
   <si>
-    <t xml:space="preserve">GroupDiner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deliveroo
+    <t>GroupDiner</t>
+  </si>
+  <si>
+    <t>Restaurants</t>
+  </si>
+  <si>
+    <t>Deliveroo
 Uber Eats
 Hourz</t>
   </si>
   <si>
-    <t xml:space="preserve">Carevela Coffee
-Nudie Juices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millenial
+    <t>Millenial
 Takeaway
 Netflix
 Movies
@@ -1617,42 +1615,42 @@
 Marketing</t>
   </si>
   <si>
-    <t xml:space="preserve">Coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hourz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurants
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Hourz</t>
+  </si>
+  <si>
+    <t>Restaurants
 Search Engine
 Shopping
 Travel</t>
   </si>
   <si>
-    <t xml:space="preserve">GroupDiner
+    <t>GroupDiner
 Deliveroo
 Uber Eats</t>
   </si>
   <si>
-    <t xml:space="preserve">Lust Have it!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fashion
+    <t>Lust Have it!</t>
+  </si>
+  <si>
+    <t>Fashion
 Vouge
 Apple
 Zara
 Instyle Magazine</t>
   </si>
   <si>
-    <t xml:space="preserve">Beauty
+    <t>Beauty
 E-Commerce</t>
   </si>
   <si>
-    <t xml:space="preserve">Glamcorner
+    <t>Glamcorner
 Bloch Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">Craft
+    <t>Craft
 Theater
 Marathons
 Family
@@ -1670,13 +1668,13 @@
 Nightlife</t>
   </si>
   <si>
-    <t xml:space="preserve">Style Rocks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jewelry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DesignerEx
+    <t>Style Rocks</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>DesignerEx
 The Iconic
 Asos
 Insitchu
@@ -1688,7 +1686,7 @@
 Bloch Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Happn
 Bumble
 Clique Labs
@@ -1699,13 +1697,13 @@
 Canva</t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Happn
 Bumble
 Clique Labs</t>
   </si>
   <si>
-    <t xml:space="preserve">Craft
+    <t>Craft
 Fashion
 Cosmetics
 Marathons
@@ -1716,21 +1714,21 @@
 InStyle</t>
   </si>
   <si>
-    <t xml:space="preserve">Gloskinbody</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beauty
+    <t>Gloskinbody</t>
+  </si>
+  <si>
+    <t>Beauty
 Consulting
 E-Commerce
 Health Care</t>
   </si>
   <si>
-    <t xml:space="preserve">HiSmile
+    <t>HiSmile
 Smile Concepts
 The Iconic</t>
   </si>
   <si>
-    <t xml:space="preserve">HiSmile
+    <t>HiSmile
 Smile Concepts</t>
   </si>
   <si>
@@ -1761,16 +1759,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Bloch Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StyleTread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Craft
+    <t>Bloch Australia</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>StyleTread</t>
+  </si>
+  <si>
+    <t>Craft
 Fashion
 Cosmetics
 Marathons
@@ -1779,10 +1777,10 @@
 InStyle</t>
   </si>
   <si>
-    <t xml:space="preserve">AmberSceats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DesignerEx
+    <t>AmberSceats</t>
+  </si>
+  <si>
+    <t>DesignerEx
 The Iconic
 Asos
 Insitchu
@@ -1795,11 +1793,11 @@
 Bloch Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">Ozify
+    <t>Ozify
 Styletread</t>
   </si>
   <si>
-    <t xml:space="preserve">Marathons
+    <t>Marathons
 Family
 Jewelry
 Sport
@@ -1811,16 +1809,16 @@
 Nightlife</t>
   </si>
   <si>
-    <t xml:space="preserve">Ozify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consumer Goods
+    <t>Ozify</t>
+  </si>
+  <si>
+    <t>Consumer Goods
 Fashion
 Manufacturing
 Retail</t>
   </si>
   <si>
-    <t xml:space="preserve">DesignerEx
+    <t>DesignerEx
 The Iconic
 Asos
 Insitchu
@@ -1832,7 +1830,7 @@
 Bloch Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Happn
 Bumble
 Clique Labs
@@ -1840,7 +1838,7 @@
 The Iconic</t>
   </si>
   <si>
-    <t xml:space="preserve">Craft
+    <t>Craft
 Fashion
 Cosmetics
 Marathons
@@ -1856,10 +1854,10 @@
 Amazon</t>
   </si>
   <si>
-    <t xml:space="preserve">HiSmile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cosmetics
+    <t>HiSmile</t>
+  </si>
+  <si>
+    <t>Cosmetics
 Dental
 Health Care
 E-Commerce
@@ -1867,10 +1865,10 @@
 Health</t>
   </si>
   <si>
-    <t xml:space="preserve">Smile Concepts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tinder
+    <t>Smile Concepts</t>
+  </si>
+  <si>
+    <t>Tinder
 Happn
 Bumble
 DesignerEx
@@ -1886,12 +1884,12 @@
 Bloch Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Happn
 Bloch Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">Hipster
+    <t>Hipster
 Beach
 Dating
 Clubbing
@@ -1906,12 +1904,12 @@
 InStyle</t>
   </si>
   <si>
-    <t xml:space="preserve">Little Cuggles
+    <t>Little Cuggles
 Glamcorner
 Bloch Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">Craft
+    <t>Craft
 Fashion
 Family
 Jewelry
@@ -1920,12 +1918,12 @@
 InStyle</t>
   </si>
   <si>
-    <t xml:space="preserve">Fashion
+    <t>Fashion
 Internet
 Shoes</t>
   </si>
   <si>
-    <t xml:space="preserve">DesignerEx
+    <t>DesignerEx
 The Iconic
 Asos
 Insitchu
@@ -1937,13 +1935,13 @@
 Bloch Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Happn
 Bumble
 Canva</t>
   </si>
   <si>
-    <t xml:space="preserve">Content
+    <t>Content
 Netflix
 YouTube
 Esports
@@ -1951,30 +1949,30 @@
 Journalism</t>
   </si>
   <si>
-    <t xml:space="preserve">Nude By Nature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beauty
+    <t>Nude By Nature</t>
+  </si>
+  <si>
+    <t>Beauty
 Cosmetics
 Women's</t>
   </si>
   <si>
-    <t xml:space="preserve">Gloskinbody
+    <t>Gloskinbody
 Glamcorner</t>
   </si>
   <si>
-    <t xml:space="preserve">Carevela Coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Cuggles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-Commerce
+    <t>Carevela Coffee</t>
+  </si>
+  <si>
+    <t>Little Cuggles</t>
+  </si>
+  <si>
+    <t>E-Commerce
 Fashion
 Shoes</t>
   </si>
   <si>
-    <t xml:space="preserve">DesignerEx
+    <t>DesignerEx
 The Iconic
 Asos
 Insitchu
@@ -1986,7 +1984,7 @@
 Bloch Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">Shoes
+    <t>Shoes
 New York
 Vouge
 Single
@@ -1995,35 +1993,35 @@
 Gym</t>
   </si>
   <si>
-    <t xml:space="preserve">Xinja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financial Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MC Payment
+    <t>Xinja</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>MC Payment
 Huddle Money
 Blueshyft</t>
   </si>
   <si>
-    <t xml:space="preserve">Paws for life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Men
+    <t>Paws for life</t>
+  </si>
+  <si>
+    <t>Men
 Fitness
 Style
 Netflix</t>
   </si>
   <si>
-    <t xml:space="preserve">MC Payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financial Services
+    <t>MC Payment</t>
+  </si>
+  <si>
+    <t>Financial Services
 FinTech
 Payments</t>
   </si>
   <si>
-    <t xml:space="preserve">Blueshyft
+    <t>Blueshyft
 Xinja
 Huddle Money</t>
   </si>
@@ -2038,21 +2036,21 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Blueshyft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-Commerce
+    <t>Blueshyft</t>
+  </si>
+  <si>
+    <t>E-Commerce
 FinTech
 Hardware 
 Information Technology</t>
   </si>
   <si>
-    <t xml:space="preserve">Xinja
+    <t>Xinja
 MC Payment
 Huddle Money</t>
   </si>
   <si>
-    <t xml:space="preserve">Spacer
+    <t>Spacer
 Hourz
 Huddle Money
 Rentwolf</t>
@@ -2070,15 +2068,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Clipp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospitality
+    <t>Clipp</t>
+  </si>
+  <si>
+    <t>Hospitality
 Loyalty Programs
 Mobile Payments</t>
   </si>
   <si>
-    <t xml:space="preserve">Wine
+    <t>Wine
 Health
 Nightlife
 Gym
@@ -2086,20 +2084,20 @@
 Millenial</t>
   </si>
   <si>
-    <t xml:space="preserve">Huddle Money</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finance
+    <t>Huddle Money</t>
+  </si>
+  <si>
+    <t>Finance
 Financial Services
 Peer to Peer</t>
   </si>
   <si>
-    <t xml:space="preserve">MC Payment
+    <t>MC Payment
 Xinja
 Blueshyft</t>
   </si>
   <si>
-    <t xml:space="preserve">MC Payment
+    <t>MC Payment
 Xinja
 Blueshyft
 Clipp
@@ -2123,15 +2121,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Rentwolf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FinTech
+    <t>Rentwolf</t>
+  </si>
+  <si>
+    <t>FinTech
 Internet
 Real Estate</t>
   </si>
   <si>
-    <t xml:space="preserve">MC Payment
+    <t>MC Payment
 Xinja
 Blueshyft
 Clipp</t>
@@ -2145,34 +2143,309 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">clicker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clicked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">business</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task Rabbit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nudie Juice</t>
+    <t>clicker</t>
+  </si>
+  <si>
+    <t>clicked</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>Task Rabbit</t>
+  </si>
+  <si>
+    <t>http://www.nudie.com.au/</t>
+  </si>
+  <si>
+    <t>Nudie</t>
+  </si>
+  <si>
+    <t>Carevela Coffee
+Nudie</t>
+  </si>
+  <si>
+    <t>https://www.giggedin.com/</t>
+  </si>
+  <si>
+    <t>https://voicebyte.com/</t>
+  </si>
+  <si>
+    <t>http://keynected.com/</t>
+  </si>
+  <si>
+    <t>https://www.petcircle.com.au/</t>
+  </si>
+  <si>
+    <t>https://www.thewinegallery.com.au/</t>
+  </si>
+  <si>
+    <t>http://www.groupdiner.com.au/</t>
+  </si>
+  <si>
+    <t>https://caravela.coffee/</t>
+  </si>
+  <si>
+    <t>https://www.gloskinbody.com.au/</t>
+  </si>
+  <si>
+    <t>http://www.bloch.com.au/</t>
+  </si>
+  <si>
+    <t>https://ambersceats.com/</t>
+  </si>
+  <si>
+    <t>http://www.ozifyaustralia.com/</t>
+  </si>
+  <si>
+    <t>https://hismileteeth.com/</t>
+  </si>
+  <si>
+    <t>https://www.smileconcepts.com.au/</t>
+  </si>
+  <si>
+    <t>https://www.styletread.com.au/</t>
+  </si>
+  <si>
+    <t>https://nudebynature.com.au/</t>
+  </si>
+  <si>
+    <t>https://www.xinja.com.au/</t>
+  </si>
+  <si>
+    <t>https://mcpayment.com/</t>
+  </si>
+  <si>
+    <t>https://www.blueshyft.com.au/</t>
+  </si>
+  <si>
+    <t>https://clipp.co/</t>
+  </si>
+  <si>
+    <t>https://huddle.com.au/</t>
+  </si>
+  <si>
+    <t>https://tinder.com/static/build/93623929e83571fb02a182782e7e1d29.svg</t>
+  </si>
+  <si>
+    <t>image_url</t>
+  </si>
+  <si>
+    <t>https://www.madpaws.com.au/logo-light2.png</t>
+  </si>
+  <si>
+    <t>https://www.evt.com/wp-content/uploads/2015/12/eventcinemas-logo.png</t>
+  </si>
+  <si>
+    <t>http://www.eahc.com.au/sites/default/files/Charity/hoyts%20logo.jpg</t>
+  </si>
+  <si>
+    <t>https://static1.squarespace.com/static/5778c5f39f74561e5111854b/t/58aa604ab8a79b71785cb965/1487560785088/recomazing-logo-e1462987952107.png</t>
+  </si>
+  <si>
+    <t>https://www.airtasker.com/images/brand/airtasker-logotype-transparent.png</t>
+  </si>
+  <si>
+    <t>https://assets.gatheronline.com/web/images/icons/logo.svg</t>
+  </si>
+  <si>
+    <t>https://www.glamcorner.com.au/skin/frontend/glamcorner/default/images/logo.svg</t>
+  </si>
+  <si>
+    <t>https://www.cliquelabs.com/wp-content/uploads/2018/03/logo-1-e1523772838215.png</t>
+  </si>
+  <si>
+    <t>https://www.tribegroup.co/hs-fs/hubfs/Tribe%202017/Images/logo.png?t=1523949699735&amp;width=666&amp;name=logo.png</t>
+  </si>
+  <si>
+    <t>http://vamp.wpengine.com/wp-content/uploads/2015/12/logo.vamp_.svg</t>
+  </si>
+  <si>
+    <t>http://treetopcafe.com.au/images/graphics/delivery-logo/logo-deliveroo.jpg</t>
+  </si>
+  <si>
+    <t>http://thehypedgeek.com/wp-content/uploads/2017/09/Uber-eats-logo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.happn.com/images/logo-happn-mini-laptop.svg</t>
+  </si>
+  <si>
+    <t>http://media.globaldatinginsights.com/wp-content/uploads/2016/01/18223915/bee.png</t>
+  </si>
+  <si>
+    <t>https://designerex.com.au/assets/logo2-1ffc7ca7a093c4d36451efbffe32a8f6f72f8cea45bde6e78bc550aa3c768370.png</t>
+  </si>
+  <si>
+    <t>https://s3.producthunt.com/static/ph-logo-1.png</t>
+  </si>
+  <si>
+    <t>https://www.taskrabbit.com/assets/img/logo_horizontal.svg</t>
+  </si>
+  <si>
+    <t>https://dcassetcdn.com/assets/images/new-world/logos/designcrowd-logo-7ed4b832df.svg</t>
+  </si>
+  <si>
+    <t>https://www.zoetis.com.au/global-assets/img/logo.png</t>
+  </si>
+  <si>
+    <t>https://vascopay.com/wp-content/uploads/2016/04/the-iconic-logo.png</t>
+  </si>
+  <si>
+    <t>http://content.asos-media.com/-/media/images/meta/asos-logo.jpg</t>
+  </si>
+  <si>
+    <t>http://www.freelogovectors.net/wp-content/uploads/2017/01/canva-logo.png</t>
+  </si>
+  <si>
+    <t>https://cdn1.venmo.com/marketing/images/branding/downloads/venmo_logo_blue.png</t>
+  </si>
+  <si>
+    <t>https://i2.wp.com/farjani.com/wp-content/uploads/2017/08/Fiverr-Logo-PNG.png?fit=942%2C376</t>
+  </si>
+  <si>
+    <t>https://s.productreview.com.au/products/images/institchu_4f0bec5d75746.jpg</t>
+  </si>
+  <si>
+    <t>https://lendedu.com/wp-content/uploads/2017/09/final-zelle-logo.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2a/Mastercard-logo.svg/2000px-Mastercard-logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/28/Coles_logo.svg/2000px-Coles_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://www.splend.com.au/wp-content/uploads/2016/02/splend-logo.png</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/3wmu9sd4MzAcaCNq0aNjAYquYANAEUB-0GUZlR5zNuDxBzhISzbCgUreiaahb6Hxdg=w300</t>
+  </si>
+  <si>
+    <t>https://www.bocris.ro/image/d/1/d1f44b88121bd248908d3bc6b7754c01.jpg</t>
+  </si>
+  <si>
+    <t>https://p4.zdassets.com/hc/settings_assets/558695/200038749/RTUjWuxFgtzmM093RkeBvw-RB_Small_Pos_RGB_copy.jpg</t>
+  </si>
+  <si>
+    <t>https://www.liven.com.au/img/opengraph.png</t>
+  </si>
+  <si>
+    <t>https://static1.squarespace.com/static/54a8abcce4b03d35accd2eed/t/571034d4cf80a10d47b05059/1460679930411/</t>
+  </si>
+  <si>
+    <t>https://theme.zdassets.com/theme_assets/212153/0f6bc687c583e19e4c679136a7b54fe98c8bd533.png</t>
+  </si>
+  <si>
+    <t>http://oppo-studio.com/work/tinybeans/logo.png</t>
+  </si>
+  <si>
+    <t>https://events.giggedin.com/assets/v2/images/logo-dark-lg.png</t>
+  </si>
+  <si>
+    <t>http://www.investible.com/hs-fs/hubfs/Portfolio/vblowlogo.png?t=1523453514294&amp;width=700&amp;height=421&amp;name=vblowlogo.png</t>
+  </si>
+  <si>
+    <t>http://kwkeyclub.weebly.com/uploads/8/5/4/8/85481056/remindapp_orig.png</t>
+  </si>
+  <si>
+    <t>https://yt3.ggpht.com/-ZvZy-WHU_Iw/AAAAAAAAAAI/AAAAAAAAAAA/D-Aw2H3qR3Q/s88-c-k-no-mo-rj-c0xffffff</t>
+  </si>
+  <si>
+    <t>https://cdn.thewinegallery.com.au/static/site/img/the-wine-gallery-logo.svg</t>
+  </si>
+  <si>
+    <t>http://www.freelogovectors.net/wp-content/uploads/2017/03/eat-logo.png</t>
+  </si>
+  <si>
+    <t>https://gust-production.s3.amazonaws.com/uploads/startup/logo_image/159952/logo.png</t>
+  </si>
+  <si>
+    <t>http://mumbrella-uploads.s3.amazonaws.com/uploads/2014/01/Screen-Shot-2014-01-13-at-12.26.22-PM.png</t>
+  </si>
+  <si>
+    <t>http://duckduckgoatchicago.com/assets/logo6-57c8824a9d893d6fc2bf437507f6ef15.png</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/2937425693/d89da87a4488073a551182897b2e6941_400x400.png</t>
+  </si>
+  <si>
+    <t>https://cdn.dribbble.com/users/92593/screenshots/2437084/dribbble_1x.png</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/488909294578827264/QljZah9X_400x400.png</t>
+  </si>
+  <si>
+    <t>http://fabfivelifestyle.com/wp-content/uploads/bfi_thumb/style_channel_logo_new-me4ispzqgs6ojd2ip4j432ylxb9wwwcz6ohj87zv4s.jpg</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAOEAAADhCAMAAAAJbSJIAAAA0lBMVEX////wVCMcJSwAAADvRADvRQDvPQAADxrvQQDwUh/wUBu9v8EAAxMAAA2jpaf+8/DwThcPGyP++fYAAAn0i3ILGCH97egACRYVHyf839j6yb7t7u76zsTydlQAAAbZ2tv3r57Q0dL98Oz1mITyaD771s12en32ppOsrrD1lH34u67zgGLvSg3wWCj5wLP6yr/ya0XxXzIwNz1aX2OBhIfycU7729Pp6utrb3LIysuRlJZQVVn0jnW4urtiZmqPkpTuKABDSU7ze133q5omLzU4PkNGBE+8AAAV30lEQVR4nO1cCVPqOhtOl3STpZR9UQoFWVoQFAREUFH//1/68iZpKTv3O3eunpk84yB0zZO8e9IiJCAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICDwB0j3y/S/Uyn8cEv+dTBC6QBrNfLfGaha+2cb9G8jpw1g8DqBZErkvxdI1gi2d6TXn23Yv4W2JlmBg9CtJUkGoUp4ShrZ7hmm4f504/4QlQp8uoEkYZcxxDXkYIkwdFDBkCTrlh7n/GQj/wQdTR00GUM7h9An+W8QlRybktVCaIg5w6Gp9n+6qf8niDjaROHKZLBsonEONq0povpoEIvTJwwDjwy0ZprGXzqKJlE4g1jNXCAFLvn9oKlgS9NqQEYUtbFkqmmEbJMN7d+FYZ80HW1sMkoggNPAoJ7Qm9K9nQF8OoEJTqOsErX868awZ2AYLWJEGUO0GbMdafrpNOk/n3pFMpSS7ZMv/bFU+4nG/l8YmJKpkVHrayYe0i3lI0e16cZnLNkWYf5qmJb9Xzbyj9CymG1B7YEW5/byVCefN0+L2Lamqk4JwRoZb0n9b5v5B3CJ5JlU2VCHadjbfRWhlZLPI1RX8soModmE8xxQOc4RnWWRzm9HherSGJx8bGtK0b8QWmfkxArd5+ViF82yOvCM0IJAp/LftvX/wtTAGDi+aoHKRm/1VmXcuugpI+sptKSfc8oTVbtVdqJpWlqH/G/n/GM6+2uQJtpEfQAqeJgyXCh6dgbjlr9HqaKcXaBJXlbqKFOC8VwoSZmdiY1bYJbTbBufvv4vADb31Cmly5klYSLrLwiVMjLVwzlC3yVZqSJdlrmsutTnu9Q5pn+i5deiA2F1GKGkVsRwJmU5idAkmVwAOSKYRGTJxyRPvi+ysnxHxLQRaqRFOsgc/1Dbr8StakncB87vsh8IyRk5S0hMFNhEzecMXEZDSREdTcj6E6p+K0qdnkHjG+33+v32M3wOb7Hm0d9EEIsTNPvS8/Crvnc0kF0ki98O+s5TEUbgZWz8e/MMZ2AYFh0855nVKIh5kcGOTL6jg/pkfJxOFGbPlAmILpHjG/o7Z/p9sE/lT7f5Hzb9SjyoYEaH/Fc3VSXtJz4CnAF1CEM/TQIXrYByBiSHOWppQf9WRRkMEGpEl/KNIMC/LxaHLFAyecOIh1dWaPZxxywlGEeMfZIL4z6xJgEqa1C/4Mcmsx8z1M0qGX4lkmyxcsdvQw7MKM0DwVIyN9CYw/iVtXEaBaYNxJ7RbbABqi5ytR4cm1oSlbwhoqqwUXymXRX8FI1zyGmBHbBotEEazK0HQQUHPcKHuMleC2LsJqqottM0oJbBQaySXGRffRvE/XcGcOW+95pjJuJNyRNHT9CcdkikY29I+gtBGRgZIn9pXEBtFXuo4FPNnSlyifpKcoKGsWE//AyD03CG/UhvqvMlGb3GvUw9YF9VPZID5g7PKb/7yDHYoN8oyQ+Q1dQMFYaVh+t10JnN6vXZ5eMug1xodtq6NTEOtCnfP0lkil/whZrQgmYRDs6RGrdTgXobLdmg+oIcPJOzRaUaXrLvfZ6P3hqp+XdRobgrfdynGtXtvpvVzc1i0QAsbm66jdNXoXd/eZLZhUrLyU312CFQNpNsrlUvRaKD9/RrZ/NMSJzJaz+hX1wu2Y8ZWebBDVFUotPW6T5dzPOkQd/zydvbZP5RzOp5PVl8fAp360A7SZElX59OXoeMw8sXOeJrPZlM1o93ST1RXC8OjypDgi4FPfYrQwxpkvaEZhP/5wwPTwhRI2P7qrLK94pEsPoH2/6smRC/nZLW7mM2W5zEGrKYK8RUlUrbdtdX36TDyLbHVf3oqHC8FIsJORXKebX7cVfKZD8OB/1Ts6A088wOWxfvFGpIczjonLk6RVq1GJPvREJZ8o0QgUvWiRC8/p3MJ18ONuqRNeaQCem9TftoyHopmdrd9KgTq3d/cGhtFASD2z4YC+A/m1WRU4C64U5houCS0Aa1dzzBw/uoTZ1/KrUiIlqFDvdUy7SC4HgR9UUp6R9HhuUpzyUnBDjlzPocwZRSyjwe2Kl7EKbHUwN/T4IZPhCBBiX7rbVojgqeNhxrNYyRv5XcNDniweQJRfUpqxBB7fduW9POcS1cJ+Xi/Oiex1J2p7UkNZXzbyfpQb4jZ76PbH8jFDOZHYrbtnwQ4ddZvwUW9raH9B9qxqBntwbmyBr0jFzT257UNEyDZRRfEAsdUfQtlnp4/QPUleTOqatiPOw4QuROLmWODtU96ZuSvN01lFTsc4lagMaTkJTg2VTftyxMo0fTW/Zn96yYGfE0w6df5nDlragVDsV0TZTk8VST59nuAcPUqYPRahsoHuCRsMh8hL/KYPdszD3e4jubLBHrnCYeoPDMGRaCTs+2pBhMc1AZuPwK7VqBysFCSRSz+fCmn7aqjves6QuRn7v9TDNCQ9mRyZvEOYYzcqn8oUFhgIxOToTjz1yFqYaNcYBWWzNiYUxaC8amtIuxjd3tEeWxSnxN/aYbyZkPJR97G7mGNz7ZKoLIFl/BcEn06e5kNDQHVxOFH7QtZqA5qDp5mrCTapqpho6iYHs5ixE0ow+ox7hmyJG4jJBM9YZmwz6kUPs1YmhV9kyMtqtUZxlCMpM5brEA9awc78xPC+OxR5zho57JMyVErmQNuB1NY5uRGlgtazRujaUB4xhEFYueqraY0qWURDIxQ+47Oce0jef4bSFjyewM01mcZQjJTOLm9Mkf4Exj3qfAyHzBZmXvvKHr2ZSf1GrlAs8fvQa3NuVo3g5Dl+Dw3pjcwYWJwWh74yDwd03NExnCYhddi3MMG3Af/UwdAVzNkbMbCokPFRJ2u6Nc5AgtTG3MwPY1d/NZfvCGuZbPlTF4j0zJQ474j5SSkUt5nXXd/v2r0KrTqvOPGEINqXROHGYgpiVuTsvDqP5XTU1SxNQ577GIpEyNjDnwrWGNNtpxvNfRlNK23fDMDolhXeSs5l+l+xPhRLcIunE1wbMMQdjyk3NnQ1DLykzploHVYC+67hsGj0jTlj0CQ9QaT/vb+lm/g2+pQR3z2lXZMIzxfrbU7g/jJTewb2f7fQ9nGFJDcl7g12BNaQhB60amCi67+rZccyV0Ig0aUTMzCHI7BULXpbopWTgU03JoVBrcY5RHRoDJuEb4ks/7in/AkIpD4mzw9BYpIjPrkkHs+pdeyrBcLGoucmqwjMYc5F53k2Dfa9EKvrs1JvRbdakUsxAw9TUqx1q0n6rhecm6miEE5XLyZOgAYDoBt2tK2LYxhjATAgG5WKwiXzO48UeSAQ0dtKze7gXaeDSmNbXQ1rhYGzvo5g6EI5EiKQcbZC0a+TpleC6Svp4hE8GzRgvO5h3q9HM5uvQCdUnUpaxJz4ywrXFfXRtRvzB43Y8xP1vMAPG4gDhAm4Sqi8dkpkTniMu3BknzjW2Nv5H89xguSxcZstvti0x11aVnOa4Xmtd2D1zfeNPZz9f7uRYw9EMKz68+Pedm/sHjovJnLybDaHH0lmdwhiHz52eltJG97naF94AOlY33GU6Zm7TfP69sMGV4JtA6wMUxPM8w1qFDLxyx1HKZAg/S7EVDUwvHcF9K3b0xLHQ81gk33eN3pha+dCxjPYFLenguaAtFBpSiMMB2oNIFFctkJqMn3mChgq3xIkuoh7kDPRzRwR2HeqgFAdjNFz1Z5LWxWs+P90uVGbLDttRnVQBUQKrV2Va5LtnSM7kjP5u5zA21eabmsybQIo6naT533yazpaP9xbLPuLVrS3uaiptoAhm0fEcuXBmrth1osdlE2HMkaltBoTNR1AmKxTtFuYZhV7+oZPSQLCSrU5vOOW0QFGmKyQwd+nQUnhB/SD1+rrc7tbs58IeFNsR0KSVPnGoD9d9ZPqJto1MqWsXVQVsW3Zf7xwSNsvSnmIhfimlKH0f3cbBhhm9lUw0wZl1d74aizZqLaA+wmMaP20X06bKU38RhbJDmu2eTjzn03JB6fDPGkPrgU6ZmRXfulH7PxaWZKOo8BTBG4fVqbmU/DfA0VeNxacDj0tZouKXofhpTFpcaPC4dG9pm9xoFWJuDY5VHpoinQm9wALsDfCm3gOUup6EfPyD1WFq+zFD63cbjkHWUWwTDB55b9Hqt/dzCVy3Querq7S2qDpV5MhKCWcATzYK4PLlTWDqbH0JvnSumUmehb3/zhtzfleRS9humtLe1bimeH7rlSmeYG23CLP89CmBJSumgNyWh68opC0DrQ6f8BYxKdsfPnM3xqc8/k2yCGm5LkR0JS/7QYWKUf2R0w6wd9aMcfzzK2b3N9BWHOf50uFf2rcq0AkSHwikczD3NacB83I1N/hlDOoj6aWuajw9hC0NJRSUOcK0Uw3JXD+OAt363TjNojQdhhq+6/BKvpu3To6tfxUxeqaOmOyX2y99bkVGlBkL+Q4YflBdUfbfVtH2kimHZF/GpNckKoDWNFb9HXzMjV1YIolob5bmttQ3CiK2smYHPr72eL2D9MIi2jfeGkfX8UXN6guFhzTusqn6V9o3vFlVdjpXW+7CywLZDQ1lfrRpVkhwFsXjzcr20gjVaX436dErTziA2L0DRBYrZY6J3yBAcyBGvvuTTBrMkoZg8EdXl5UystJ7DKg5DGPSkFBMK6+R0++G6mne5nKb5b1cu3kXp0RRkXz2YnKMUlSPtOrQ04D8PB+kmG0Y9jWwpJopxvCSJPYgLcHprE+Y092dLhFTV2B4j7c5bvFrathTqa4wJyIacDGWwY6r4yHNRiyKUhQ+LGeBKdusSL/oRr17NbEnX9QyLEPcJZs/MrikQmdL7ONrOU039yu7cUzo290S0kD3MtqIDFJnw4+XM2ZL0vf64X2ShQdtOfkxTpL1BrH5nYgWo6jJ52FvOOiErh6o+3LRGuc8CelGUL3Zvx4SZCLSNY5qjsqf1D+YPgYZr8PnDFJFxHV3C6itZKt19rOI9QB1JKe7yYT0BeK/SZNWoz2DNRmP1li/t2s9uXi/l9ZfYppSeL5YOHZJvWKZlw8MEDmQxN11aNUVOTvXjhzU/6RzwTumxb/gFKM05MG+MZt1uFRX8lo0H5+bHV0tF1xOJ5QtpfL2x6M6L+VI+oXzfcwWdLB+VZCbPkFAiFDOl/F49MiUn88XsMrWoz+qN7jqRTZaOaPkndRgGzx5eoFxDdX4U4ItrKcsG8wkzRUl+874bw6QFbp07bZZa55UY9OVbbJ3I08dyPb/fxXw+X6+flt8HpmVxL8euMz8aUMDzFRLm1bRuNH/S1ALbIc77dDth4nAasOibmIoSn/Pgazv2XcUBy0U39fY2eUmtGueyhCtQJRnYZPKWWp0qbHiaHUTzhTCrw5fFdHpN1NEGp6/saa/I6W1o6ALevMTjlU/wsb/q8Yuh14mM//quSJeo1el41DR4Iq/wfHhOug2PJHI/AR8TJZNJ8J0dAwfxevcvQbpdGZJmg7Go3usKjXo6mERvQ+2I2Wi/d4g4BnSg7pNL0ik362XkA9KV/vWr2/4jpG81jHkwWk3kedBb2AwJD3gIatPn0xkFKF85aIiNPmqPqA52i6XEF7tM57X3+TvXsqctyJH4gzIQQimR1tL1sq+w3mLjQ6TuIFdtoWe6JpNhpmzXwqlQuvuNT1z2IFQOl7YRk6E/0ZoL/GprtyTEsVrowTAKaIw95NlqDfXeqexOQGmXsH6JnlpQaaZy8amSQuWBdUM0T+mw79vSVvilWQZs44N2v8LTsgLsYLeKdMI5pR2QPFjh+vOJAlo4UYqsnOVAeqFSYm2kmWNU0bQHcme6c3mX75K8MJngwTw8xSZdXA+38fvuplWGZwTYhg4RjwIo9W0YzEY23Nv0er3XFg8+3HFn6I7Yj5xP9tyOoRjkhb5pdEpHXo0ASxF9WNX6dsejQhpouj3IGokUj0BcP3OcOfWD9OmSMHRyAps/VXoGPaq+ZVBtFhh8wgkFWGfm53iUEUUMHpvY69Nr5ljfPZj0Bx1nJwd7xszeu6e98LBD62Jtr8WVMcHKBItYFuqSq6Q7kQSmHutsKpJVsgs1OqqFqYYvPThjRt8YQ5e2njLcOKPyHkN+MYgqK6HbHsIZubAc7UJVkF7i0jNJBahUM08N1oNYmzeFzttW96IFCELRBDxnXQmtUlkzxpQ+p3oGrUjJKMM+s1mU4W3aYUtv98fQgcaPoyvDYpiQIQpCzuMLNs6BPNfm40yC3xtYmQOiOsvTfIQGAdTnTWT2WCJJtUhCwZJSJ5DM4GCS6ijKeBiuU2mF8hcxROXWEYbpTZuzZACRixjmQET9CvIuxdHw2gRJDeezFw5dA5OZo2o+A5XcCWQuDq0W6pBEk5QHapb1FB9gKKJaZ4K8GNLeuOUVGMPhaLPLEPV7cYad8Wg0atGnsQq30RX6boyhRzVs8LBXlT4EzNmz5VvOkJ38UYJCwVMeKgwLBfTyTSfjRkQ4v0aru93yJy1qqdf6e6cyBkszrfkkAN5liHLDgzEkhzsoHRvDYYwhW2XwrF28aQ/bWIKFhl7AX0HzpsBklELr0Y8luQRTSIQVzLAS0XzK8qJFbkN5DcJ3FFwJG0QbbMemv8sQjcsHeoj6n8RERW5xVIgxZJrrnE3YKBxv4yLQksAMl2OuFmzGIenAp1IFA5SdIYUVK7u87pAL6EpLZ2pg7R/EM7fN0B9Kz7sMibU5sKU1L+YM2nBsyJBvvYIh5wkz2zuPZn0UicurZqlbSNLy0Iuix1fC9myJ1abKw2sIFtjDHelB1Ko0pNExhuh5Oo0Y8s4ewQ1GTETKdnrL0OV52tUMXRxGqGUeIFQnkFkv9ewEHpjVIT9OzeMPAHeIibKuvT5BbeA9tN1BLKZpSzymmXJ327cihj2XwBszbrnp8Ln2OqJH5TyyoxfOQ0fXuohcGJSQLM+Nba/OqUxO1vGMfGDQh9Qh5f1HT+S13Q5zGKHlfi6zR3OimctoiVL5oUIQ/Sz0Oy7PV8tke/wZpGtfX+VhM5DgVRdq6BuPGY809b0ONjHI1oj0inEkT/6dSE/tVwdeR8PfjuG0+EwuVzEWVrh0yJrwHh5iDZ2Riu3f99zoeYCwQjXJGdtsKrfDoskKe4XJiK6xadLH24Hzw2989vc8RharMPqBZINHrhmstijRaaamSkI0hz0AhH9nUn8RuUDCPisNQjXKsUz6vpMhllQSTrRVNsLwGgXjL31BXWFAZ1bCd3qBD1GfaWQHr02owRtewD+8avhaI/37QC1HBbPXtYFawtsWYEJYa6KmEb4g4rn/q1+EcRlpzbRhkIAhRNVQ7gDT0sNScOTh2b8RlcEGBokkDiZYUXh9IhVLXzN/Y0ntDzBWofxEQiPMl6//dd7hEsLXljrDv9R0CggICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAhQ/A9eNxIFE21SsQAAAABJRU5ErkJggg==</t>
+  </si>
+  <si>
+    <t>http://www.sammysroom.com.au/bloch_items2/bloch_logo_screen.jpg</t>
+  </si>
+  <si>
+    <t>http://www.raradesigns.com.au/wp-content/uploads/2013/10/Ambersceats_Branding_11.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ozifyaustralia.com/thumbnaillarge/logo.jpg</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAa8AAAB1CAMAAADOZ57OAAABF1BMVEX////4uL0AAAD6y9H7ztX6yM7g4OA6Ojr6ydDVjaIxMTHR0dFwcHCwsLD5wsj6xsz9vMHq6uooKCi7u7sODg6CgoJSUlLHx8ccHBz5vsRbW1tlS020hor4u8CpfYBaQ0X73N/97vD85unf39/+9/j29vVbTE750ti/naJlZWWjo6Pp6en72Nt4eHiampr98vPx5OW0tLRHR0c0NDSPj48wJCTrqLPkqa7WzM5WVlbMl5svJifz3uDgt7yMaGpJNjjSp6ydgIRyXWDYoKXdl6hvU1WTbXC9i4+ujZEkGhvg1dhMODrHvb7moq9LQ0RbTU6MfX67oqUNGhkRBgjGg5dyS1aZZXTUr7U+KS+FbXF3amtmQ06zj5KiMWjqAAAVRUlEQVR4nO2dCX/bNtKHJVJXLOuWrCNhoothdNuKYjt2FLt2jjqp293ttmm6+f6f48UAvAmQAEmJ8dv8f20ORxRBPJzBABwMU6nvTLn2Sau3zh90mpIkNTsH60lr2igm3aofoijXWOSBEk35ZbuWdPu+C5Wmyxg7ojadltw/O5kuZ4EHqsXl2smqWa93HD+o906CvycpqdPpVHX9bLScNmI/UV2SRvF9WxF1q/tna0lqBxymltamIfVa02IuN5vVkGazXHvZmrw+0P+xs/hePWMN3WDuu6kkSZPYT5SXpFx834Z4Hbh/dhTES10SHs11qz1y36RYtVFjsSbWNonx7opRtaZUd/spxOsw9hMlz2taxyB6jYB2zNqv8QdbVKQJ6x/Dq5gnELgaMVpgOwxyrwnon8KrhWltuE2mhg+Ivxui6p/BSz3CnlDIwRVfokOOvjefiOKN/1i8xqnxajUGXvD7OM4TxchrvBqfU3ix40MVxxmeCUCAVDCxfNKzsfEYoRgMBsNhH6Q9+Xghy9lKGakLUpTuU0l6X00r/VjPGyOvYVq5kKRXuM3lcgUrK2sXT55s531dQ6zBCguC+INz8RMt92NhY13ABVrd7881LYOogCoVTEZBXNB/uhS7qphXeRBvo+L0h1oaeFXTIKvdtusgfzKu7j3q9mdbOSuDMhrSHIAOBivoJb8TTcGLxtVqXYjLQGeClckgNLJBhqGuV05ecqzOMBXz+FUGXs67zA5Il36tP6FOv+qyeiILBMEskTF6r3kDQUpMjR6vEKa5RszGUoUmfl7pNPD6O6Y2WoqV15jYFxeva9TldzRclE7KZjTEzX4mCOyjr3Wshn3CSS4QK5dlf2h8vLCDwby+9/jwXPeHwby6V6jHr2mWZe8fZ8/J86FhaipqdzNKS8fDeaZgUpILcly8Tk/TD4dXkTJ+0Xl9Q7ieUEcGKq8C6lv0S7Yi94mdjdDx07DNXA0zJqBYeaVNWojXzw+Jlx0ZhVf3Eg1e9IHcjxcWQYZijmaoGHE8zMgexcLr9N192lL/5IHxMolReF2wvGEQL9S1SJn+ADziUriB46EmF7y4YuClnL57Z6OVnj+Q9Y1LG6/TU6VL5VV5jEJ5RpzMw6sgF7R/o1mzmIGt+nRYMfBS7h89shtXWnso61Ev57ZWn747ddPCvLrIvL7RcVF5FTy80G93wQ/WbFoNNQarqLzKyBE+euQwrrScejC8Uoq94e8e3VPs6yOK5c8EeHntC82w0QTuvRUx+gkHg+iIDGXkisgL/X/6COnUgasCZ30YvA5SK0fTT+HWc/N6ynaH3LzkAoo4tsgxDn2XfMbDvs4qEz+vchlMy21c6S4+80Phleo7W38Pt5/i4IWGr5vIvDLPJOkFECgUtP6AYmerARqwZJNV/LyIaaGrqzouWCGnfzC8UlknsDTcg+9ObbxesYcvAV5ognOTIW6uAL9qc309GS8wwY8zbsXJi5iWx7jSaf3WeTi8xorrCu7xhd2nu2XMq8KO5gV4yV/QHE6mQPFRbLwU3bTcIxeS4Z4fDq/U0H0NaXIvQrhYjo1X5k662ybBq2uYFsW40kOjMx4Qr1TGcxn3xgXeK+Uy4sUKD0V4XSHs++ZVKZuXQjMuC9eD4uXxiKaJYSsT5UWZfwGvrzjg2COvSrlrg0UxrnTf6oyHxIviEXForwsi8W6X/vBLwL6+SdLXffLq3r+z0aIYFyxrmHpQvFJz78VYJobsa6Qev9EqFGYCvF5I0nN+Xn5zMBqvCv6/okMrn9oti25ceFnD1MPilerSgJ2avIoqZFzXjvtuaGK8ftV4eWmZ7fYL0pbGzMML/XF7jbXNyhVbgOFjXOmyozPEeKmz0ahYzAWtiO6O14pyQYaJIV5tVSXEarVPfS0bite1JF3y8dq+uLm6bOI9Ss3L5z9db13I7LwK2cz2+qfnl3f6xovLqz/+/K+LFs249GUNU9y8ZsVN72WHtK6ef90qFdnZXzvMP+zTromY2F/mw0aANgI7m8vCvOTtzc1XL5ovX1wIC9+eO7e6IMw3XxzELF4FOXt9c+nez9T8y4GMZlxpZeXsDD5etdJR3X02qT4pMfbi7DJf1L3MYZnYH/ZLUXOGa5QFeRHP5nJ7v0LQaJP8k9H7nbvLuztz19LNNkPhJWdfPDMYHeTX+Zd144C7P/7rZ1zp9BtXZ/DwGi3MO6lTPwAZf2+2qMR2yYsW1BMT+1OS1panroGZYfdIkHHzsqjZeD138npBaF1+ffFlu82iIez6xdcrzKD5jcLrmtDq/DZtFGc1aNSoeLIgG2ju/mQbV7r6gbKfKIDX6FBHdbRsF3P4dOqs2FjoBkfb2bHTfGxaUI+v7daR3mQ2C7oHokYTmf/8i4fXV0zm5y/Oz2x/xoPTjZsX+bh00ziGrrP3LNlF8z+mcVWf/keUl0o2D3SW3kSv4hLfUZ0Tz7/sNn/eu8xB1EXdtbAabj+EmFmhHIt9FSAL6/KFZjlH4xDtBXTIVdbBKwsflxY5FyyiNniqv+6r1AuqXgjvd8DfJ01YWXlk95QnjXnH+x2oQT3J9fLsRzSFiOXOIWY0gYW0ry1csiMisR91AywLBi/07VtwnfkiDRYW2MMrxg0ovD9lg2n57T4s4k2nLp475sUI6tNnv/tdjFqbnZO5WVY3slC8vsCY4/SEjsMgw/hZBmAVILfxHFze4YxFC43HkIR3Rbsc5ViQlzoBdxe0vRnyzl1Ze7veT8QI6qtvJd+dKbVzfXJ2DBm4FZx7KMpri5zur9sMi5dcgAdoYH7a/M1xTR3BRqXlJ/aEtZ+ufkQfeUvxiAPB/V+Q3CUdBu+xGcHnHInnO9//JTMs7Mpr6zap56ouYAbQCtmKGC8Yu567J9M2WrDH4l+oEb/UatgDwl60kxRzu8ygrPtx6cIDbCi4X08FT8eVjKf2IE60/WD3+/XO6AYGGYhN9qlt/UawHR+/6c9xfxcMkb+weKHh6YqKKoP3wrw5Pka3AoL0kljUlBj8J3pzxvptV30vSZ/d1zIX3F+pQijBW+rh0Il297z+ZnhEuFWbzPHW02/66tWn80/Hb97AVrI5lmYoo/8+J7w05Ot+150h+fl83n/zBlECTOfnn+DrVLVoDBA53fHQeZmL19Uz9LknTgODRV4hXi0BXASY9end81q/Z4TAMIQx203rN7x2dT4ylh3pgpv3BM1y4bvNT6o270qo52okrkC9UYc/IA91BH+nBa19V6udBoYXeUV4lfyHbo/AJZqM9rF/+akfsAXte/CaB03q7HzmAGCXjZe6ALdPnUcB99y58f05PGpBw6UZ/bzuiAl98taec46zawR4FdkXzbjmvK0KzV72m98yXOIHiSeqdQgFIv7/nnoNRpvzT9ZWreERNe91KjXR3aKH79C9pgYjmD1EJNk1Arzy+IQiMp12ak+8fmFNmz/e+c7xaQrc79yDNO2Nf662arlb8E65moHXhWtQobTZ4RD1dA1+XqhlHdE6WLBhW//2/dRzGNB5oeH7vUSIce9cYARwljCvgP3NqtW3MxjoptgpurWiz0WaUtN0iMbzf25eI8HBizR3bQb1e6q/wZg2p6vVj3jNTlp7ypsxFDjJBF4Ngd2ydXS7TKSO5+crxuJn9cqagmXNVvHy6oUqAlY0Q4591UthTZsRsQtCTDosxVKjAXgtSLDHpQk+uXv2OtaYDUZh0gfCy3qgzMsLOj5MxbKJEaPsrb4NYwgjxIxHhPXFNPIucsSr0RSY35TwmV2dQM0W0pv7RJKeEV7WA2VeXkfO1QpujYz4dW+8mA8vMbGzp68kQ0fTSAW9EC8UzPN/vo2DVMePWN6bNNYsMmLbF8PJC8wrnBNZ6+uIiNe0EZuWPvWjBn6dgJG9tyqM5jftsMVEe5IkdBNDH9rXVMc+toVbetuU7uAPfduXcPJahDSvVKqhR7B5KWax63353rUYWfr2w2OTWTO/aIRx9ZiXgIXOOvbPj/s+foDo7BUKEPGqoSU+XrWQoxeoSUKoPfLyGxQsZGcXX3+zEobWh43AlDyXMC+RAyA5wzDmPnuYtRqJXPeFFRpi8fGaSgJxkEstYpqI12ErNk386+kxg0Qns/L2l2XvpcWs1RCpxga88iI9YS33DMtcDUTx7Meqc38gH69eiLmXoSK5qrx1b8WgoPqHXP0Byg5Xxcbhgcmst+GeUQMvoUIPaChfw+98tBCvz4iXK9eQi9esaS5TiEsllbH3W69yzMsLSR5CSfqNZWeTKdfF9sSGrxQsOC7055HcvH5xfQcXr4Z+Y4QTXhfdd31RVj4HXRkcMRenh+bguAxubE90UEcHLFfctBCvZ97HQFy8JhHcIR78FvuvB8tKSWRJIwuqtcaGVMeW8kGrID1KDXxfoW5kPPGJmVc+Uk050rd7r98bFNV7pMh6jQ21ROys4/9Gip5guAG8nuyD18g9LRcTzDvUBOotMxfmfJBldWSzZT6QWE/o+dK4D7WRxHg9D8erHSGaB63BzydQH5u1DcIfmW5lagPX1K6zB4KewOPb8VxJV0V59XvheG1CL24QTeC0CfAaC4ztTmR9jKyNbWzCMrEed6nYIZ4PivIqp0LyohwmpBaEK0nUn/db+g1Qdw4TH5z3ysqt6nFOv4ylDFFe47C8ooUb+CnzJpn3BYhF9S4pKGSs0VLLdfV4Co8OraUWQV4DqqHw8Kr7pO/xqAGOPpn3OwyiAEOq9P/FBOa/6DMeDIeawyGL8eqnwvKaUT4ipCIEUgm9j0N0GuYRzq1qfqIUqjd4WW9gwFXlM3KlrNAcsRAvTT9DCF6jpuA8w60RLI8k9f4U4WmYp5shP/gqrVg1ZvXtz2h29BSX/FSoeLxfJMAL1zUMywt1dy0XXrM2TCwTe99N8MMVmmwEcLqpd7MIzGYFliuE4nmSGxqSFzwX7UQSFANN7v1ErL2XvpI1udI1CvJD1odnswgvL0UpZ2VN64rw0hMAwvFqR360CJ2b4Pukwsyblb6+1UEuK1XY9PdZlJfSBU76C3jmXRF/2NcbnhyvJO1L4GmYTVnS0YMVvJ0G9ttdd52jFI0XYlTJyrKmF7REQcgKvwYKmzg3L7M2VGh/uPbfqsGhZN/XFmbeTIBBnw9W45doSrLSA0DYL56t4HjjZ6gwkMUvPZrPzZdYDVb4xUdw5ABwaWTCzMvLKjYUnleoTnVo/7xqrY2x/hBqoaM8N4HhxPKUHrqvMIfh4LUk/dsgBFBXGJNx9rGLFjcvxbqCfxavke1NNatQK1OyaWKfJO+kGc+/WC8QWxm0LF/MyWvgOEO4eF7w/QY0JcLLSl8ahAKmZA0bW3sXM3zWN3Rac9meBcXHa+g8QxLrG1gJ8woJLJ3uZiHGG/ztfUbB4jVe6bBcYQ4Xr7nrDEmsH2Ltn1fOwSs1CMcLCU2g5ihC/BW/QNH6QhovzArB0rLe/EIeXo46lGF5HcTxirnEeUUAhnSLBkMUBuIYUH/vpZMXBIQ4gNTQjI36FRy8nHUow/JivyhXQAnEhx3XKaMAg+36+gviuiSG135D8bz+NlqoH5CBt+z6Ze0G81JcsUtIXpMIb5gztX9equc+iwDM4mV2v9j6IQ8vd6gZktcyjnq+CcyXvWl44Z+unDV3z2uYcikkr7Zo4hZNCfBaeBMsQgODJURX98fNy4MrLC/UOZ0IE7Bcr3eYCK8lZaIfFhjYl6v7Y+Y1dzc1NC81WoDYwOlwCfAaSZT9PiGB7Xz80jwtDc0LMuAj5GO3sFtKgJdKWUQKG3TsmlfW085UeF6bULUBDK2T2O+ARc84C5M0hQsB75BXhXqVYXkVaY6FVzANKibDa2kWsXMoxGo9ZN183h2vsreRoLC8avUIM+Y2PK1MhteM6hDDJP5CMacPO+PVpbQRFJYXFIPjTD32qkWcaSLPK1lVKMZcG2ZtOnvl6ev4eJVZr54NzasRwSE2STcmwmvKrI4tloSDi5S66pfGxouJKzwvGINCptAjd3gAJ0iEF0SIDMcglOaGq7O6ujouXmxc4XmBU/OtQ8aWsesmmfwN1O4O49mdSCIpzJbdXR0TLx9cEXiNGCN3oMwDk+EFhUNYm7T4Z86QMfq7u5xzPLz8cEXgBYeGMrBD47iE8qPg7QYsTz7mqFmCOxomyx40sfCiTpNNReAFdhIipC+ahyXEC9bSmqzFT84wEerMvPJUS4+Dl8xomK4IvODhRIismyNzZSSp/EPIdmXv5uUZxHD+/Meo+fM0XpQlXoei8AIDE94VC2l7OqXE8kU3vg0PTsPB+1Mo78aIzsv7AMWlKLx8RwKG4N42FvCSy++Fup7s5+NBPhG/yoT27pmovLoDZpsMReIFPe7zXguKik3bA6jkeAW9RMS3sB0U+ZSaZxQuEXkFDF1Y0XhB7EBbPmUp17FPfhLMn4eYw289zadwJKlcf0vDEo1XoC8EReOVOpH0tQouwYBnQ5TkfgcMbO3T8rG3/Dvu4fRjJq5IvHxnXZYi8sLhA2/qKN6FZPtsovtTSG1Jv2euntcrQAdf4DcV03FF4RUUF9paHYkXebceV24bvBrnwL7UmiwvUknjyG+JxjWMVfVXDDymjV2ReGVXPq1wKDIvctmHgYUn21BMcOIY6xLmlRrh8kILH+9grwRfrd6+xa/w+JBmIQnJS+EauYii80qdYBex8R3FirgyvisiS5oXuixcrbfnU/NVf4tJtZq+ICW0nzF8YXheGt/IRRQDL/0+rbdYN2qt8ZrqepLnlVJb5PXVkymztPKwjAhcvCU16u+eVn14hOJFeXmKj+LghaIOUgm8txm5r1qtnZBXZlOqmn0HvNDVbowN1b3NCa05o9KHx/onrp4wXWF4XmILDvHwStVa+iU1e61loz2qpdTZqF1aGmWLm7RXynTCV0SnqEgpyci1LUMt9Wy74F8fbqbTaalUmk6XC1ulbEl6e+tnW7j7P4vxksc9UftaU3hJ3rrVpcD0NbV0ILH0mn4PzXKi9d19G5DLeYKeWs5j8HQ1Nmtm67EvX36rBtFCOru9pb/ilKJuHzdQsAtoB+RyHr+AOiN4VpybTrxXut5EKry3P6nFZatX97S/3mtNMfQBz5MWDqZYiha8VLgXzRrLVmsxmfQmh63NshFjffm9SK3NiqXlZtNqtTab6UkxV7PdzSstZLVLl7qZoUhI+EPhFRmZku0PfsDap1bDOWN3ayCryvwHq2S0GvYzAtSUcqY/XP1glbTGUEkKtpTPyXblSlmvKKV0u+WKnMFFo/6/2NT/AX2eDEwvR3f2AAAAAElFTkSuQmCC</t>
+  </si>
+  <si>
+    <t>http://roseinnesdesigns.com/assets/files/projects/smile-logo.jpg</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/439197864497930241/0wSzrHMY_400x400.jpeg</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAkcAAABWCAMAAADyiMLSAAAAk1BMVEX///8/NDU4LC07MDE2KSo6Li9MQULt7Ox+eHg0JyhbUlL5+fnz8vItHyCEfn7Ny8ugnJyalZW6t7d2cHBGOzzZ19eLhoeppaWUkJAiDhFUS0zn5uZxamorGx0nFRdCNzji4OBiWlvEwcGzr69qYmNPRkevq6u5trbJxsfT0NHd2ttlXl5YTk+moaGHg4MeBQgWAACaMnblAAAVyklEQVR4nO1d2YKquhIVkogIOAHKUVTAubv1nP//upugkMrA0PZ492a9qYQklZVKpaoSe73vR9iPEucrK3CSJHmxvrKGDj8PJ8b2dnD6whossl7/G31hBR1+AY6mYRim8Xr8Mp1k9ZGBp1/19g6/AiEdZAbkHXarr6mi49FfgBgbDyAz/Rqd1PHoz8fCMzgQfpt9AZM6Hv3xKFa1AsQbjD+9ko5HfzwuB2yKTMLBp++sOh79BRhHQ5sITLJfP1kldTz6K5CcXtcCk0w0cT+zgo5Hfwsy3xCYhIefqZL+SB457nmU/nQjfh+y1Bbt7d3nbdz+PB6txjvf8LD30+34hbAmtikw6fPM7T+MR9Zsnga5TWn/dFN+JZK9sHOzh58VWv2zeHT918YPI6DjkRbugkArydx/Upzkz+LRBPOp9tNt+a0IU7i2kU/SSB2P/jq4U2hu47dP0Ugdj/5CHKF/m7x+hkbqePQ3YrwEaxtOP2H73/Hor0SYckkZ9vzjL+x49FtgZdNo4M+jY/gdtb0MAZHQrO7RcDaNRnF8iyZZ9Qr4UzxaHaMo9qNol7R42BofqYxjP55H11Pdag54hD+poVVwT1S4/u2i/3W1m+Q/U9knyo/OYlBg9/gqnPQ3HsamibG9xn6miX2tbmUp/6ypcsCxqG62Y60oLKdnvfKlDW2ruLua+fbas7FJiIltb7ONLvqwnMwj92U8GQwPy+Vhf9tddGPmOo7buKDSR5zioajs/iOg44RRsLExJoRKbWMOzg0Rw/N/tCesK+x5b2NEY6VAcmQVjIbcfkQjLtcykLTz+ZeaijLw8wv43ppLX7vn1PNoi0xPMwVXsxhv7Fz2eXv784soL2fkmXd491YkUWBD/6DpxaqGCA38KGWur5rG/1f8atpxhUBXs8ktTini0fXycuBVmnvt88k0FR3gVM0jXxuWE3m0WviBZ5uIgWAPvUbKfLMYLaYNRHKmbFQfH4Z20f1J/vkykKRmaucXR7gW+4JJnEmPpOu8BvG1pVzL+Rl55Zf/aSparMufN7BJq20xhF5ecegX3k5Vla8mb1KOBsJkJMjeuRWDQ3w24pMAGxLI/RdBCgEfTJ3C+YcXVsoyWIvXvsEmL4OJt/voAESqWdmcY2CKPbnL1RhoXg95ZEV5QYSYxAgbE4K3/otUYu7RRjSEikNKHe/2+PBaNMZks8+NVKmZRlSnklZ9pQDyE+GRNyQ/AlGyLuJV/6OpaMEdKx7sIW8AZppgty0nqcKjqG9qmoLRDXawbAZJV73VwNM1Hr9Kgv8Yj5Jp4ImkILBWzeY/3Gvbxaofqssg4NHpwMRoe4f9YDQaxW841xqmdxVb9UKbg+f1CmlEBYWTx4eSR4RqzyT1tE2La8weK1WnBQ4EKtfzqNQtT/LIKtdLk6rUBeKVSTy6VMs+PWvqQW+Js1em1aOqoSj3D/Ho+oZrJWSYR6nE+VDRLlZBX9EjnEcTqqvN9XZ6SSxm3FircNFf5+eepDHeM51V67tyaZvxoKBaySO07IVvpr5p9qj6dc5IUwj14crzxTzalyp10svgRBZ5lPUresdKAh3O6wmyt8rhwnthsn6AR5ehXc8iKk5DLHPCmiWNP72RiVTwyL15BjHkBPCzz+aeSQQ99kI1Cr71apBvm8pXcRagi27BfcimJodhYWsKoA2w3Wp5tC0f/DCP8DzZwqoEHk1qRwvx5RXwaFlTggg64nkeZUE1vXmHhdO2mZipRLcLtkAsdJCWtoJHA9vAb5myWjk7NsWIUMrxTaoNagwaJnbC9wyAR3XDbcq2M8eJWv7MOpTOPYAQYy2PgjKC9GEekcFcGBPIoxNsA2Kyx5LsE7UeUIAgqRNoCUNfT/NothUmL5OkSRR5EZj4dwFHTAjZ+tPrbDJPt6DrZC8S4MEjqkFsXxuwC1+p7MkbLDWj7zNrfBRn+ru9Kz+CValsHeWFIrWg8oXjftDfx/G+H4hJD5Pyie/ikREEwqsBj0LQIYL6fnScTedDAwYg9mo9RVfsQ+qnQ0P8wYZa/1ke7cTNsb2MB/4gPcgbesPgWzYLpATgfXncbRUFXPySxyPn0STDBqkyUByfCt/2wTcu0zfV0T0npq3Y8s+qdYPxMvWHQ1s0DbTSub+xuCvD3fngZSgotzTDjccAa/IKrPnS/3EeyT0ppWkt+TM4LheJJALrIH708ChJBK1H55eVu0rC6VaQCQaEeJJHFyEm643O1Px13dVL5ouJ/3BKzEs5IDSB43x+42W2gtphPDLnKbF1ToE7VoydBDoYrnbdMvRCf7UBW2UemeZtnCRukowjE/6E2gSe3QxsPHgt4ZjhMuLdNC/jAtyOepJHrjoViL3eUPxbtmDKV+/NEcrywt1JdHuWfzWT3pXyFlojSCQbOByf49EK7nXJK7RPLrHAWS7+C/+eSH6lJCiljwWD1spXQiQvdwLCA6LGSAK+8aT1VMANU/MJkFUaBJiCtxImOqm2kADGfO1GW+m3pvjakzxy5tKmihjxlTmp3dJTHXIa9aVuhNxx/CC+yCMs7ocHoC4CloHneBSBldKWvXRTAy55xW7KGXD3mOwNoLvV8vEUKqQ7jwyvNjh49KS2s0woryq0xFZKyFWRR6ag+IQVA7dLO5/w920S6afv4RFOFffvvmyUrcwGThsUOOIXbDwO4ugmQy6SQoExPMWjF0gjXylzhDwq3nopK9Lsyh2uLzHs6J1HdZtuBqrNkAE2cy/GwzutwZGKQXASCjzC0p40BB1FwzqvNm8yWNikq6G+h0dYTWp+KUM3WCOWuGTGOn8t5BHfxRXYQROQj9VTPHrlnCS6qBu8QoLEDyGVXlJ5c88w5iwbAUbkPFL7ImFG5ehBHccGJNAqJLYgmwLzIY9QX35eULztUjzTijX6m3hkpuqAAKtG04dxOVr3yQd5BDadRW3gV5srvmd4dNmCd+msBgds8NFB+qoglgC3NLjQQeaRWetV7N3JIbz1TDtlatNNxpQ1ayHuCnmkKv0EDJHX7oRnGeaUCPs9PEJ9df4kZeBEGzFySgsJDdnPgEfooPJuAHbdwK/wBI+APCqWjyOYxpv8m0upWj2tvcqHcw2aftdHtXlMjwahJQwcUlWt12LU4EHLiop1kR/X56rXVsw6AIfuVsfn02Ry5TaVvD34Dh6ZmqSNjJv+DbLvs6UC8Eg3vDO+2Ji3kpZP8Ahu1tZ6cxa81ViHoozW2iAqZ54HaMN4pC42Cs5biW1MVduKSqYzc61YLYBHWDMGVz54lQl1yfk43x+8tefZFMAO/X4eoYPGO1GewEBD7dJ84i9mQgQ80spwwynBjZoneBTyeqrGOAEpW3deAO5NNLjyeQ+dO4xH5FVfB4BFNbNAgruqVh+kI4WkkyxwXdNcmTrTanFY92IwJDZWXfny3vNbeKRTIC43pA+RTvYjcScNeaRRwRbPk/kYj05csVVNURcsonkMwgLpbVgHkP0GrIq2ebXUtjWhfd7LZNM7R7JEiuUIeBRoDKDzVtuwop9ZasvXQHGgpbij+AYeeRobwALmrKmTPXB1M1kDHulMQosbvx/jEWx2hW8O5lLk60goBn7qQJ7gEaWtuHFcUWapW8kd2/Qn4ncNPLocgNTkH2e+VxWSYPgBHq01y9qKL0RNyA2e7+JRDKIYVQ5CIJLce57BLV49yFBscxseTWxqjAgizN2BEstZ5E1R/A08Cqt55N5QfcbDD/Boo/HCZNrcPC2+lUdcsuggp7VqRILZ+aNd3bwVgd7ENrfhEbWGhWAHLcm2/gPRpD8z61tu8dM8ugx1eUdCT35gXfv/5FFa5ZqD+ogZJO/gEQyNvYNHIP8iBwsE2YnwFVNHsbxbfJZHiZx+hfIDGDZIE/gl+ujYxHeOH+KRvCHRiiS3s9/Bo2fsbKaPlmJbmAdRtIwTKk+knP14kkfJULzzCQfL1L9Nj8cjZ8sv4dG0PY9yP+VPrGuJTh7MfSfZ2ZBHqB4wF/od9hER7aN7yA5Bbk2x4hnsPcsjR0igMFG8OBeisEqP6y/hEVzXGmTvsbXjozzSDpiGRyC7L6iwj+C+P3dV7niZ7bAeB6Ay2vKIkkHmUS8zxPAQc59qPI3P8egCA7i2D49xrn4xj4K0QfhsZ/JRHmljHBoeQQ9wRXZGArj2D7NIeBzWqE5Q1be5DY98ooaOHPolzGzYsWFQiz7HI+BWJUvRZ/MpPFprJujxSR7xkBTZNx417n2cR0jjOHaBE7zgEVhvbd0RXNZ0uIyxLxLuBJWzcurQkkfOEmlc+MxfyhOxnRRpr654ikcJcGMEksn1KTzSDWDVz008skp9hA4V817AczwCp0GJWojnFHAege901GMAEZuHluMKqmU+WNnmFjxinSBqUGOL6FAWM/DCWp2oZZ/i0RG4gOXuvHwGj3QBCRhreg+P3CWXfcW8F/AUj1Y8XcZYJ0ohoHtKHiUgxqHTv6zLIHP/rvW54d2YTiS1uSojDWBHtFlNbCFYF77I2KRDrlHrT/EIjpzsQeZz6L08WoD8bbXTLrhH4F08Apmo8qZWi6d4ZAHvtLphs2DGWsEjuBnD2kuO4NUJjzgEMBLNhmPTUpuhX1IPdrMB0VzbtWKZ24/TNAldv7e6KM4zPAIjc1+2IaI2+36sGW+4qdVE5uFxoHfx6G4ZPoa45mBwgad4BCNhREmlA5oWZOfATbx6lpq+E7CvMH8tsPn0Wq9s9zY35Y8xG0/rtLiaJXnYpl+Ns/ae4xHISlIyHlxuOtXxSHeHyZiLSM1hBw15L49gUbvZSniKR7BzBtqJRY7QScJ5BN5kmJqjHFcYAH/oADiFjdZX/t/zIZu6zhZfXYAyFyDOc61Yxn5TAl17HkElvpEKgDx/mUdAnFiT2NNzQTBbvvFXPKT2Ph45Piyrq1nAczwSsrr7CSyxEw9+8GxBmLWsZu1n4GwdTx7KBE62XNru+ZBg866Da7Osbu1PzFuY9+lsq8eAHo88pY+Ae0zkSgbFKfEIiECb1i6cuxUtBhfemPheHokRNtJ03+JzPHLh//Ehg/d8JR1nATxyoY6VTkw7O3ivlF1uNF1hUth93eVwFW3WHXIAYGQJ9IkHYZEXSRVIRVrsR+1s0SLewXw2mUcWnH46tXCFEQx7XmokJ5MuQnknj3oHQfbLetk38Wip5RHbyICuB/P7dY3jSSqFZWChk3DpegoWjHAkHDoCltBYCDsjFO+aD6je9ZFygEcAS0kxqywuthpsc5VVtU18ikcL2H++7Lri0T2ZRz0o0ftdhm5yAoZdIojI3C/y8slsZEjhyffy6CyoBGL6dX9M3cAjkF4p3MfxIqYVmCgI+v3AUO5wQeDMqjOHIiEovVqW61rWaW8IDBOOUsn6jWyH0S5jWEQVeUyMR8vYRNvqVP9xgKSLIiDYpRBUGHSiqydo7mjiEZh9/JrCUOjIMHMZXqaBKDOFR4KNYxpMzlsTGOrOTRrvLX2kv1XTnATd2oJHTiS+gsl+fpf9UZF9ex4ZJlAFzkAc3zyYxz+U2w/Io54jhruR7bEOr8W7B5EheJdc5W4vhO38rgR7XTHIlEdUjwwJOVRppAudqghVumlZp6kFRzeQVaHABh6B29bglSPCHWzEM17jNPDUC4akXdlMygRCqDyXdcdZSfeDY9EvfxXiCC14RGUvc5GUspftpSYegR2TsHU5y20HMPf8Rp0+JG6oXO4l3/RCWyptkJKhTKSympHe7rYCOqndMwtF662bM7tHo/oqkNzzjF5PB11y9R3teQSzP89Sriq8/QjIQRLAqq8wTXIcKHMa1jEt7XDBCG/Do15SeYOZ4vJs4BG04sSUrEVlwhwyLB4dJMJLk31DWgtRgzluFZHQq77/qw01753ejHLUS1WlY83ZhYe4znpiQYGADp9XlbnZwCN47A86IOS7GXi3+zxC4El+FOVKmLxWuPa7QWWilj1dlWusMH6teNRLUk3dueyX0pNNPJqBJgawPieuoATZZsDpKPlfrLjq1sp7t/sam2fl62tCfb3NvVpTkTn325ZMYy4uE8mVbYZJ3Z1ZvcJHYVZGupt4NAWbdXBO0qoYFny47MoSSuxYV0rM48y2FUSyqRzKCJuwGLbjUW+116sL5fK6Jh6Bow8GEWaKpVen+JDdzzjrpeJe1TuCC5jopt8RXA2t/D390wWPerM+rQpv08nYuSO5xge2ljT+H65172/lHdhNPDrDLDCgElc6zYHMQdIbl6FvOUGcXWGhlJLygfXXJdIXW8KNDuDFLXnUczU3YecNkCZ8E496wIMj+cHcqWojEpw7hoAyVUyMcLTVtozgffU9VhHWlPH04/xS8KgXxvnl2dQ27B/eDn2bmvSMRcG80Q3FYjv6u79zNPGoB6+ugaZE4isyMwNm/7rlv2Nqrii5KFfiSjzqnTXnB+wgn/dcN0LvZ1seUXEODN14SWN1yv+cIIdy8WuOCY9EE1MauKzvwfN8yFwvZ/c2Fcs9MgP1os9wwC7Yh41CxF6ntY6uyxx7sldBdwCYYrYm9iMz350NN7mtmCeA3ivaDFr8a8rM1t24VGJgF0Iz9fe38wxaRAS16R6RB67EJHgT3/XVnZqIClkTrUn2G0HQRLkCZBXdJwkQ6Pzez8IvjcgadMi5eUUXyL/108q53DxPvsZTNgxCP/YfiBPtW2zjflXp9pDuFY9M5g8DbOcHLO1gOSpJOreRaWNWRNHSDNauKMf+xQQHb/FVWzmEOxulfcPO/5aDnfC0baKPoZ1jP57wuwjmr7TU4/9SjMN+0eoiGXYWWzYlAbJ9KbSR9n2XnLRUBMHhNRZtfec0SJcGOyRim/10XvyY/WubRv8wTH1t9GM8OBA7Fxe2zUOqCRGtpvv8EfYE6cfTgo3OmtDRQ/3lq6Dvd3zcK/a9AEz2ByTIvk1SkoDpeo3f4unxHGrN2tX5NInm8yjancHuJgteb5PT+WJVNnE1nh2jaD6IosWpTHdvgHvJdpN5NNoPaI3X07ndv/7RUrSmG63pmIXtQnQs+Kk7rdwazm29Nt8G09M51CWJhdlpt1jsZuDfaRz6MbuEq8o+hdl1PvcjKuiZ7p3sFeFsN49u0fw6A38j48Rs9LLxS6sbvSphhbnsb3v6/jkdsne/zTqOLatB8/F/Aiq+sZr/QCgv58olWxZ6ZzHnfSUWtkEqvAotsdpdmqT2frQQl6aj7ue14ynZ/71gYejmC5Q6dKjHlXxUHXXokIfrqy5F6dChLXxsmLr7KDt0eAeYw4W0ObPVoUM1Liw3qT781qFDE9ipqc7I7vBRpMRAZlW+SIcOreDe2H1HdXded+jQCOfGMiWb400dOtQgz+HF++YHO3Soxm7J/j1U/eefDh3a4+IjohzQ7NDhHXBW5yH7J1iyfcc9Sx06SEiWedakLf9/ZocO70F+lBsHo3aJcR066OHMbXs772JqHT6I7HXW2dfP438/sI2MoLamqAAAAABJRU5ErkJggg==</t>
+  </si>
+  <si>
+    <t>https://dcassetcdn.com/design_img/704268/162911/162911_4422839_704268_image.jpg</t>
+  </si>
+  <si>
+    <t>https://mark.trademarkia.com/logo-images/shishi-xinjia-electronics-co/xinjia-79009971.jpg</t>
+  </si>
+  <si>
+    <t>https://www.goldenequatorcapital.com/wp-content/uploads/2017/12/mcpayment-white.png</t>
+  </si>
+  <si>
+    <t>https://images.g2crowd.com/uploads/product/image/social_landscape/social_landscape_1512061963/blueshift.png</t>
+  </si>
+  <si>
+    <t>https://www.nfcworld.com/wp-content/uploads/2014/10/clipp.jpg</t>
+  </si>
+  <si>
+    <t>https://www.huddle.com/sites/all/themes/huddle/blue-logo.png</t>
+  </si>
+  <si>
+    <t>https://s3.amazonaws.com/au-tm/1814983.jpg</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="MMM\-YY"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2181,22 +2454,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -2213,7 +2471,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2221,105 +2479,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2378,38 +2589,347 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="113" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.3666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1074074074074"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3444444444444"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.8333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2444444444444"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.3814814814815"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.6555555555556"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.5222222222222"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.0074074074074"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.2703703703704"/>
+    <col min="1" max="1" width="16.33203125" style="1"/>
+    <col min="2" max="2" width="24.1640625"/>
+    <col min="3" max="3" width="17.33203125"/>
+    <col min="4" max="4" width="22.83203125"/>
+    <col min="5" max="5" width="22.1640625"/>
+    <col min="6" max="6" width="16.33203125"/>
+    <col min="7" max="7" width="20.33203125"/>
+    <col min="8" max="8" width="21.6640625"/>
+    <col min="9" max="9" width="18.5"/>
+    <col min="10" max="10" width="29"/>
+    <col min="11" max="11" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="1025" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2440,8 +2960,14 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="400.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K1" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2469,11 +2995,17 @@
       <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="329.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K2" t="s">
+        <v>358</v>
+      </c>
+      <c r="L2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="368" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2501,11 +3033,17 @@
       <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K3" t="s">
+        <v>360</v>
+      </c>
+      <c r="L3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -2533,11 +3071,17 @@
       <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="158.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K4" t="s">
+        <v>361</v>
+      </c>
+      <c r="L4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="176" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
@@ -2565,11 +3109,17 @@
       <c r="I5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="129.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K5" t="s">
+        <v>362</v>
+      </c>
+      <c r="L5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="144" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -2597,11 +3147,17 @@
       <c r="I6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="286.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K6" t="s">
+        <v>363</v>
+      </c>
+      <c r="L6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="320" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -2629,11 +3185,17 @@
       <c r="I7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="172.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="192" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -2661,11 +3223,17 @@
       <c r="I8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="172.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K8" t="s">
+        <v>365</v>
+      </c>
+      <c r="L8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="192" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -2693,11 +3261,17 @@
       <c r="I9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K9" t="s">
+        <v>366</v>
+      </c>
+      <c r="L9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="288" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>65</v>
       </c>
@@ -2725,11 +3299,17 @@
       <c r="I10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="158.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K10" t="s">
+        <v>367</v>
+      </c>
+      <c r="L10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="176" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>72</v>
       </c>
@@ -2757,11 +3337,17 @@
       <c r="I11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="158.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K11" t="s">
+        <v>368</v>
+      </c>
+      <c r="L11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="176" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>77</v>
       </c>
@@ -2789,11 +3375,17 @@
       <c r="I12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="343.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K12" t="s">
+        <v>369</v>
+      </c>
+      <c r="L12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="384" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>81</v>
       </c>
@@ -2821,11 +3413,17 @@
       <c r="I13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K13" t="s">
+        <v>370</v>
+      </c>
+      <c r="L13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>88</v>
       </c>
@@ -2853,11 +3451,17 @@
       <c r="I14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="229.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K14" t="s">
+        <v>371</v>
+      </c>
+      <c r="L14" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="256" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>85</v>
       </c>
@@ -2888,8 +3492,14 @@
       <c r="J15" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K15" t="s">
+        <v>372</v>
+      </c>
+      <c r="L15" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="288" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>100</v>
       </c>
@@ -2915,11 +3525,17 @@
       <c r="I16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="144.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K16" t="s">
+        <v>373</v>
+      </c>
+      <c r="L16" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="160" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>103</v>
       </c>
@@ -2947,11 +3563,17 @@
       <c r="I17" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K17" t="s">
+        <v>374</v>
+      </c>
+      <c r="L17" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="288" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
@@ -2979,11 +3601,17 @@
       <c r="I18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="201.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K18" t="s">
+        <v>375</v>
+      </c>
+      <c r="L18" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="224" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>112</v>
       </c>
@@ -3011,11 +3639,17 @@
       <c r="I19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="129.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K19" t="s">
+        <v>376</v>
+      </c>
+      <c r="L19" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="144" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>118</v>
       </c>
@@ -3043,11 +3677,17 @@
       <c r="I20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K20" t="s">
+        <v>377</v>
+      </c>
+      <c r="L20" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>124</v>
       </c>
@@ -3075,11 +3715,17 @@
       <c r="I21" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="144.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K21" t="s">
+        <v>378</v>
+      </c>
+      <c r="L21" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="160" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>128</v>
       </c>
@@ -3107,11 +3753,17 @@
       <c r="I22" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="J22" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="144.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K22" t="s">
+        <v>379</v>
+      </c>
+      <c r="L22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="160" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>135</v>
       </c>
@@ -3137,11 +3789,17 @@
       <c r="I23" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="J23" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="229.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K23" t="s">
+        <v>380</v>
+      </c>
+      <c r="L23" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="256" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>109</v>
       </c>
@@ -3169,11 +3827,17 @@
       <c r="I24" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J24" s="0" t="s">
+      <c r="J24" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="186.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K24" t="s">
+        <v>381</v>
+      </c>
+      <c r="L24" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="208" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>146</v>
       </c>
@@ -3201,11 +3865,17 @@
       <c r="I25" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="J25" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K25" t="s">
+        <v>382</v>
+      </c>
+      <c r="L25" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>152</v>
       </c>
@@ -3236,8 +3906,14 @@
       <c r="J26" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="286.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K26" t="s">
+        <v>383</v>
+      </c>
+      <c r="L26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="320" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>157</v>
       </c>
@@ -3263,11 +3939,17 @@
       <c r="I27" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J27" s="0" t="s">
+      <c r="J27" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K27" t="s">
+        <v>384</v>
+      </c>
+      <c r="L27" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>162</v>
       </c>
@@ -3293,11 +3975,17 @@
       <c r="I28" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="J28" s="0" t="s">
+      <c r="J28" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K28" t="s">
+        <v>385</v>
+      </c>
+      <c r="L28" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>167</v>
       </c>
@@ -3323,11 +4011,17 @@
       <c r="I29" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J29" s="0" t="s">
+      <c r="J29" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K29" t="s">
+        <v>386</v>
+      </c>
+      <c r="L29" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>173</v>
       </c>
@@ -3353,11 +4047,17 @@
       <c r="I30" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="J30" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="186.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K30" t="s">
+        <v>387</v>
+      </c>
+      <c r="L30" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="208" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>179</v>
       </c>
@@ -3383,11 +4083,17 @@
       <c r="I31" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="J31" s="0" t="s">
+      <c r="J31" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="129.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K31" t="s">
+        <v>388</v>
+      </c>
+      <c r="L31" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="144" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>185</v>
       </c>
@@ -3413,11 +4119,17 @@
       <c r="I32" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J32" s="0" t="s">
+      <c r="J32" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K32" t="s">
+        <v>389</v>
+      </c>
+      <c r="L32" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>190</v>
       </c>
@@ -3443,11 +4155,17 @@
       <c r="I33" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J33" s="0" t="s">
+      <c r="J33" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K33" t="s">
+        <v>390</v>
+      </c>
+      <c r="L33" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>194</v>
       </c>
@@ -3473,11 +4191,17 @@
       <c r="I34" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="J34" s="0" t="s">
+      <c r="J34" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="201.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K34" t="s">
+        <v>391</v>
+      </c>
+      <c r="L34" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="224" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>200</v>
       </c>
@@ -3503,11 +4227,17 @@
       <c r="I35" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J35" s="0" t="s">
+      <c r="J35" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K35" t="s">
+        <v>392</v>
+      </c>
+      <c r="L35" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>206</v>
       </c>
@@ -3533,11 +4263,17 @@
       <c r="I36" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J36" s="0" t="s">
+      <c r="J36" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="158.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K36" t="s">
+        <v>393</v>
+      </c>
+      <c r="L36" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="176" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>210</v>
       </c>
@@ -3563,11 +4299,17 @@
       <c r="I37" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J37" s="0" t="s">
+      <c r="J37" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="186.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K37" t="s">
+        <v>394</v>
+      </c>
+      <c r="L37" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="208" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>213</v>
       </c>
@@ -3591,11 +4333,17 @@
       <c r="I38" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="J38" s="0" t="s">
+      <c r="J38" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K38" t="s">
+        <v>395</v>
+      </c>
+      <c r="L38" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>218</v>
       </c>
@@ -3621,8 +4369,17 @@
       <c r="I39" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J39" t="s">
+        <v>338</v>
+      </c>
+      <c r="K39" t="s">
+        <v>396</v>
+      </c>
+      <c r="L39" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>223</v>
       </c>
@@ -3646,8 +4403,17 @@
       <c r="I40" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J40" t="s">
+        <v>339</v>
+      </c>
+      <c r="K40" t="s">
+        <v>397</v>
+      </c>
+      <c r="L40" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>221</v>
       </c>
@@ -3673,8 +4439,17 @@
       <c r="I41" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J41" t="s">
+        <v>340</v>
+      </c>
+      <c r="K41" t="s">
+        <v>398</v>
+      </c>
+      <c r="L41" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>229</v>
       </c>
@@ -3700,8 +4475,17 @@
       <c r="I42" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="229.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J42" t="s">
+        <v>341</v>
+      </c>
+      <c r="K42" t="s">
+        <v>399</v>
+      </c>
+      <c r="L42" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="256" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>233</v>
       </c>
@@ -3727,8 +4511,17 @@
       <c r="I43" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J43" t="s">
+        <v>342</v>
+      </c>
+      <c r="K43" t="s">
+        <v>400</v>
+      </c>
+      <c r="L43" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>227</v>
       </c>
@@ -3754,8 +4547,14 @@
       <c r="I44" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="158.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K44" t="s">
+        <v>401</v>
+      </c>
+      <c r="L44" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="176" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>192</v>
       </c>
@@ -3775,19 +4574,25 @@
         <v>233</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>241</v>
+        <v>336</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K45" t="s">
+        <v>402</v>
+      </c>
+      <c r="L45" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>12</v>
@@ -3799,24 +4604,33 @@
         <v>13</v>
       </c>
       <c r="F46" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I46" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="K46" t="s">
+        <v>403</v>
+      </c>
+      <c r="L46" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
+      <c r="B47" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>248</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>42</v>
@@ -3828,22 +4642,31 @@
         <v>13</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>250</v>
+        <v>337</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>249</v>
+      </c>
+      <c r="J47" t="s">
+        <v>343</v>
+      </c>
+      <c r="K47" t="s">
+        <v>404</v>
+      </c>
+      <c r="L47" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>12</v>
@@ -3855,22 +4678,31 @@
         <v>13</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>241</v>
+        <v>336</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J48" t="s">
+        <v>344</v>
+      </c>
+      <c r="K48" t="s">
+        <v>405</v>
+      </c>
+      <c r="L48" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="s">
-        <v>253</v>
-      </c>
       <c r="B49" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>42</v>
@@ -3882,22 +4714,28 @@
         <v>13</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="229.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>255</v>
+      </c>
+      <c r="K49" t="s">
+        <v>406</v>
+      </c>
+      <c r="L49" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="256" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>258</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>42</v>
@@ -3909,22 +4747,28 @@
         <v>13</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>97</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K50" t="s">
+        <v>407</v>
+      </c>
+      <c r="L50" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="144.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>262</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>42</v>
@@ -3936,24 +4780,30 @@
         <v>13</v>
       </c>
       <c r="F51" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="I51" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H51" s="6" t="s">
+      <c r="K51" t="s">
+        <v>408</v>
+      </c>
+      <c r="L51" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="B52" s="6" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="372.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>268</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>42</v>
@@ -3968,21 +4818,30 @@
         <v>197</v>
       </c>
       <c r="G52" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="J52" t="s">
+        <v>345</v>
+      </c>
+      <c r="K52" t="s">
+        <v>409</v>
+      </c>
+      <c r="L52" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="B53" s="8" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>273</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>42</v>
@@ -3994,22 +4853,31 @@
         <v>13</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>241</v>
+        <v>336</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="158.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>273</v>
+      </c>
+      <c r="J53" t="s">
+        <v>346</v>
+      </c>
+      <c r="K53" t="s">
+        <v>410</v>
+      </c>
+      <c r="L53" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="176" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>42</v>
@@ -4021,24 +4889,33 @@
         <v>13</v>
       </c>
       <c r="F54" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G54" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="H54" s="6" t="s">
+      <c r="J54" t="s">
+        <v>347</v>
+      </c>
+      <c r="K54" t="s">
+        <v>411</v>
+      </c>
+      <c r="L54" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="224" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="B55" s="6" t="s">
         <v>279</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="201.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>281</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>42</v>
@@ -4050,24 +4927,33 @@
         <v>13</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>109</v>
       </c>
       <c r="I55" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="J55" t="s">
+        <v>348</v>
+      </c>
+      <c r="K55" t="s">
+        <v>412</v>
+      </c>
+      <c r="L55" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="224" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="201.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>42</v>
@@ -4079,24 +4965,33 @@
         <v>13</v>
       </c>
       <c r="F56" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H56" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="I56" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="H56" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="201.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J56" t="s">
+        <v>349</v>
+      </c>
+      <c r="K56" t="s">
+        <v>413</v>
+      </c>
+      <c r="L56" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="224" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>21</v>
@@ -4108,24 +5003,33 @@
         <v>13</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H57" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="J57" t="s">
+        <v>350</v>
+      </c>
+      <c r="K57" t="s">
+        <v>414</v>
+      </c>
+      <c r="L57" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="144.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>12</v>
@@ -4137,24 +5041,33 @@
         <v>13</v>
       </c>
       <c r="F58" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G58" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="H58" s="6" t="s">
+      <c r="J58" t="s">
+        <v>351</v>
+      </c>
+      <c r="K58" t="s">
+        <v>415</v>
+      </c>
+      <c r="L58" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="B59" s="6" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>12</v>
@@ -4166,22 +5079,31 @@
         <v>13</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="144.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+      <c r="J59" t="s">
+        <v>352</v>
+      </c>
+      <c r="K59" t="s">
+        <v>416</v>
+      </c>
+      <c r="L59" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="160" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>21</v>
@@ -4193,24 +5115,30 @@
         <v>13</v>
       </c>
       <c r="F60" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K60" t="s">
+        <v>417</v>
+      </c>
+      <c r="L60" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="G60" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="I60" s="1" t="s">
+      <c r="B61" s="8" t="s">
         <v>304</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>306</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>42</v>
@@ -4222,24 +5150,33 @@
         <v>13</v>
       </c>
       <c r="F61" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="G61" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H61" s="8" t="s">
+      <c r="J61" t="s">
+        <v>353</v>
+      </c>
+      <c r="K61" t="s">
+        <v>418</v>
+      </c>
+      <c r="L61" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="B62" s="6" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>83</v>
@@ -4251,22 +5188,31 @@
         <v>13</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>197</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J62" t="s">
+        <v>354</v>
+      </c>
+      <c r="K62" t="s">
+        <v>419</v>
+      </c>
+      <c r="L62" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>21</v>
@@ -4278,24 +5224,33 @@
         <v>13</v>
       </c>
       <c r="F63" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="H63" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="I63" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="H63" s="6" t="s">
+      <c r="J63" t="s">
+        <v>355</v>
+      </c>
+      <c r="K63" t="s">
+        <v>420</v>
+      </c>
+      <c r="L63" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="B64" s="6" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>321</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>42</v>
@@ -4307,7 +5262,7 @@
         <v>13</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>56</v>
@@ -4316,15 +5271,24 @@
         <v>221</v>
       </c>
       <c r="I64" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J64" t="s">
+        <v>356</v>
+      </c>
+      <c r="K64" t="s">
+        <v>421</v>
+      </c>
+      <c r="L64" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="240" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>322</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="215.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>324</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>42</v>
@@ -4336,22 +5300,31 @@
         <v>13</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J65" t="s">
+        <v>357</v>
+      </c>
+      <c r="K65" t="s">
+        <v>422</v>
+      </c>
+      <c r="L65" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>329</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>42</v>
@@ -4363,290 +5336,289 @@
         <v>13</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
+      </c>
+      <c r="K66" t="s">
+        <v>423</v>
+      </c>
+      <c r="L66" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J15" r:id="rId1" display="https://www.happn.com/en/"/>
+    <hyperlink ref="J15" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J46" r:id="rId2" xr:uid="{25A5F944-50B2-0641-9588-03A8907C4447}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M164"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A149" colorId="64" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B160" activeCellId="0" sqref="B160"/>
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.27037037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.2703703703704"/>
+    <col min="1" max="1" width="13.1640625"/>
+    <col min="2" max="2" width="16.33203125"/>
+    <col min="3" max="3" width="6.33203125"/>
+    <col min="4" max="1025" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>210</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="B9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C10" s="0" t="n">
+      <c r="B10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C10">
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>16</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C14" s="0" t="n">
+        <v>283</v>
+      </c>
+      <c r="C14">
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>12</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>11</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C19" s="0" t="n">
+        <v>278</v>
+      </c>
+      <c r="C19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="C20" s="0" t="n">
+        <v>321</v>
+      </c>
+      <c r="C20">
         <v>9</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>16</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>3</v>
       </c>
       <c r="F22" s="12"/>
@@ -4658,256 +5630,256 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>15</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C24" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="C24">
         <v>14</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>12</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>11</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>11</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>10</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>9</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>9</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>233</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>4</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>233</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>233</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>233</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>233</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>233</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>15</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>233</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>5</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>233</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>3</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>233</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42">
         <v>7</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>233</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>233</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>8</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>19</v>
       </c>
       <c r="E45" s="8"/>
@@ -4920,124 +5892,124 @@
       <c r="L45" s="8"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47">
         <v>17</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>16</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49">
         <v>15</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50">
         <v>14</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>246</v>
+      </c>
+      <c r="C51">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C52" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="C52">
         <v>12</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>11</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C54" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="C54">
         <v>10</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>20</v>
       </c>
       <c r="E56" s="13"/>
@@ -5050,245 +6022,245 @@
       <c r="L56" s="13"/>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="C57" s="0" t="n">
+        <v>321</v>
+      </c>
+      <c r="C57">
         <v>19</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C58" s="0" t="n">
+        <v>259</v>
+      </c>
+      <c r="C58">
         <v>18</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59">
         <v>17</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="C60" s="0" t="n">
+        <v>283</v>
+      </c>
+      <c r="C60">
         <v>16</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61">
         <v>15</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62">
         <v>14</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="C63" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>285</v>
+      </c>
+      <c r="C63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64">
         <v>12</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65">
         <v>11</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66">
         <v>10</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C68" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69">
         <v>6</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70">
         <v>19</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71">
         <v>8</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73">
         <v>7</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74">
         <v>4</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76">
         <v>9</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77">
         <v>6</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>241</v>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>336</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78">
         <v>15</v>
       </c>
       <c r="E78" s="6"/>
@@ -5300,487 +6272,487 @@
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
     </row>
-    <row r="79" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>241</v>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>336</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C79" s="0" t="n">
+        <v>254</v>
+      </c>
+      <c r="C79">
         <v>14</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>241</v>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>336</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C80" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>241</v>
+        <v>274</v>
+      </c>
+      <c r="C80">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>336</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81">
         <v>12</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>241</v>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>336</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82">
         <v>11</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>241</v>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>336</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C83" s="0" t="n">
+        <v>265</v>
+      </c>
+      <c r="C83">
         <v>11</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>241</v>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>336</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84">
         <v>10</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>241</v>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>336</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85">
         <v>9</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>241</v>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>336</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86">
         <v>8</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>241</v>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>336</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>241</v>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>336</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C88" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="C88">
         <v>2</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C89" s="0" t="n">
+        <v>299</v>
+      </c>
+      <c r="C89">
         <v>3</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C90" s="0" t="n">
+        <v>303</v>
+      </c>
+      <c r="C90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C91" s="0" t="n">
+        <v>308</v>
+      </c>
+      <c r="C91">
         <v>6</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C92" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>312</v>
+      </c>
+      <c r="C92">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C93" s="0" t="n">
+        <v>318</v>
+      </c>
+      <c r="C93">
         <v>3</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94">
         <v>4</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95">
         <v>16</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96">
         <v>6</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97">
         <v>2</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99">
         <v>2</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>229</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>229</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>229</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C102" s="0" t="n">
+        <v>336</v>
+      </c>
+      <c r="C102">
         <v>5</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>229</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C103" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>246</v>
+      </c>
+      <c r="C103">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>229</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C104" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="C104">
         <v>3</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>229</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>229</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C106" s="0" t="n">
+      <c r="C106">
         <v>4</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>229</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107">
         <v>5</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>229</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C108" s="0" t="n">
+      <c r="C108">
         <v>2</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>229</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C109" s="0" t="n">
+      <c r="C109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>229</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="0" t="n">
+      <c r="C110">
         <v>4</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>227</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C111">
         <v>4</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" t="s">
         <v>85</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C112">
         <v>5</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>227</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C113" s="0" t="n">
+      <c r="C113">
         <v>2</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>227</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C114" s="0" t="n">
+        <v>283</v>
+      </c>
+      <c r="C114">
         <v>2</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>227</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C115" s="0" t="n">
+        <v>308</v>
+      </c>
+      <c r="C115">
         <v>3</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>227</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C116" s="0" t="n">
+        <v>312</v>
+      </c>
+      <c r="C116">
         <v>4</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>227</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C117" s="0" t="n">
+        <v>278</v>
+      </c>
+      <c r="C117">
         <v>4</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>227</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C118" s="0" t="n">
+        <v>274</v>
+      </c>
+      <c r="C118">
         <v>2</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>227</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C119" s="0" t="n">
+        <v>299</v>
+      </c>
+      <c r="C119">
         <v>14</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>227</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C120" s="0" t="n">
+      <c r="C120">
         <v>2</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>227</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C121" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="C121">
         <v>3</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C122" s="0" t="n">
+      <c r="C122">
         <v>19</v>
       </c>
       <c r="E122" s="8"/>
@@ -5793,548 +6765,540 @@
       <c r="L122" s="6"/>
       <c r="M122" s="8"/>
     </row>
-    <row r="123" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C123" s="0" t="n">
+      <c r="C123">
         <v>16</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C124" s="0" t="n">
+      <c r="C124">
         <v>15</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C125" s="0" t="n">
+      <c r="C125">
         <v>14</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="16.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C126" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C126">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C127" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C127">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C128" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="C128">
         <v>12</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C129" s="0" t="n">
+        <v>246</v>
+      </c>
+      <c r="C129">
         <v>11</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C130" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="C130">
         <v>10</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C131" s="0" t="n">
+      <c r="C131">
         <v>8</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C132" s="0" t="n">
+      <c r="C132">
         <v>2</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="C133" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>283</v>
+      </c>
+      <c r="C133">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="C134" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="C134">
         <v>12</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C135" s="0" t="n">
+      <c r="C135">
         <v>11</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="C136" s="0" t="n">
+        <v>312</v>
+      </c>
+      <c r="C136">
         <v>10</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C137" s="0" t="n">
+      <c r="C137">
         <v>10</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C138" s="0" t="n">
+      <c r="C138">
         <v>7</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B139" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C139" s="0" t="n">
+      <c r="C139">
         <v>6</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B140" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C140" s="0" t="n">
+      <c r="C140">
         <v>4</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B141" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C141" s="0" t="n">
+      <c r="C141">
         <v>3</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C142" s="0" t="n">
+        <v>336</v>
+      </c>
+      <c r="C142">
         <v>3</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C143" s="0" t="n">
+      <c r="C143">
         <v>1</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="C144" s="0" t="n">
+        <v>283</v>
+      </c>
+      <c r="C144">
         <v>14</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C145" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C145">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C146" s="0" t="n">
+      <c r="C146">
         <v>12</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C147" s="0" t="n">
+        <v>336</v>
+      </c>
+      <c r="C147">
         <v>11</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C148" s="0" t="n">
+      <c r="C148">
         <v>10</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C149" s="0" t="n">
+      <c r="C149">
         <v>9</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C150" s="0" t="n">
+      <c r="C150">
         <v>8</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C151" s="0" t="n">
+      <c r="C151">
         <v>7</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C152" s="0" t="n">
+      <c r="C152">
         <v>6</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C153" s="0" t="n">
+        <v>259</v>
+      </c>
+      <c r="C153">
         <v>5</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C154" s="0" t="n">
+      <c r="C154">
         <v>1</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B155" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C155" s="0" t="n">
+      <c r="C155">
         <v>22</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B156" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C156" s="0" t="n">
+      <c r="C156">
         <v>18</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B157" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C157" s="0" t="n">
+      <c r="C157">
         <v>15</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B158" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C158" s="0" t="n">
+      <c r="C158">
         <v>12</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B159" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C159" s="0" t="n">
+      <c r="C159">
         <v>11</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B160" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C160" s="0" t="n">
+      <c r="C160">
         <v>10</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C161" s="0" t="n">
+        <v>303</v>
+      </c>
+      <c r="C161">
         <v>7</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="C162" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="C162">
         <v>5</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B163" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C163" s="0" t="n">
+      <c r="C163">
         <v>5</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B164" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C164" s="0" t="n">
+      <c r="C164">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMK11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="12.1518518518519"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="15.0925925925926"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="13.5222222222222"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="12.1518518518519"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="11.662962962963"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="13.2296296296296"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="14" width="11.2703703703704"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="13.7185185185185"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="14" width="3.33333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="14" width="11.662962962963"/>
+    <col min="1" max="1" width="12.1640625" style="14"/>
+    <col min="2" max="2" width="12.5" style="14"/>
+    <col min="3" max="3" width="15.1640625" style="14"/>
+    <col min="4" max="4" width="13.5" style="14"/>
+    <col min="5" max="5" width="12.1640625" style="14"/>
+    <col min="6" max="6" width="11.6640625" style="14"/>
+    <col min="7" max="7" width="12.5" style="14"/>
+    <col min="8" max="8" width="13.1640625" style="14"/>
+    <col min="9" max="9" width="11.33203125" style="14"/>
+    <col min="10" max="10" width="12.5" style="14"/>
+    <col min="11" max="11" width="13.6640625" style="14"/>
+    <col min="12" max="12" width="3.33203125" style="14"/>
+    <col min="13" max="1025" width="11.6640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="B1" s="12" t="n">
+        <v>333</v>
+      </c>
+      <c r="B1" s="12">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="n">
+      <c r="C1" s="12">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="n">
+      <c r="D1" s="12">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="n">
+      <c r="E1" s="12">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="n">
+      <c r="F1" s="12">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="n">
+      <c r="G1" s="12">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="n">
+      <c r="H1" s="12">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="n">
+      <c r="I1" s="12">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="n">
+      <c r="J1" s="12">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="n">
+      <c r="K1" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>241</v>
+        <v>336</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>157</v>
@@ -6343,7 +7307,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>85</v>
@@ -6358,27 +7322,27 @@
         <v>146</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>336</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>241</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>19</v>
@@ -6396,10 +7360,10 @@
         <v>88</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>128</v>
       </c>
@@ -6413,13 +7377,13 @@
         <v>43</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>37</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>157</v>
@@ -6428,24 +7392,24 @@
         <v>109</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>241</v>
+        <v>336</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>233</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>10</v>
@@ -6454,7 +7418,7 @@
         <v>47</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>100</v>
@@ -6469,7 +7433,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>35</v>
       </c>
@@ -6504,7 +7468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>112</v>
       </c>
@@ -6527,19 +7491,19 @@
         <v>19</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
@@ -6562,19 +7526,19 @@
         <v>19</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>43</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>65</v>
       </c>
@@ -6582,16 +7546,16 @@
         <v>37</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>43</v>
@@ -6600,7 +7564,7 @@
         <v>103</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>173</v>
@@ -6609,7 +7573,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -6629,13 +7593,13 @@
         <v>47</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>27</v>
@@ -6644,21 +7608,21 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>210</v>
@@ -6676,16 +7640,11 @@
         <v>100</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/db/Database.xlsx
+++ b/db/Database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blakerowley/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blakerowley/code/clique-connect/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A000DEA0-7304-164C-85FC-075ECFA12E01}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33030184-98FA-2C46-A11B-7AE303751B68}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2381,9 +2381,6 @@
     <t>http://fabfivelifestyle.com/wp-content/uploads/bfi_thumb/style_channel_logo_new-me4ispzqgs6ojd2ip4j432ylxb9wwwcz6ohj87zv4s.jpg</t>
   </si>
   <si>
-    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAOEAAADhCAMAAAAJbSJIAAAA0lBMVEX////wVCMcJSwAAADvRADvRQDvPQAADxrvQQDwUh/wUBu9v8EAAxMAAA2jpaf+8/DwThcPGyP++fYAAAn0i3ILGCH97egACRYVHyf839j6yb7t7u76zsTydlQAAAbZ2tv3r57Q0dL98Oz1mITyaD771s12en32ppOsrrD1lH34u67zgGLvSg3wWCj5wLP6yr/ya0XxXzIwNz1aX2OBhIfycU7729Pp6utrb3LIysuRlJZQVVn0jnW4urtiZmqPkpTuKABDSU7ze133q5omLzU4PkNGBE+8AAAV30lEQVR4nO1cCVPqOhtOl3STpZR9UQoFWVoQFAREUFH//1/68iZpKTv3O3eunpk84yB0zZO8e9IiJCAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICDwB0j3y/S/Uyn8cEv+dTBC6QBrNfLfGaha+2cb9G8jpw1g8DqBZErkvxdI1gi2d6TXn23Yv4W2JlmBg9CtJUkGoUp4ShrZ7hmm4f504/4QlQp8uoEkYZcxxDXkYIkwdFDBkCTrlh7n/GQj/wQdTR00GUM7h9An+W8QlRybktVCaIg5w6Gp9n+6qf8niDjaROHKZLBsonEONq0povpoEIvTJwwDjwy0ZprGXzqKJlE4g1jNXCAFLvn9oKlgS9NqQEYUtbFkqmmEbJMN7d+FYZ80HW1sMkoggNPAoJ7Qm9K9nQF8OoEJTqOsErX868awZ2AYLWJEGUO0GbMdafrpNOk/n3pFMpSS7ZMv/bFU+4nG/l8YmJKpkVHrayYe0i3lI0e16cZnLNkWYf5qmJb9Xzbyj9CymG1B7YEW5/byVCefN0+L2Lamqk4JwRoZb0n9b5v5B3CJ5JlU2VCHadjbfRWhlZLPI1RX8soModmE8xxQOc4RnWWRzm9HherSGJx8bGtK0b8QWmfkxArd5+ViF82yOvCM0IJAp/LftvX/wtTAGDi+aoHKRm/1VmXcuugpI+sptKSfc8oTVbtVdqJpWlqH/G/n/GM6+2uQJtpEfQAqeJgyXCh6dgbjlr9HqaKcXaBJXlbqKFOC8VwoSZmdiY1bYJbTbBufvv4vADb31Cmly5klYSLrLwiVMjLVwzlC3yVZqSJdlrmsutTnu9Q5pn+i5deiA2F1GKGkVsRwJmU5idAkmVwAOSKYRGTJxyRPvi+ysnxHxLQRaqRFOsgc/1Dbr8StakncB87vsh8IyRk5S0hMFNhEzecMXEZDSREdTcj6E6p+K0qdnkHjG+33+v32M3wOb7Hm0d9EEIsTNPvS8/Crvnc0kF0ki98O+s5TEUbgZWz8e/MMZ2AYFh0855nVKIh5kcGOTL6jg/pkfJxOFGbPlAmILpHjG/o7Z/p9sE/lT7f5Hzb9SjyoYEaH/Fc3VSXtJz4CnAF1CEM/TQIXrYByBiSHOWppQf9WRRkMEGpEl/KNIMC/LxaHLFAyecOIh1dWaPZxxywlGEeMfZIL4z6xJgEqa1C/4Mcmsx8z1M0qGX4lkmyxcsdvQw7MKM0DwVIyN9CYw/iVtXEaBaYNxJ7RbbABqi5ytR4cm1oSlbwhoqqwUXymXRX8FI1zyGmBHbBotEEazK0HQQUHPcKHuMleC2LsJqqottM0oJbBQaySXGRffRvE/XcGcOW+95pjJuJNyRNHT9CcdkikY29I+gtBGRgZIn9pXEBtFXuo4FPNnSlyifpKcoKGsWE//AyD03CG/UhvqvMlGb3GvUw9YF9VPZID5g7PKb/7yDHYoN8oyQ+Q1dQMFYaVh+t10JnN6vXZ5eMug1xodtq6NTEOtCnfP0lkil/whZrQgmYRDs6RGrdTgXobLdmg+oIcPJOzRaUaXrLvfZ6P3hqp+XdRobgrfdynGtXtvpvVzc1i0QAsbm66jdNXoXd/eZLZhUrLyU312CFQNpNsrlUvRaKD9/RrZ/NMSJzJaz+hX1wu2Y8ZWebBDVFUotPW6T5dzPOkQd/zydvbZP5RzOp5PVl8fAp360A7SZElX59OXoeMw8sXOeJrPZlM1o93ST1RXC8OjypDgi4FPfYrQwxpkvaEZhP/5wwPTwhRI2P7qrLK94pEsPoH2/6smRC/nZLW7mM2W5zEGrKYK8RUlUrbdtdX36TDyLbHVf3oqHC8FIsJORXKebX7cVfKZD8OB/1Ts6A088wOWxfvFGpIczjonLk6RVq1GJPvREJZ8o0QgUvWiRC8/p3MJ18ONuqRNeaQCem9TftoyHopmdrd9KgTq3d/cGhtFASD2z4YC+A/m1WRU4C64U5houCS0Aa1dzzBw/uoTZ1/KrUiIlqFDvdUy7SC4HgR9UUp6R9HhuUpzyUnBDjlzPocwZRSyjwe2Kl7EKbHUwN/T4IZPhCBBiX7rbVojgqeNhxrNYyRv5XcNDniweQJRfUpqxBB7fduW9POcS1cJ+Xi/Oiex1J2p7UkNZXzbyfpQb4jZ76PbH8jFDOZHYrbtnwQ4ddZvwUW9raH9B9qxqBntwbmyBr0jFzT257UNEyDZRRfEAsdUfQtlnp4/QPUleTOqatiPOw4QuROLmWODtU96ZuSvN01lFTsc4lagMaTkJTg2VTftyxMo0fTW/Zn96yYGfE0w6df5nDlragVDsV0TZTk8VST59nuAcPUqYPRahsoHuCRsMh8hL/KYPdszD3e4jubLBHrnCYeoPDMGRaCTs+2pBhMc1AZuPwK7VqBysFCSRSz+fCmn7aqjves6QuRn7v9TDNCQ9mRyZvEOYYzcqn8oUFhgIxOToTjz1yFqYaNcYBWWzNiYUxaC8amtIuxjd3tEeWxSnxN/aYbyZkPJR97G7mGNz7ZKoLIFl/BcEn06e5kNDQHVxOFH7QtZqA5qDp5mrCTapqpho6iYHs5ixE0ow+ox7hmyJG4jJBM9YZmwz6kUPs1YmhV9kyMtqtUZxlCMpM5brEA9awc78xPC+OxR5zho57JMyVErmQNuB1NY5uRGlgtazRujaUB4xhEFYueqraY0qWURDIxQ+47Oce0jef4bSFjyewM01mcZQjJTOLm9Mkf4Exj3qfAyHzBZmXvvKHr2ZSf1GrlAs8fvQa3NuVo3g5Dl+Dw3pjcwYWJwWh74yDwd03NExnCYhddi3MMG3Af/UwdAVzNkbMbCokPFRJ2u6Nc5AgtTG3MwPY1d/NZfvCGuZbPlTF4j0zJQ474j5SSkUt5nXXd/v2r0KrTqvOPGEINqXROHGYgpiVuTsvDqP5XTU1SxNQ577GIpEyNjDnwrWGNNtpxvNfRlNK23fDMDolhXeSs5l+l+xPhRLcIunE1wbMMQdjyk3NnQ1DLykzploHVYC+67hsGj0jTlj0CQ9QaT/vb+lm/g2+pQR3z2lXZMIzxfrbU7g/jJTewb2f7fQ9nGFJDcl7g12BNaQhB60amCi67+rZccyV0Ig0aUTMzCHI7BULXpbopWTgU03JoVBrcY5RHRoDJuEb4ks/7in/AkIpD4mzw9BYpIjPrkkHs+pdeyrBcLGoucmqwjMYc5F53k2Dfa9EKvrs1JvRbdakUsxAw9TUqx1q0n6rhecm6miEE5XLyZOgAYDoBt2tK2LYxhjATAgG5WKwiXzO48UeSAQ0dtKze7gXaeDSmNbXQ1rhYGzvo5g6EI5EiKQcbZC0a+TpleC6Svp4hE8GzRgvO5h3q9HM5uvQCdUnUpaxJz4ywrXFfXRtRvzB43Y8xP1vMAPG4gDhAm4Sqi8dkpkTniMu3BknzjW2Nv5H89xguSxcZstvti0x11aVnOa4Xmtd2D1zfeNPZz9f7uRYw9EMKz68+Pedm/sHjovJnLybDaHH0lmdwhiHz52eltJG97naF94AOlY33GU6Zm7TfP69sMGV4JtA6wMUxPM8w1qFDLxyx1HKZAg/S7EVDUwvHcF9K3b0xLHQ81gk33eN3pha+dCxjPYFLenguaAtFBpSiMMB2oNIFFctkJqMn3mChgq3xIkuoh7kDPRzRwR2HeqgFAdjNFz1Z5LWxWs+P90uVGbLDttRnVQBUQKrV2Va5LtnSM7kjP5u5zA21eabmsybQIo6naT533yazpaP9xbLPuLVrS3uaiptoAhm0fEcuXBmrth1osdlE2HMkaltBoTNR1AmKxTtFuYZhV7+oZPSQLCSrU5vOOW0QFGmKyQwd+nQUnhB/SD1+rrc7tbs58IeFNsR0KSVPnGoD9d9ZPqJto1MqWsXVQVsW3Zf7xwSNsvSnmIhfimlKH0f3cbBhhm9lUw0wZl1d74aizZqLaA+wmMaP20X06bKU38RhbJDmu2eTjzn03JB6fDPGkPrgU6ZmRXfulH7PxaWZKOo8BTBG4fVqbmU/DfA0VeNxacDj0tZouKXofhpTFpcaPC4dG9pm9xoFWJuDY5VHpoinQm9wALsDfCm3gOUup6EfPyD1WFq+zFD63cbjkHWUWwTDB55b9Hqt/dzCVy3Querq7S2qDpV5MhKCWcATzYK4PLlTWDqbH0JvnSumUmehb3/zhtzfleRS9humtLe1bimeH7rlSmeYG23CLP89CmBJSumgNyWh68opC0DrQ6f8BYxKdsfPnM3xqc8/k2yCGm5LkR0JS/7QYWKUf2R0w6wd9aMcfzzK2b3N9BWHOf50uFf2rcq0AkSHwikczD3NacB83I1N/hlDOoj6aWuajw9hC0NJRSUOcK0Uw3JXD+OAt363TjNojQdhhq+6/BKvpu3To6tfxUxeqaOmOyX2y99bkVGlBkL+Q4YflBdUfbfVtH2kimHZF/GpNckKoDWNFb9HXzMjV1YIolob5bmttQ3CiK2smYHPr72eL2D9MIi2jfeGkfX8UXN6guFhzTusqn6V9o3vFlVdjpXW+7CywLZDQ1lfrRpVkhwFsXjzcr20gjVaX436dErTziA2L0DRBYrZY6J3yBAcyBGvvuTTBrMkoZg8EdXl5UystJ7DKg5DGPSkFBMK6+R0++G6mne5nKb5b1cu3kXp0RRkXz2YnKMUlSPtOrQ04D8PB+kmG0Y9jWwpJopxvCSJPYgLcHprE+Y092dLhFTV2B4j7c5bvFrathTqa4wJyIacDGWwY6r4yHNRiyKUhQ+LGeBKdusSL/oRr17NbEnX9QyLEPcJZs/MrikQmdL7ONrOU039yu7cUzo290S0kD3MtqIDFJnw4+XM2ZL0vf64X2ShQdtOfkxTpL1BrH5nYgWo6jJ52FvOOiErh6o+3LRGuc8CelGUL3Zvx4SZCLSNY5qjsqf1D+YPgYZr8PnDFJFxHV3C6itZKt19rOI9QB1JKe7yYT0BeK/SZNWoz2DNRmP1li/t2s9uXi/l9ZfYppSeL5YOHZJvWKZlw8MEDmQxN11aNUVOTvXjhzU/6RzwTumxb/gFKM05MG+MZt1uFRX8lo0H5+bHV0tF1xOJ5QtpfL2x6M6L+VI+oXzfcwWdLB+VZCbPkFAiFDOl/F49MiUn88XsMrWoz+qN7jqRTZaOaPkndRgGzx5eoFxDdX4U4ItrKcsG8wkzRUl+874bw6QFbp07bZZa55UY9OVbbJ3I08dyPb/fxXw+X6+flt8HpmVxL8euMz8aUMDzFRLm1bRuNH/S1ALbIc77dDth4nAasOibmIoSn/Pgazv2XcUBy0U39fY2eUmtGueyhCtQJRnYZPKWWp0qbHiaHUTzhTCrw5fFdHpN1NEGp6/saa/I6W1o6ALevMTjlU/wsb/q8Yuh14mM//quSJeo1el41DR4Iq/wfHhOug2PJHI/AR8TJZNJ8J0dAwfxevcvQbpdGZJmg7Go3usKjXo6mERvQ+2I2Wi/d4g4BnSg7pNL0ik362XkA9KV/vWr2/4jpG81jHkwWk3kedBb2AwJD3gIatPn0xkFKF85aIiNPmqPqA52i6XEF7tM57X3+TvXsqctyJH4gzIQQimR1tL1sq+w3mLjQ6TuIFdtoWe6JpNhpmzXwqlQuvuNT1z2IFQOl7YRk6E/0ZoL/GprtyTEsVrowTAKaIw95NlqDfXeqexOQGmXsH6JnlpQaaZy8amSQuWBdUM0T+mw79vSVvilWQZs44N2v8LTsgLsYLeKdMI5pR2QPFjh+vOJAlo4UYqsnOVAeqFSYm2kmWNU0bQHcme6c3mX75K8MJngwTw8xSZdXA+38fvuplWGZwTYhg4RjwIo9W0YzEY23Nv0er3XFg8+3HFn6I7Yj5xP9tyOoRjkhb5pdEpHXo0ASxF9WNX6dsejQhpouj3IGokUj0BcP3OcOfWD9OmSMHRyAps/VXoGPaq+ZVBtFhh8wgkFWGfm53iUEUUMHpvY69Nr5ljfPZj0Bx1nJwd7xszeu6e98LBD62Jtr8WVMcHKBItYFuqSq6Q7kQSmHutsKpJVsgs1OqqFqYYvPThjRt8YQ5e2njLcOKPyHkN+MYgqK6HbHsIZubAc7UJVkF7i0jNJBahUM08N1oNYmzeFzttW96IFCELRBDxnXQmtUlkzxpQ+p3oGrUjJKMM+s1mU4W3aYUtv98fQgcaPoyvDYpiQIQpCzuMLNs6BPNfm40yC3xtYmQOiOsvTfIQGAdTnTWT2WCJJtUhCwZJSJ5DM4GCS6ijKeBiuU2mF8hcxROXWEYbpTZuzZACRixjmQET9CvIuxdHw2gRJDeezFw5dA5OZo2o+A5XcCWQuDq0W6pBEk5QHapb1FB9gKKJaZ4K8GNLeuOUVGMPhaLPLEPV7cYad8Wg0atGnsQq30RX6boyhRzVs8LBXlT4EzNmz5VvOkJ38UYJCwVMeKgwLBfTyTSfjRkQ4v0aru93yJy1qqdf6e6cyBkszrfkkAN5liHLDgzEkhzsoHRvDYYwhW2XwrF28aQ/bWIKFhl7AX0HzpsBklELr0Y8luQRTSIQVzLAS0XzK8qJFbkN5DcJ3FFwJG0QbbMemv8sQjcsHeoj6n8RERW5xVIgxZJrrnE3YKBxv4yLQksAMl2OuFmzGIenAp1IFA5SdIYUVK7u87pAL6EpLZ2pg7R/EM7fN0B9Kz7sMibU5sKU1L+YM2nBsyJBvvYIh5wkz2zuPZn0UicurZqlbSNLy0Iuix1fC9myJ1abKw2sIFtjDHelB1Ko0pNExhuh5Oo0Y8s4ewQ1GTETKdnrL0OV52tUMXRxGqGUeIFQnkFkv9ewEHpjVIT9OzeMPAHeIibKuvT5BbeA9tN1BLKZpSzymmXJ327cihj2XwBszbrnp8Ln2OqJH5TyyoxfOQ0fXuohcGJSQLM+Nba/OqUxO1vGMfGDQh9Qh5f1HT+S13Q5zGKHlfi6zR3OimctoiVL5oUIQ/Sz0Oy7PV8tke/wZpGtfX+VhM5DgVRdq6BuPGY809b0ONjHI1oj0inEkT/6dSE/tVwdeR8PfjuG0+EwuVzEWVrh0yJrwHh5iDZ2Riu3f99zoeYCwQjXJGdtsKrfDoskKe4XJiK6xadLH24Hzw2989vc8RharMPqBZINHrhmstijRaaamSkI0hz0AhH9nUn8RuUDCPisNQjXKsUz6vpMhllQSTrRVNsLwGgXjL31BXWFAZ1bCd3qBD1GfaWQHr02owRtewD+8avhaI/37QC1HBbPXtYFawtsWYEJYa6KmEb4g4rn/q1+EcRlpzbRhkIAhRNVQ7gDT0sNScOTh2b8RlcEGBokkDiZYUXh9IhVLXzN/Y0ntDzBWofxEQiPMl6//dd7hEsLXljrDv9R0CggICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAhQ/A9eNxIFE21SsQAAAABJRU5ErkJggg==</t>
-  </si>
-  <si>
     <t>http://www.sammysroom.com.au/bloch_items2/bloch_logo_screen.jpg</t>
   </si>
   <si>
@@ -2393,18 +2390,12 @@
     <t>http://www.ozifyaustralia.com/thumbnaillarge/logo.jpg</t>
   </si>
   <si>
-    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAa8AAAB1CAMAAADOZ57OAAABF1BMVEX////4uL0AAAD6y9H7ztX6yM7g4OA6Ojr6ydDVjaIxMTHR0dFwcHCwsLD5wsj6xsz9vMHq6uooKCi7u7sODg6CgoJSUlLHx8ccHBz5vsRbW1tlS020hor4u8CpfYBaQ0X73N/97vD85unf39/+9/j29vVbTE750ti/naJlZWWjo6Pp6en72Nt4eHiampr98vPx5OW0tLRHR0c0NDSPj48wJCTrqLPkqa7WzM5WVlbMl5svJifz3uDgt7yMaGpJNjjSp6ydgIRyXWDYoKXdl6hvU1WTbXC9i4+ujZEkGhvg1dhMODrHvb7moq9LQ0RbTU6MfX67oqUNGhkRBgjGg5dyS1aZZXTUr7U+KS+FbXF3amtmQ06zj5KiMWjqAAAVRUlEQVR4nO2dCX/bNtKHJVJXLOuWrCNhoothdNuKYjt2FLt2jjqp293ttmm6+f6f48UAvAmQAEmJ8dv8f20ORxRBPJzBABwMU6nvTLn2Sau3zh90mpIkNTsH60lr2igm3aofoijXWOSBEk35ZbuWdPu+C5Wmyxg7ojadltw/O5kuZ4EHqsXl2smqWa93HD+o906CvycpqdPpVHX9bLScNmI/UV2SRvF9WxF1q/tna0lqBxymltamIfVa02IuN5vVkGazXHvZmrw+0P+xs/hePWMN3WDuu6kkSZPYT5SXpFx834Z4Hbh/dhTES10SHs11qz1y36RYtVFjsSbWNonx7opRtaZUd/spxOsw9hMlz2taxyB6jYB2zNqv8QdbVKQJ6x/Dq5gnELgaMVpgOwxyrwnon8KrhWltuE2mhg+Ivxui6p/BSz3CnlDIwRVfokOOvjefiOKN/1i8xqnxajUGXvD7OM4TxchrvBqfU3ix40MVxxmeCUCAVDCxfNKzsfEYoRgMBsNhH6Q9+Xghy9lKGakLUpTuU0l6X00r/VjPGyOvYVq5kKRXuM3lcgUrK2sXT55s531dQ6zBCguC+INz8RMt92NhY13ABVrd7881LYOogCoVTEZBXNB/uhS7qphXeRBvo+L0h1oaeFXTIKvdtusgfzKu7j3q9mdbOSuDMhrSHIAOBivoJb8TTcGLxtVqXYjLQGeClckgNLJBhqGuV05ecqzOMBXz+FUGXs67zA5Il36tP6FOv+qyeiILBMEskTF6r3kDQUpMjR6vEKa5RszGUoUmfl7pNPD6O6Y2WoqV15jYFxeva9TldzRclE7KZjTEzX4mCOyjr3Wshn3CSS4QK5dlf2h8vLCDwby+9/jwXPeHwby6V6jHr2mWZe8fZ8/J86FhaipqdzNKS8fDeaZgUpILcly8Tk/TD4dXkTJ+0Xl9Q7ieUEcGKq8C6lv0S7Yi94mdjdDx07DNXA0zJqBYeaVNWojXzw+Jlx0ZhVf3Eg1e9IHcjxcWQYZijmaoGHE8zMgexcLr9N192lL/5IHxMolReF2wvGEQL9S1SJn+ADziUriB46EmF7y4YuClnL57Z6OVnj+Q9Y1LG6/TU6VL5VV5jEJ5RpzMw6sgF7R/o1mzmIGt+nRYMfBS7h89shtXWnso61Ev57ZWn747ddPCvLrIvL7RcVF5FTy80G93wQ/WbFoNNQarqLzKyBE+euQwrrScejC8Uoq94e8e3VPs6yOK5c8EeHntC82w0QTuvRUx+gkHg+iIDGXkisgL/X/6COnUgasCZ30YvA5SK0fTT+HWc/N6ynaH3LzkAoo4tsgxDn2XfMbDvs4qEz+vchlMy21c6S4+80Phleo7W38Pt5/i4IWGr5vIvDLPJOkFECgUtP6AYmerARqwZJNV/LyIaaGrqzouWCGnfzC8UlknsDTcg+9ObbxesYcvAV5ognOTIW6uAL9qc309GS8wwY8zbsXJi5iWx7jSaf3WeTi8xorrCu7xhd2nu2XMq8KO5gV4yV/QHE6mQPFRbLwU3bTcIxeS4Z4fDq/U0H0NaXIvQrhYjo1X5k662ybBq2uYFsW40kOjMx4Qr1TGcxn3xgXeK+Uy4sUKD0V4XSHs++ZVKZuXQjMuC9eD4uXxiKaJYSsT5UWZfwGvrzjg2COvSrlrg0UxrnTf6oyHxIviEXForwsi8W6X/vBLwL6+SdLXffLq3r+z0aIYFyxrmHpQvFJz78VYJobsa6Qev9EqFGYCvF5I0nN+Xn5zMBqvCv6/okMrn9oti25ceFnD1MPilerSgJ2avIoqZFzXjvtuaGK8ftV4eWmZ7fYL0pbGzMML/XF7jbXNyhVbgOFjXOmyozPEeKmz0ahYzAWtiO6O14pyQYaJIV5tVSXEarVPfS0bite1JF3y8dq+uLm6bOI9Ss3L5z9db13I7LwK2cz2+qfnl3f6xovLqz/+/K+LFs249GUNU9y8ZsVN72WHtK6ef90qFdnZXzvMP+zTromY2F/mw0aANgI7m8vCvOTtzc1XL5ovX1wIC9+eO7e6IMw3XxzELF4FOXt9c+nez9T8y4GMZlxpZeXsDD5etdJR3X02qT4pMfbi7DJf1L3MYZnYH/ZLUXOGa5QFeRHP5nJ7v0LQaJP8k9H7nbvLuztz19LNNkPhJWdfPDMYHeTX+Zd144C7P/7rZ1zp9BtXZ/DwGi3MO6lTPwAZf2+2qMR2yYsW1BMT+1OS1panroGZYfdIkHHzsqjZeD138npBaF1+ffFlu82iIez6xdcrzKD5jcLrmtDq/DZtFGc1aNSoeLIgG2ju/mQbV7r6gbKfKIDX6FBHdbRsF3P4dOqs2FjoBkfb2bHTfGxaUI+v7daR3mQ2C7oHokYTmf/8i4fXV0zm5y/Oz2x/xoPTjZsX+bh00ziGrrP3LNlF8z+mcVWf/keUl0o2D3SW3kSv4hLfUZ0Tz7/sNn/eu8xB1EXdtbAabj+EmFmhHIt9FSAL6/KFZjlH4xDtBXTIVdbBKwsflxY5FyyiNniqv+6r1AuqXgjvd8DfJ01YWXlk95QnjXnH+x2oQT3J9fLsRzSFiOXOIWY0gYW0ry1csiMisR91AywLBi/07VtwnfkiDRYW2MMrxg0ovD9lg2n57T4s4k2nLp475sUI6tNnv/tdjFqbnZO5WVY3slC8vsCY4/SEjsMgw/hZBmAVILfxHFze4YxFC43HkIR3Rbsc5ViQlzoBdxe0vRnyzl1Ze7veT8QI6qtvJd+dKbVzfXJ2DBm4FZx7KMpri5zur9sMi5dcgAdoYH7a/M1xTR3BRqXlJ/aEtZ+ufkQfeUvxiAPB/V+Q3CUdBu+xGcHnHInnO9//JTMs7Mpr6zap56ouYAbQCtmKGC8Yu567J9M2WrDH4l+oEb/UatgDwl60kxRzu8ygrPtx6cIDbCi4X08FT8eVjKf2IE60/WD3+/XO6AYGGYhN9qlt/UawHR+/6c9xfxcMkb+weKHh6YqKKoP3wrw5Pka3AoL0kljUlBj8J3pzxvptV30vSZ/d1zIX3F+pQijBW+rh0Il297z+ZnhEuFWbzPHW02/66tWn80/Hb97AVrI5lmYoo/8+J7w05Ot+150h+fl83n/zBlECTOfnn+DrVLVoDBA53fHQeZmL19Uz9LknTgODRV4hXi0BXASY9end81q/Z4TAMIQx203rN7x2dT4ylh3pgpv3BM1y4bvNT6o270qo52okrkC9UYc/IA91BH+nBa19V6udBoYXeUV4lfyHbo/AJZqM9rF/+akfsAXte/CaB03q7HzmAGCXjZe6ALdPnUcB99y58f05PGpBw6UZ/bzuiAl98taec46zawR4FdkXzbjmvK0KzV72m98yXOIHiSeqdQgFIv7/nnoNRpvzT9ZWreERNe91KjXR3aKH79C9pgYjmD1EJNk1Arzy+IQiMp12ak+8fmFNmz/e+c7xaQrc79yDNO2Nf662arlb8E65moHXhWtQobTZ4RD1dA1+XqhlHdE6WLBhW//2/dRzGNB5oeH7vUSIce9cYARwljCvgP3NqtW3MxjoptgpurWiz0WaUtN0iMbzf25eI8HBizR3bQb1e6q/wZg2p6vVj3jNTlp7ypsxFDjJBF4Ngd2ydXS7TKSO5+crxuJn9cqagmXNVvHy6oUqAlY0Q4591UthTZsRsQtCTDosxVKjAXgtSLDHpQk+uXv2OtaYDUZh0gfCy3qgzMsLOj5MxbKJEaPsrb4NYwgjxIxHhPXFNPIucsSr0RSY35TwmV2dQM0W0pv7RJKeEV7WA2VeXkfO1QpujYz4dW+8mA8vMbGzp68kQ0fTSAW9EC8UzPN/vo2DVMePWN6bNNYsMmLbF8PJC8wrnBNZ6+uIiNe0EZuWPvWjBn6dgJG9tyqM5jftsMVEe5IkdBNDH9rXVMc+toVbetuU7uAPfduXcPJahDSvVKqhR7B5KWax63353rUYWfr2w2OTWTO/aIRx9ZiXgIXOOvbPj/s+foDo7BUKEPGqoSU+XrWQoxeoSUKoPfLyGxQsZGcXX3+zEobWh43AlDyXMC+RAyA5wzDmPnuYtRqJXPeFFRpi8fGaSgJxkEstYpqI12ErNk386+kxg0Qns/L2l2XvpcWs1RCpxga88iI9YS33DMtcDUTx7Meqc38gH69eiLmXoSK5qrx1b8WgoPqHXP0Byg5Xxcbhgcmst+GeUQMvoUIPaChfw+98tBCvz4iXK9eQi9esaS5TiEsllbH3W69yzMsLSR5CSfqNZWeTKdfF9sSGrxQsOC7055HcvH5xfQcXr4Z+Y4QTXhfdd31RVj4HXRkcMRenh+bguAxubE90UEcHLFfctBCvZ97HQFy8JhHcIR78FvuvB8tKSWRJIwuqtcaGVMeW8kGrID1KDXxfoW5kPPGJmVc+Uk050rd7r98bFNV7pMh6jQ21ROys4/9Gip5guAG8nuyD18g9LRcTzDvUBOotMxfmfJBldWSzZT6QWE/o+dK4D7WRxHg9D8erHSGaB63BzydQH5u1DcIfmW5lagPX1K6zB4KewOPb8VxJV0V59XvheG1CL24QTeC0CfAaC4ztTmR9jKyNbWzCMrEed6nYIZ4PivIqp0LyohwmpBaEK0nUn/db+g1Qdw4TH5z3ysqt6nFOv4ylDFFe47C8ooUb+CnzJpn3BYhF9S4pKGSs0VLLdfV4Co8OraUWQV4DqqHw8Kr7pO/xqAGOPpn3OwyiAEOq9P/FBOa/6DMeDIeawyGL8eqnwvKaUT4ipCIEUgm9j0N0GuYRzq1qfqIUqjd4WW9gwFXlM3KlrNAcsRAvTT9DCF6jpuA8w60RLI8k9f4U4WmYp5shP/gqrVg1ZvXtz2h29BSX/FSoeLxfJMAL1zUMywt1dy0XXrM2TCwTe99N8MMVmmwEcLqpd7MIzGYFliuE4nmSGxqSFzwX7UQSFANN7v1ErL2XvpI1udI1CvJD1odnswgvL0UpZ2VN64rw0hMAwvFqR360CJ2b4Pukwsyblb6+1UEuK1XY9PdZlJfSBU76C3jmXRF/2NcbnhyvJO1L4GmYTVnS0YMVvJ0G9ttdd52jFI0XYlTJyrKmF7REQcgKvwYKmzg3L7M2VGh/uPbfqsGhZN/XFmbeTIBBnw9W45doSrLSA0DYL56t4HjjZ6gwkMUvPZrPzZdYDVb4xUdw5ABwaWTCzMvLKjYUnleoTnVo/7xqrY2x/hBqoaM8N4HhxPKUHrqvMIfh4LUk/dsgBFBXGJNx9rGLFjcvxbqCfxavke1NNatQK1OyaWKfJO+kGc+/WC8QWxm0LF/MyWvgOEO4eF7w/QY0JcLLSl8ahAKmZA0bW3sXM3zWN3Rac9meBcXHa+g8QxLrG1gJ8woJLJ3uZiHGG/ztfUbB4jVe6bBcYQ4Xr7nrDEmsH2Ltn1fOwSs1CMcLCU2g5ihC/BW/QNH6QhovzArB0rLe/EIeXo46lGF5HcTxirnEeUUAhnSLBkMUBuIYUH/vpZMXBIQ4gNTQjI36FRy8nHUow/JivyhXQAnEhx3XKaMAg+36+gviuiSG135D8bz+NlqoH5CBt+z6Ze0G81JcsUtIXpMIb5gztX9equc+iwDM4mV2v9j6IQ8vd6gZktcyjnq+CcyXvWl44Z+unDV3z2uYcikkr7Zo4hZNCfBaeBMsQgODJURX98fNy4MrLC/UOZ0IE7Bcr3eYCK8lZaIfFhjYl6v7Y+Y1dzc1NC81WoDYwOlwCfAaSZT9PiGB7Xz80jwtDc0LMuAj5GO3sFtKgJdKWUQKG3TsmlfW085UeF6bULUBDK2T2O+ARc84C5M0hQsB75BXhXqVYXkVaY6FVzANKibDa2kWsXMoxGo9ZN183h2vsreRoLC8avUIM+Y2PK1MhteM6hDDJP5CMacPO+PVpbQRFJYXFIPjTD32qkWcaSLPK1lVKMZcG2ZtOnvl6ev4eJVZr54NzasRwSE2STcmwmvKrI4tloSDi5S66pfGxouJKzwvGINCptAjd3gAJ0iEF0SIDMcglOaGq7O6ujouXmxc4XmBU/OtQ8aWsesmmfwN1O4O49mdSCIpzJbdXR0TLx9cEXiNGCN3oMwDk+EFhUNYm7T4Z86QMfq7u5xzPLz8cEXgBYeGMrBD47iE8qPg7QYsTz7mqFmCOxomyx40sfCiTpNNReAFdhIipC+ahyXEC9bSmqzFT84wEerMvPJUS4+Dl8xomK4IvODhRIismyNzZSSp/EPIdmXv5uUZxHD+/Meo+fM0XpQlXoei8AIDE94VC2l7OqXE8kU3vg0PTsPB+1Mo78aIzsv7AMWlKLx8RwKG4N42FvCSy++Fup7s5+NBPhG/yoT27pmovLoDZpsMReIFPe7zXguKik3bA6jkeAW9RMS3sB0U+ZSaZxQuEXkFDF1Y0XhB7EBbPmUp17FPfhLMn4eYw289zadwJKlcf0vDEo1XoC8EReOVOpH0tQouwYBnQ5TkfgcMbO3T8rG3/Dvu4fRjJq5IvHxnXZYi8sLhA2/qKN6FZPtsovtTSG1Jv2euntcrQAdf4DcV03FF4RUUF9paHYkXebceV24bvBrnwL7UmiwvUknjyG+JxjWMVfVXDDymjV2ReGVXPq1wKDIvctmHgYUn21BMcOIY6xLmlRrh8kILH+9grwRfrd6+xa/w+JBmIQnJS+EauYii80qdYBex8R3FirgyvisiS5oXuixcrbfnU/NVf4tJtZq+ICW0nzF8YXheGt/IRRQDL/0+rbdYN2qt8ZrqepLnlVJb5PXVkymztPKwjAhcvCU16u+eVn14hOJFeXmKj+LghaIOUgm8txm5r1qtnZBXZlOqmn0HvNDVbowN1b3NCa05o9KHx/onrp4wXWF4XmILDvHwStVa+iU1e61loz2qpdTZqF1aGmWLm7RXynTCV0SnqEgpyci1LUMt9Wy74F8fbqbTaalUmk6XC1ulbEl6e+tnW7j7P4vxksc9UftaU3hJ3rrVpcD0NbV0ILH0mn4PzXKi9d19G5DLeYKeWs5j8HQ1Nmtm67EvX36rBtFCOru9pb/ilKJuHzdQsAtoB+RyHr+AOiN4VpybTrxXut5EKry3P6nFZatX97S/3mtNMfQBz5MWDqZYiha8VLgXzRrLVmsxmfQmh63NshFjffm9SK3NiqXlZtNqtTab6UkxV7PdzSstZLVLl7qZoUhI+EPhFRmZku0PfsDap1bDOWN3ayCryvwHq2S0GvYzAtSUcqY/XP1glbTGUEkKtpTPyXblSlmvKKV0u+WKnMFFo/6/2NT/AX2eDEwvR3f2AAAAAElFTkSuQmCC</t>
-  </si>
-  <si>
     <t>http://roseinnesdesigns.com/assets/files/projects/smile-logo.jpg</t>
   </si>
   <si>
     <t>https://pbs.twimg.com/profile_images/439197864497930241/0wSzrHMY_400x400.jpeg</t>
   </si>
   <si>
-    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAkcAAABWCAMAAADyiMLSAAAAk1BMVEX///8/NDU4LC07MDE2KSo6Li9MQULt7Ox+eHg0JyhbUlL5+fnz8vItHyCEfn7Ny8ugnJyalZW6t7d2cHBGOzzZ19eLhoeppaWUkJAiDhFUS0zn5uZxamorGx0nFRdCNzji4OBiWlvEwcGzr69qYmNPRkevq6u5trbJxsfT0NHd2ttlXl5YTk+moaGHg4MeBQgWAACaMnblAAAVyklEQVR4nO1d2YKquhIVkogIOAHKUVTAubv1nP//upugkMrA0PZ492a9qYQklZVKpaoSe73vR9iPEucrK3CSJHmxvrKGDj8PJ8b2dnD6whossl7/G31hBR1+AY6mYRim8Xr8Mp1k9ZGBp1/19g6/AiEdZAbkHXarr6mi49FfgBgbDyAz/Rqd1PHoz8fCMzgQfpt9AZM6Hv3xKFa1AsQbjD+9ko5HfzwuB2yKTMLBp++sOh79BRhHQ5sITLJfP1kldTz6K5CcXtcCk0w0cT+zgo5Hfwsy3xCYhIefqZL+SB457nmU/nQjfh+y1Bbt7d3nbdz+PB6txjvf8LD30+34hbAmtikw6fPM7T+MR9Zsnga5TWn/dFN+JZK9sHOzh58VWv2zeHT918YPI6DjkRbugkArydx/Upzkz+LRBPOp9tNt+a0IU7i2kU/SSB2P/jq4U2hu47dP0Ugdj/5CHKF/m7x+hkbqePQ3YrwEaxtOP2H73/Hor0SYckkZ9vzjL+x49FtgZdNo4M+jY/gdtb0MAZHQrO7RcDaNRnF8iyZZ9Qr4UzxaHaMo9qNol7R42BofqYxjP55H11Pdag54hD+poVVwT1S4/u2i/3W1m+Q/U9knyo/OYlBg9/gqnPQ3HsamibG9xn6miX2tbmUp/6ypcsCxqG62Y60oLKdnvfKlDW2ruLua+fbas7FJiIltb7ONLvqwnMwj92U8GQwPy+Vhf9tddGPmOo7buKDSR5zioajs/iOg44RRsLExJoRKbWMOzg0Rw/N/tCesK+x5b2NEY6VAcmQVjIbcfkQjLtcykLTz+ZeaijLw8wv43ppLX7vn1PNoi0xPMwVXsxhv7Fz2eXv784soL2fkmXd491YkUWBD/6DpxaqGCA38KGWur5rG/1f8atpxhUBXs8ktTini0fXycuBVmnvt88k0FR3gVM0jXxuWE3m0WviBZ5uIgWAPvUbKfLMYLaYNRHKmbFQfH4Z20f1J/vkykKRmaucXR7gW+4JJnEmPpOu8BvG1pVzL+Rl55Zf/aSparMufN7BJq20xhF5ecegX3k5Vla8mb1KOBsJkJMjeuRWDQ3w24pMAGxLI/RdBCgEfTJ3C+YcXVsoyWIvXvsEmL4OJt/voAESqWdmcY2CKPbnL1RhoXg95ZEV5QYSYxAgbE4K3/otUYu7RRjSEikNKHe/2+PBaNMZks8+NVKmZRlSnklZ9pQDyE+GRNyQ/AlGyLuJV/6OpaMEdKx7sIW8AZppgty0nqcKjqG9qmoLRDXawbAZJV73VwNM1Hr9Kgv8Yj5Jp4ImkILBWzeY/3Gvbxaofqssg4NHpwMRoe4f9YDQaxW841xqmdxVb9UKbg+f1CmlEBYWTx4eSR4RqzyT1tE2La8weK1WnBQ4EKtfzqNQtT/LIKtdLk6rUBeKVSTy6VMs+PWvqQW+Js1em1aOqoSj3D/Ho+oZrJWSYR6nE+VDRLlZBX9EjnEcTqqvN9XZ6SSxm3FircNFf5+eepDHeM51V67tyaZvxoKBaySO07IVvpr5p9qj6dc5IUwj14crzxTzalyp10svgRBZ5lPUresdKAh3O6wmyt8rhwnthsn6AR5ehXc8iKk5DLHPCmiWNP72RiVTwyL15BjHkBPCzz+aeSQQ99kI1Cr71apBvm8pXcRagi27BfcimJodhYWsKoA2w3Wp5tC0f/DCP8DzZwqoEHk1qRwvx5RXwaFlTggg64nkeZUE1vXmHhdO2mZipRLcLtkAsdJCWtoJHA9vAb5myWjk7NsWIUMrxTaoNagwaJnbC9wyAR3XDbcq2M8eJWv7MOpTOPYAQYy2PgjKC9GEekcFcGBPIoxNsA2Kyx5LsE7UeUIAgqRNoCUNfT/NothUmL5OkSRR5EZj4dwFHTAjZ+tPrbDJPt6DrZC8S4MEjqkFsXxuwC1+p7MkbLDWj7zNrfBRn+ru9Kz+CValsHeWFIrWg8oXjftDfx/G+H4hJD5Pyie/ikREEwqsBj0LQIYL6fnScTedDAwYg9mo9RVfsQ+qnQ0P8wYZa/1ke7cTNsb2MB/4gPcgbesPgWzYLpATgfXncbRUFXPySxyPn0STDBqkyUByfCt/2wTcu0zfV0T0npq3Y8s+qdYPxMvWHQ1s0DbTSub+xuCvD3fngZSgotzTDjccAa/IKrPnS/3EeyT0ppWkt+TM4LheJJALrIH708ChJBK1H55eVu0rC6VaQCQaEeJJHFyEm643O1Px13dVL5ouJ/3BKzEs5IDSB43x+42W2gtphPDLnKbF1ToE7VoydBDoYrnbdMvRCf7UBW2UemeZtnCRukowjE/6E2gSe3QxsPHgt4ZjhMuLdNC/jAtyOepJHrjoViL3eUPxbtmDKV+/NEcrywt1JdHuWfzWT3pXyFlojSCQbOByf49EK7nXJK7RPLrHAWS7+C/+eSH6lJCiljwWD1spXQiQvdwLCA6LGSAK+8aT1VMANU/MJkFUaBJiCtxImOqm2kADGfO1GW+m3pvjakzxy5tKmihjxlTmp3dJTHXIa9aVuhNxx/CC+yCMs7ocHoC4CloHneBSBldKWvXRTAy55xW7KGXD3mOwNoLvV8vEUKqQ7jwyvNjh49KS2s0woryq0xFZKyFWRR6ag+IQVA7dLO5/w920S6afv4RFOFffvvmyUrcwGThsUOOIXbDwO4ugmQy6SQoExPMWjF0gjXylzhDwq3nopK9Lsyh2uLzHs6J1HdZtuBqrNkAE2cy/GwzutwZGKQXASCjzC0p40BB1FwzqvNm8yWNikq6G+h0dYTWp+KUM3WCOWuGTGOn8t5BHfxRXYQROQj9VTPHrlnCS6qBu8QoLEDyGVXlJ5c88w5iwbAUbkPFL7ImFG5ehBHccGJNAqJLYgmwLzIY9QX35eULztUjzTijX6m3hkpuqAAKtG04dxOVr3yQd5BDadRW3gV5srvmd4dNmCd+msBgds8NFB+qoglgC3NLjQQeaRWetV7N3JIbz1TDtlatNNxpQ1ayHuCnmkKv0EDJHX7oRnGeaUCPs9PEJ9df4kZeBEGzFySgsJDdnPgEfooPJuAHbdwK/wBI+APCqWjyOYxpv8m0upWj2tvcqHcw2aftdHtXlMjwahJQwcUlWt12LU4EHLiop1kR/X56rXVsw6AIfuVsfn02Ry5TaVvD34Dh6ZmqSNjJv+DbLvs6UC8Eg3vDO+2Ji3kpZP8Ahu1tZ6cxa81ViHoozW2iAqZ54HaMN4pC42Cs5biW1MVduKSqYzc61YLYBHWDMGVz54lQl1yfk43x+8tefZFMAO/X4eoYPGO1GewEBD7dJ84i9mQgQ80spwwynBjZoneBTyeqrGOAEpW3deAO5NNLjyeQ+dO4xH5FVfB4BFNbNAgruqVh+kI4WkkyxwXdNcmTrTanFY92IwJDZWXfny3vNbeKRTIC43pA+RTvYjcScNeaRRwRbPk/kYj05csVVNURcsonkMwgLpbVgHkP0GrIq2ebXUtjWhfd7LZNM7R7JEiuUIeBRoDKDzVtuwop9ZasvXQHGgpbij+AYeeRobwALmrKmTPXB1M1kDHulMQosbvx/jEWx2hW8O5lLk60goBn7qQJ7gEaWtuHFcUWapW8kd2/Qn4ncNPLocgNTkH2e+VxWSYPgBHq01y9qKL0RNyA2e7+JRDKIYVQ5CIJLce57BLV49yFBscxseTWxqjAgizN2BEstZ5E1R/A08Cqt55N5QfcbDD/Boo/HCZNrcPC2+lUdcsuggp7VqRILZ+aNd3bwVgd7ENrfhEbWGhWAHLcm2/gPRpD8z61tu8dM8ugx1eUdCT35gXfv/5FFa5ZqD+ogZJO/gEQyNvYNHIP8iBwsE2YnwFVNHsbxbfJZHiZx+hfIDGDZIE/gl+ujYxHeOH+KRvCHRiiS3s9/Bo2fsbKaPlmJbmAdRtIwTKk+knP14kkfJULzzCQfL1L9Nj8cjZ8sv4dG0PY9yP+VPrGuJTh7MfSfZ2ZBHqB4wF/od9hER7aN7yA5Bbk2x4hnsPcsjR0igMFG8OBeisEqP6y/hEVzXGmTvsbXjozzSDpiGRyC7L6iwj+C+P3dV7niZ7bAeB6Ay2vKIkkHmUS8zxPAQc59qPI3P8egCA7i2D49xrn4xj4K0QfhsZ/JRHmljHBoeQQ9wRXZGArj2D7NIeBzWqE5Q1be5DY98ooaOHPolzGzYsWFQiz7HI+BWJUvRZ/MpPFprJujxSR7xkBTZNx417n2cR0jjOHaBE7zgEVhvbd0RXNZ0uIyxLxLuBJWzcurQkkfOEmlc+MxfyhOxnRRpr654ikcJcGMEksn1KTzSDWDVz008skp9hA4V817AczwCp0GJWojnFHAege901GMAEZuHluMKqmU+WNnmFjxinSBqUGOL6FAWM/DCWp2oZZ/i0RG4gOXuvHwGj3QBCRhreg+P3CWXfcW8F/AUj1Y8XcZYJ0ohoHtKHiUgxqHTv6zLIHP/rvW54d2YTiS1uSojDWBHtFlNbCFYF77I2KRDrlHrT/EIjpzsQeZz6L08WoD8bbXTLrhH4F08Apmo8qZWi6d4ZAHvtLphs2DGWsEjuBnD2kuO4NUJjzgEMBLNhmPTUpuhX1IPdrMB0VzbtWKZ24/TNAldv7e6KM4zPAIjc1+2IaI2+36sGW+4qdVE5uFxoHfx6G4ZPoa45mBwgad4BCNhREmlA5oWZOfATbx6lpq+E7CvMH8tsPn0Wq9s9zY35Y8xG0/rtLiaJXnYpl+Ns/ae4xHISlIyHlxuOtXxSHeHyZiLSM1hBw15L49gUbvZSniKR7BzBtqJRY7QScJ5BN5kmJqjHFcYAH/oADiFjdZX/t/zIZu6zhZfXYAyFyDOc61Yxn5TAl17HkElvpEKgDx/mUdAnFiT2NNzQTBbvvFXPKT2Ph45Piyrq1nAczwSsrr7CSyxEw9+8GxBmLWsZu1n4GwdTx7KBE62XNru+ZBg866Da7Osbu1PzFuY9+lsq8eAHo88pY+Ae0zkSgbFKfEIiECb1i6cuxUtBhfemPheHokRNtJ03+JzPHLh//Ehg/d8JR1nATxyoY6VTkw7O3ivlF1uNF1hUth93eVwFW3WHXIAYGQJ9IkHYZEXSRVIRVrsR+1s0SLewXw2mUcWnH46tXCFEQx7XmokJ5MuQnknj3oHQfbLetk38Wip5RHbyICuB/P7dY3jSSqFZWChk3DpegoWjHAkHDoCltBYCDsjFO+aD6je9ZFygEcAS0kxqywuthpsc5VVtU18ikcL2H++7Lri0T2ZRz0o0ftdhm5yAoZdIojI3C/y8slsZEjhyffy6CyoBGL6dX9M3cAjkF4p3MfxIqYVmCgI+v3AUO5wQeDMqjOHIiEovVqW61rWaW8IDBOOUsn6jWyH0S5jWEQVeUyMR8vYRNvqVP9xgKSLIiDYpRBUGHSiqydo7mjiEZh9/JrCUOjIMHMZXqaBKDOFR4KNYxpMzlsTGOrOTRrvLX2kv1XTnATd2oJHTiS+gsl+fpf9UZF9ex4ZJlAFzkAc3zyYxz+U2w/Io54jhruR7bEOr8W7B5EheJdc5W4vhO38rgR7XTHIlEdUjwwJOVRppAudqghVumlZp6kFRzeQVaHABh6B29bglSPCHWzEM17jNPDUC4akXdlMygRCqDyXdcdZSfeDY9EvfxXiCC14RGUvc5GUspftpSYegR2TsHU5y20HMPf8Rp0+JG6oXO4l3/RCWyptkJKhTKSympHe7rYCOqndMwtF662bM7tHo/oqkNzzjF5PB11y9R3teQSzP89Sriq8/QjIQRLAqq8wTXIcKHMa1jEt7XDBCG/Do15SeYOZ4vJs4BG04sSUrEVlwhwyLB4dJMJLk31DWgtRgzluFZHQq77/qw01753ejHLUS1WlY83ZhYe4znpiQYGADp9XlbnZwCN47A86IOS7GXi3+zxC4El+FOVKmLxWuPa7QWWilj1dlWusMH6teNRLUk3dueyX0pNNPJqBJgawPieuoATZZsDpKPlfrLjq1sp7t/sam2fl62tCfb3NvVpTkTn325ZMYy4uE8mVbYZJ3Z1ZvcJHYVZGupt4NAWbdXBO0qoYFny47MoSSuxYV0rM48y2FUSyqRzKCJuwGLbjUW+116sL5fK6Jh6Bow8GEWaKpVen+JDdzzjrpeJe1TuCC5jopt8RXA2t/D390wWPerM+rQpv08nYuSO5xge2ljT+H65172/lHdhNPDrDLDCgElc6zYHMQdIbl6FvOUGcXWGhlJLygfXXJdIXW8KNDuDFLXnUczU3YecNkCZ8E496wIMj+cHcqWojEpw7hoAyVUyMcLTVtozgffU9VhHWlPH04/xS8KgXxvnl2dQ27B/eDn2bmvSMRcG80Q3FYjv6u79zNPGoB6+ugaZE4isyMwNm/7rlv2Nqrii5KFfiSjzqnTXnB+wgn/dcN0LvZ1seUXEODN14SWN1yv+cIIdy8WuOCY9EE1MauKzvwfN8yFwvZ/c2Fcs9MgP1os9wwC7Yh41CxF6ntY6uyxx7sldBdwCYYrYm9iMz350NN7mtmCeA3ivaDFr8a8rM1t24VGJgF0Iz9fe38wxaRAS16R6RB67EJHgT3/XVnZqIClkTrUn2G0HQRLkCZBXdJwkQ6Pzez8IvjcgadMi5eUUXyL/108q53DxPvsZTNgxCP/YfiBPtW2zjflXp9pDuFY9M5g8DbOcHLO1gOSpJOreRaWNWRNHSDNauKMf+xQQHb/FVWzmEOxulfcPO/5aDnfC0baKPoZ1jP57wuwjmr7TU4/9SjMN+0eoiGXYWWzYlAbJ9KbSR9n2XnLRUBMHhNRZtfec0SJcGOyRim/10XvyY/WubRv8wTH1t9GM8OBA7Fxe2zUOqCRGtpvv8EfYE6cfTgo3OmtDRQ/3lq6Dvd3zcK/a9AEz2ByTIvk1SkoDpeo3f4unxHGrN2tX5NInm8yjancHuJgteb5PT+WJVNnE1nh2jaD6IosWpTHdvgHvJdpN5NNoPaI3X07ndv/7RUrSmG63pmIXtQnQs+Kk7rdwazm29Nt8G09M51CWJhdlpt1jsZuDfaRz6MbuEq8o+hdl1PvcjKuiZ7p3sFeFsN49u0fw6A38j48Rs9LLxS6sbvSphhbnsb3v6/jkdsne/zTqOLatB8/F/Aiq+sZr/QCgv58olWxZ6ZzHnfSUWtkEqvAotsdpdmqT2frQQl6aj7ue14ynZ/71gYejmC5Q6dKjHlXxUHXXokIfrqy5F6dChLXxsmLr7KDt0eAeYw4W0ObPVoUM1Liw3qT781qFDE9ipqc7I7vBRpMRAZlW+SIcOreDe2H1HdXded+jQCOfGMiWb400dOtQgz+HF++YHO3Soxm7J/j1U/eefDh3a4+IjohzQ7NDhHXBW5yH7J1iyfcc9Sx06SEiWedakLf9/ZocO70F+lBsHo3aJcR066OHMbXs772JqHT6I7HXW2dfP438/sI2MoLamqAAAAABJRU5ErkJggg==</t>
-  </si>
-  <si>
     <t>https://dcassetcdn.com/design_img/704268/162911/162911_4422839_704268_image.jpg</t>
   </si>
   <si>
@@ -2439,6 +2430,15 @@
   </si>
   <si>
     <t>South Africa</t>
+  </si>
+  <si>
+    <t>https://www.gloskinbody.com.au/skin/frontend/ultimo/gloskinbody/images/logo.png</t>
+  </si>
+  <si>
+    <t>https://www.hismile.com/wp-content/uploads/2017/05/hi-smile-orthodontics-orthodontist-in-honolulu-hi-min.png</t>
+  </si>
+  <si>
+    <t>https://d2hzvxamqgodh.cloudfront.net/sites/default/files/storelogo/nbn.jpg</t>
   </si>
 </sst>
 </file>
@@ -2909,8 +2909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="113" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="J60" zoomScale="113" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2964,7 +2964,7 @@
         <v>359</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
@@ -3002,7 +3002,7 @@
         <v>358</v>
       </c>
       <c r="L2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="368" x14ac:dyDescent="0.2">
@@ -3040,7 +3040,7 @@
         <v>360</v>
       </c>
       <c r="L3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -3078,7 +3078,7 @@
         <v>361</v>
       </c>
       <c r="L4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -3116,7 +3116,7 @@
         <v>362</v>
       </c>
       <c r="L5" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="144" x14ac:dyDescent="0.2">
@@ -3154,7 +3154,7 @@
         <v>363</v>
       </c>
       <c r="L6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="320" x14ac:dyDescent="0.2">
@@ -3192,7 +3192,7 @@
         <v>364</v>
       </c>
       <c r="L7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="192" x14ac:dyDescent="0.2">
@@ -3230,7 +3230,7 @@
         <v>365</v>
       </c>
       <c r="L8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="192" x14ac:dyDescent="0.2">
@@ -3268,7 +3268,7 @@
         <v>366</v>
       </c>
       <c r="L9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="288" x14ac:dyDescent="0.2">
@@ -3306,7 +3306,7 @@
         <v>367</v>
       </c>
       <c r="L10" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -3344,7 +3344,7 @@
         <v>368</v>
       </c>
       <c r="L11" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -3382,7 +3382,7 @@
         <v>369</v>
       </c>
       <c r="L12" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="384" x14ac:dyDescent="0.2">
@@ -3420,7 +3420,7 @@
         <v>370</v>
       </c>
       <c r="L13" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -3458,7 +3458,7 @@
         <v>371</v>
       </c>
       <c r="L14" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="256" x14ac:dyDescent="0.2">
@@ -3496,7 +3496,7 @@
         <v>372</v>
       </c>
       <c r="L15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="288" x14ac:dyDescent="0.2">
@@ -3532,7 +3532,7 @@
         <v>373</v>
       </c>
       <c r="L16" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -3570,7 +3570,7 @@
         <v>374</v>
       </c>
       <c r="L17" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="288" x14ac:dyDescent="0.2">
@@ -3608,7 +3608,7 @@
         <v>375</v>
       </c>
       <c r="L18" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="224" x14ac:dyDescent="0.2">
@@ -3646,7 +3646,7 @@
         <v>376</v>
       </c>
       <c r="L19" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="144" x14ac:dyDescent="0.2">
@@ -3684,7 +3684,7 @@
         <v>377</v>
       </c>
       <c r="L20" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -3722,7 +3722,7 @@
         <v>378</v>
       </c>
       <c r="L21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -3760,7 +3760,7 @@
         <v>379</v>
       </c>
       <c r="L22" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -3796,7 +3796,7 @@
         <v>380</v>
       </c>
       <c r="L23" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="256" x14ac:dyDescent="0.2">
@@ -3834,7 +3834,7 @@
         <v>381</v>
       </c>
       <c r="L24" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="208" x14ac:dyDescent="0.2">
@@ -3872,7 +3872,7 @@
         <v>382</v>
       </c>
       <c r="L25" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -3910,7 +3910,7 @@
         <v>383</v>
       </c>
       <c r="L26" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="320" x14ac:dyDescent="0.2">
@@ -3946,7 +3946,7 @@
         <v>384</v>
       </c>
       <c r="L27" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -3982,7 +3982,7 @@
         <v>385</v>
       </c>
       <c r="L28" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4018,7 +4018,7 @@
         <v>386</v>
       </c>
       <c r="L29" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4054,7 +4054,7 @@
         <v>387</v>
       </c>
       <c r="L30" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="208" x14ac:dyDescent="0.2">
@@ -4090,7 +4090,7 @@
         <v>388</v>
       </c>
       <c r="L31" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="144" x14ac:dyDescent="0.2">
@@ -4126,7 +4126,7 @@
         <v>389</v>
       </c>
       <c r="L32" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4162,7 +4162,7 @@
         <v>390</v>
       </c>
       <c r="L33" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4198,7 +4198,7 @@
         <v>391</v>
       </c>
       <c r="L34" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="224" x14ac:dyDescent="0.2">
@@ -4234,7 +4234,7 @@
         <v>392</v>
       </c>
       <c r="L35" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4270,7 +4270,7 @@
         <v>393</v>
       </c>
       <c r="L36" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -4306,7 +4306,7 @@
         <v>394</v>
       </c>
       <c r="L37" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="208" x14ac:dyDescent="0.2">
@@ -4340,7 +4340,7 @@
         <v>395</v>
       </c>
       <c r="L38" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4376,7 +4376,7 @@
         <v>396</v>
       </c>
       <c r="L39" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4410,7 +4410,7 @@
         <v>397</v>
       </c>
       <c r="L40" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4446,7 +4446,7 @@
         <v>398</v>
       </c>
       <c r="L41" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4482,7 +4482,7 @@
         <v>399</v>
       </c>
       <c r="L42" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="256" x14ac:dyDescent="0.2">
@@ -4518,7 +4518,7 @@
         <v>400</v>
       </c>
       <c r="L43" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4551,7 +4551,7 @@
         <v>401</v>
       </c>
       <c r="L44" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -4584,7 +4584,7 @@
         <v>402</v>
       </c>
       <c r="L45" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4622,7 +4622,7 @@
         <v>403</v>
       </c>
       <c r="L46" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4658,7 +4658,7 @@
         <v>404</v>
       </c>
       <c r="L47" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4694,7 +4694,7 @@
         <v>405</v>
       </c>
       <c r="L48" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4727,7 +4727,7 @@
         <v>406</v>
       </c>
       <c r="L49" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="256" x14ac:dyDescent="0.2">
@@ -4760,7 +4760,7 @@
         <v>407</v>
       </c>
       <c r="L50" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -4795,7 +4795,7 @@
         <v>408</v>
       </c>
       <c r="L51" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
@@ -4830,10 +4830,10 @@
         <v>345</v>
       </c>
       <c r="K52" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="L52" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4866,10 +4866,10 @@
         <v>346</v>
       </c>
       <c r="K53" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L53" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -4904,10 +4904,10 @@
         <v>347</v>
       </c>
       <c r="K54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L54" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="224" x14ac:dyDescent="0.2">
@@ -4942,10 +4942,10 @@
         <v>348</v>
       </c>
       <c r="K55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L55" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="224" x14ac:dyDescent="0.2">
@@ -4980,10 +4980,10 @@
         <v>349</v>
       </c>
       <c r="K56" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="L56" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="224" x14ac:dyDescent="0.2">
@@ -5018,10 +5018,10 @@
         <v>350</v>
       </c>
       <c r="K57" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L57" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -5056,10 +5056,10 @@
         <v>351</v>
       </c>
       <c r="K58" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L58" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5092,10 +5092,10 @@
         <v>352</v>
       </c>
       <c r="K59" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="L59" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -5127,10 +5127,10 @@
         <v>302</v>
       </c>
       <c r="K60" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L60" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5165,10 +5165,10 @@
         <v>353</v>
       </c>
       <c r="K61" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L61" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5201,10 +5201,10 @@
         <v>354</v>
       </c>
       <c r="K62" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L62" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5239,10 +5239,10 @@
         <v>355</v>
       </c>
       <c r="K63" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="L63" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5277,10 +5277,10 @@
         <v>356</v>
       </c>
       <c r="K64" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L64" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="240" x14ac:dyDescent="0.2">
@@ -5313,10 +5313,10 @@
         <v>357</v>
       </c>
       <c r="K65" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L65" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5348,10 +5348,10 @@
         <v>329</v>
       </c>
       <c r="K66" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L66" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -5368,8 +5368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M164"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A62" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/db/Database.xlsx
+++ b/db/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blakerowley/code/clique-connect/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33030184-98FA-2C46-A11B-7AE303751B68}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C1FEFE-7A4B-3E49-BBF5-639AFAFA8AA6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2258,9 +2258,6 @@
     <t>https://www.cliquelabs.com/wp-content/uploads/2018/03/logo-1-e1523772838215.png</t>
   </si>
   <si>
-    <t>https://www.tribegroup.co/hs-fs/hubfs/Tribe%202017/Images/logo.png?t=1523949699735&amp;width=666&amp;name=logo.png</t>
-  </si>
-  <si>
     <t>http://vamp.wpengine.com/wp-content/uploads/2015/12/logo.vamp_.svg</t>
   </si>
   <si>
@@ -2276,9 +2273,6 @@
     <t>http://media.globaldatinginsights.com/wp-content/uploads/2016/01/18223915/bee.png</t>
   </si>
   <si>
-    <t>https://designerex.com.au/assets/logo2-1ffc7ca7a093c4d36451efbffe32a8f6f72f8cea45bde6e78bc550aa3c768370.png</t>
-  </si>
-  <si>
     <t>https://s3.producthunt.com/static/ph-logo-1.png</t>
   </si>
   <si>
@@ -2439,6 +2433,12 @@
   </si>
   <si>
     <t>https://d2hzvxamqgodh.cloudfront.net/sites/default/files/storelogo/nbn.jpg</t>
+  </si>
+  <si>
+    <t>http://tylerbdesigns.com/images/portfolio/tribe/tribe-logo.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/6rZ9tMI9rlY/maxresdefault.jpg</t>
   </si>
 </sst>
 </file>
@@ -2909,8 +2909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J60" zoomScale="113" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" topLeftCell="K16" zoomScale="113" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2964,7 +2964,7 @@
         <v>359</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
@@ -3002,7 +3002,7 @@
         <v>358</v>
       </c>
       <c r="L2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="368" x14ac:dyDescent="0.2">
@@ -3040,7 +3040,7 @@
         <v>360</v>
       </c>
       <c r="L3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -3078,7 +3078,7 @@
         <v>361</v>
       </c>
       <c r="L4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -3116,7 +3116,7 @@
         <v>362</v>
       </c>
       <c r="L5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="144" x14ac:dyDescent="0.2">
@@ -3154,7 +3154,7 @@
         <v>363</v>
       </c>
       <c r="L6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="320" x14ac:dyDescent="0.2">
@@ -3192,7 +3192,7 @@
         <v>364</v>
       </c>
       <c r="L7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="192" x14ac:dyDescent="0.2">
@@ -3230,7 +3230,7 @@
         <v>365</v>
       </c>
       <c r="L8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="192" x14ac:dyDescent="0.2">
@@ -3268,7 +3268,7 @@
         <v>366</v>
       </c>
       <c r="L9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="288" x14ac:dyDescent="0.2">
@@ -3306,7 +3306,7 @@
         <v>367</v>
       </c>
       <c r="L10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -3341,10 +3341,10 @@
         <v>76</v>
       </c>
       <c r="K11" t="s">
-        <v>368</v>
+        <v>427</v>
       </c>
       <c r="L11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -3379,10 +3379,10 @@
         <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="384" x14ac:dyDescent="0.2">
@@ -3417,10 +3417,10 @@
         <v>87</v>
       </c>
       <c r="K13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -3455,10 +3455,10 @@
         <v>94</v>
       </c>
       <c r="K14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="256" x14ac:dyDescent="0.2">
@@ -3493,10 +3493,10 @@
         <v>99</v>
       </c>
       <c r="K15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L15" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="288" x14ac:dyDescent="0.2">
@@ -3529,10 +3529,10 @@
         <v>102</v>
       </c>
       <c r="K16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -3567,10 +3567,10 @@
         <v>107</v>
       </c>
       <c r="K17" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="L17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="288" x14ac:dyDescent="0.2">
@@ -3605,10 +3605,10 @@
         <v>111</v>
       </c>
       <c r="K18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="224" x14ac:dyDescent="0.2">
@@ -3643,10 +3643,10 @@
         <v>117</v>
       </c>
       <c r="K19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L19" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="144" x14ac:dyDescent="0.2">
@@ -3681,10 +3681,10 @@
         <v>123</v>
       </c>
       <c r="K20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -3719,10 +3719,10 @@
         <v>127</v>
       </c>
       <c r="K21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L21" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -3757,10 +3757,10 @@
         <v>134</v>
       </c>
       <c r="K22" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -3793,10 +3793,10 @@
         <v>139</v>
       </c>
       <c r="K23" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L23" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="256" x14ac:dyDescent="0.2">
@@ -3831,10 +3831,10 @@
         <v>145</v>
       </c>
       <c r="K24" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="208" x14ac:dyDescent="0.2">
@@ -3869,10 +3869,10 @@
         <v>151</v>
       </c>
       <c r="K25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L25" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -3907,10 +3907,10 @@
         <v>156</v>
       </c>
       <c r="K26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="L26" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="320" x14ac:dyDescent="0.2">
@@ -3943,10 +3943,10 @@
         <v>161</v>
       </c>
       <c r="K27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L27" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -3979,10 +3979,10 @@
         <v>166</v>
       </c>
       <c r="K28" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L28" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4015,10 +4015,10 @@
         <v>172</v>
       </c>
       <c r="K29" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L29" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4051,10 +4051,10 @@
         <v>178</v>
       </c>
       <c r="K30" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L30" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="208" x14ac:dyDescent="0.2">
@@ -4087,10 +4087,10 @@
         <v>184</v>
       </c>
       <c r="K31" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L31" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="144" x14ac:dyDescent="0.2">
@@ -4123,10 +4123,10 @@
         <v>189</v>
       </c>
       <c r="K32" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L32" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4159,10 +4159,10 @@
         <v>193</v>
       </c>
       <c r="K33" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L33" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4195,10 +4195,10 @@
         <v>199</v>
       </c>
       <c r="K34" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="L34" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="224" x14ac:dyDescent="0.2">
@@ -4231,10 +4231,10 @@
         <v>205</v>
       </c>
       <c r="K35" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L35" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4267,10 +4267,10 @@
         <v>209</v>
       </c>
       <c r="K36" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L36" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -4303,10 +4303,10 @@
         <v>212</v>
       </c>
       <c r="K37" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L37" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="208" x14ac:dyDescent="0.2">
@@ -4337,10 +4337,10 @@
         <v>217</v>
       </c>
       <c r="K38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L38" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4373,10 +4373,10 @@
         <v>338</v>
       </c>
       <c r="K39" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L39" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4407,10 +4407,10 @@
         <v>339</v>
       </c>
       <c r="K40" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L40" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4443,10 +4443,10 @@
         <v>340</v>
       </c>
       <c r="K41" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L41" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4479,10 +4479,10 @@
         <v>341</v>
       </c>
       <c r="K42" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L42" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="256" x14ac:dyDescent="0.2">
@@ -4515,10 +4515,10 @@
         <v>342</v>
       </c>
       <c r="K43" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L43" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4548,10 +4548,10 @@
         <v>239</v>
       </c>
       <c r="K44" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -4581,10 +4581,10 @@
         <v>241</v>
       </c>
       <c r="K45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L45" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4619,10 +4619,10 @@
         <v>335</v>
       </c>
       <c r="K46" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L46" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4655,10 +4655,10 @@
         <v>343</v>
       </c>
       <c r="K47" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L47" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4691,10 +4691,10 @@
         <v>344</v>
       </c>
       <c r="K48" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L48" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4724,10 +4724,10 @@
         <v>255</v>
       </c>
       <c r="K49" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L49" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="256" x14ac:dyDescent="0.2">
@@ -4757,10 +4757,10 @@
         <v>258</v>
       </c>
       <c r="K50" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L50" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -4792,10 +4792,10 @@
         <v>264</v>
       </c>
       <c r="K51" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
@@ -4830,10 +4830,10 @@
         <v>345</v>
       </c>
       <c r="K52" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="L52" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4866,10 +4866,10 @@
         <v>346</v>
       </c>
       <c r="K53" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L53" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -4904,10 +4904,10 @@
         <v>347</v>
       </c>
       <c r="K54" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L54" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="224" x14ac:dyDescent="0.2">
@@ -4942,10 +4942,10 @@
         <v>348</v>
       </c>
       <c r="K55" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L55" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="224" x14ac:dyDescent="0.2">
@@ -4980,10 +4980,10 @@
         <v>349</v>
       </c>
       <c r="K56" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="L56" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="224" x14ac:dyDescent="0.2">
@@ -5018,10 +5018,10 @@
         <v>350</v>
       </c>
       <c r="K57" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -5056,10 +5056,10 @@
         <v>351</v>
       </c>
       <c r="K58" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="L58" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5092,10 +5092,10 @@
         <v>352</v>
       </c>
       <c r="K59" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L59" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -5127,10 +5127,10 @@
         <v>302</v>
       </c>
       <c r="K60" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L60" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5165,10 +5165,10 @@
         <v>353</v>
       </c>
       <c r="K61" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L61" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5201,10 +5201,10 @@
         <v>354</v>
       </c>
       <c r="K62" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L62" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5239,10 +5239,10 @@
         <v>355</v>
       </c>
       <c r="K63" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L63" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5277,10 +5277,10 @@
         <v>356</v>
       </c>
       <c r="K64" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L64" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="240" x14ac:dyDescent="0.2">
@@ -5313,10 +5313,10 @@
         <v>357</v>
       </c>
       <c r="K65" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="L65" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5348,10 +5348,10 @@
         <v>329</v>
       </c>
       <c r="K66" t="s">
+        <v>418</v>
+      </c>
+      <c r="L66" t="s">
         <v>420</v>
-      </c>
-      <c r="L66" t="s">
-        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/db/Database.xlsx
+++ b/db/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blakerowley/code/clique-connect/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C1FEFE-7A4B-3E49-BBF5-639AFAFA8AA6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398D2F8B-1F25-A246-A682-CB188EDBB5C8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2255,9 +2255,6 @@
     <t>https://www.glamcorner.com.au/skin/frontend/glamcorner/default/images/logo.svg</t>
   </si>
   <si>
-    <t>https://www.cliquelabs.com/wp-content/uploads/2018/03/logo-1-e1523772838215.png</t>
-  </si>
-  <si>
     <t>http://vamp.wpengine.com/wp-content/uploads/2015/12/logo.vamp_.svg</t>
   </si>
   <si>
@@ -2312,9 +2309,6 @@
     <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/28/Coles_logo.svg/2000px-Coles_logo.svg.png</t>
   </si>
   <si>
-    <t>https://www.splend.com.au/wp-content/uploads/2016/02/splend-logo.png</t>
-  </si>
-  <si>
     <t>https://lh3.googleusercontent.com/3wmu9sd4MzAcaCNq0aNjAYquYANAEUB-0GUZlR5zNuDxBzhISzbCgUreiaahb6Hxdg=w300</t>
   </si>
   <si>
@@ -2439,6 +2433,12 @@
   </si>
   <si>
     <t>https://i.ytimg.com/vi/6rZ9tMI9rlY/maxresdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/908696927910420481/r0BLzww6_400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://www.shopirvinecompany.com/media/4273/store-logo-splendid.png</t>
   </si>
 </sst>
 </file>
@@ -2909,8 +2909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K16" zoomScale="113" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="K30" zoomScale="113" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2964,7 +2964,7 @@
         <v>359</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
@@ -3002,7 +3002,7 @@
         <v>358</v>
       </c>
       <c r="L2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="368" x14ac:dyDescent="0.2">
@@ -3040,7 +3040,7 @@
         <v>360</v>
       </c>
       <c r="L3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -3078,7 +3078,7 @@
         <v>361</v>
       </c>
       <c r="L4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -3116,7 +3116,7 @@
         <v>362</v>
       </c>
       <c r="L5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="144" x14ac:dyDescent="0.2">
@@ -3154,7 +3154,7 @@
         <v>363</v>
       </c>
       <c r="L6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="320" x14ac:dyDescent="0.2">
@@ -3192,7 +3192,7 @@
         <v>364</v>
       </c>
       <c r="L7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="192" x14ac:dyDescent="0.2">
@@ -3230,7 +3230,7 @@
         <v>365</v>
       </c>
       <c r="L8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="192" x14ac:dyDescent="0.2">
@@ -3268,7 +3268,7 @@
         <v>366</v>
       </c>
       <c r="L9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="288" x14ac:dyDescent="0.2">
@@ -3303,10 +3303,10 @@
         <v>71</v>
       </c>
       <c r="K10" t="s">
-        <v>367</v>
+        <v>427</v>
       </c>
       <c r="L10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -3341,10 +3341,10 @@
         <v>76</v>
       </c>
       <c r="K11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="L11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -3379,10 +3379,10 @@
         <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="384" x14ac:dyDescent="0.2">
@@ -3417,10 +3417,10 @@
         <v>87</v>
       </c>
       <c r="K13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -3455,10 +3455,10 @@
         <v>94</v>
       </c>
       <c r="K14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="256" x14ac:dyDescent="0.2">
@@ -3493,10 +3493,10 @@
         <v>99</v>
       </c>
       <c r="K15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L15" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="288" x14ac:dyDescent="0.2">
@@ -3529,10 +3529,10 @@
         <v>102</v>
       </c>
       <c r="K16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -3567,10 +3567,10 @@
         <v>107</v>
       </c>
       <c r="K17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L17" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="288" x14ac:dyDescent="0.2">
@@ -3605,10 +3605,10 @@
         <v>111</v>
       </c>
       <c r="K18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="224" x14ac:dyDescent="0.2">
@@ -3643,10 +3643,10 @@
         <v>117</v>
       </c>
       <c r="K19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="144" x14ac:dyDescent="0.2">
@@ -3681,10 +3681,10 @@
         <v>123</v>
       </c>
       <c r="K20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -3719,10 +3719,10 @@
         <v>127</v>
       </c>
       <c r="K21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -3757,10 +3757,10 @@
         <v>134</v>
       </c>
       <c r="K22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L22" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -3793,10 +3793,10 @@
         <v>139</v>
       </c>
       <c r="K23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L23" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="256" x14ac:dyDescent="0.2">
@@ -3831,10 +3831,10 @@
         <v>145</v>
       </c>
       <c r="K24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L24" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="208" x14ac:dyDescent="0.2">
@@ -3869,10 +3869,10 @@
         <v>151</v>
       </c>
       <c r="K25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L25" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -3907,10 +3907,10 @@
         <v>156</v>
       </c>
       <c r="K26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L26" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="320" x14ac:dyDescent="0.2">
@@ -3943,10 +3943,10 @@
         <v>161</v>
       </c>
       <c r="K27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L27" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -3979,10 +3979,10 @@
         <v>166</v>
       </c>
       <c r="K28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L28" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4015,10 +4015,10 @@
         <v>172</v>
       </c>
       <c r="K29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L29" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4051,10 +4051,10 @@
         <v>178</v>
       </c>
       <c r="K30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L30" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="208" x14ac:dyDescent="0.2">
@@ -4087,10 +4087,10 @@
         <v>184</v>
       </c>
       <c r="K31" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="L31" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="144" x14ac:dyDescent="0.2">
@@ -4123,10 +4123,10 @@
         <v>189</v>
       </c>
       <c r="K32" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L32" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4159,10 +4159,10 @@
         <v>193</v>
       </c>
       <c r="K33" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4195,10 +4195,10 @@
         <v>199</v>
       </c>
       <c r="K34" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L34" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="224" x14ac:dyDescent="0.2">
@@ -4231,10 +4231,10 @@
         <v>205</v>
       </c>
       <c r="K35" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L35" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4267,10 +4267,10 @@
         <v>209</v>
       </c>
       <c r="K36" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="L36" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -4303,10 +4303,10 @@
         <v>212</v>
       </c>
       <c r="K37" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L37" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="208" x14ac:dyDescent="0.2">
@@ -4337,10 +4337,10 @@
         <v>217</v>
       </c>
       <c r="K38" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L38" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4373,10 +4373,10 @@
         <v>338</v>
       </c>
       <c r="K39" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L39" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4407,10 +4407,10 @@
         <v>339</v>
       </c>
       <c r="K40" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L40" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4443,10 +4443,10 @@
         <v>340</v>
       </c>
       <c r="K41" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L41" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4479,10 +4479,10 @@
         <v>341</v>
       </c>
       <c r="K42" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L42" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="256" x14ac:dyDescent="0.2">
@@ -4515,10 +4515,10 @@
         <v>342</v>
       </c>
       <c r="K43" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L43" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4548,10 +4548,10 @@
         <v>239</v>
       </c>
       <c r="K44" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L44" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -4581,10 +4581,10 @@
         <v>241</v>
       </c>
       <c r="K45" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L45" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4619,10 +4619,10 @@
         <v>335</v>
       </c>
       <c r="K46" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L46" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4655,10 +4655,10 @@
         <v>343</v>
       </c>
       <c r="K47" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L47" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4691,10 +4691,10 @@
         <v>344</v>
       </c>
       <c r="K48" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L48" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4724,10 +4724,10 @@
         <v>255</v>
       </c>
       <c r="K49" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L49" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="256" x14ac:dyDescent="0.2">
@@ -4757,10 +4757,10 @@
         <v>258</v>
       </c>
       <c r="K50" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L50" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -4792,10 +4792,10 @@
         <v>264</v>
       </c>
       <c r="K51" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L51" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
@@ -4830,10 +4830,10 @@
         <v>345</v>
       </c>
       <c r="K52" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L52" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4866,10 +4866,10 @@
         <v>346</v>
       </c>
       <c r="K53" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L53" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -4904,10 +4904,10 @@
         <v>347</v>
       </c>
       <c r="K54" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L54" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="224" x14ac:dyDescent="0.2">
@@ -4942,10 +4942,10 @@
         <v>348</v>
       </c>
       <c r="K55" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L55" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="224" x14ac:dyDescent="0.2">
@@ -4980,10 +4980,10 @@
         <v>349</v>
       </c>
       <c r="K56" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L56" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="224" x14ac:dyDescent="0.2">
@@ -5018,10 +5018,10 @@
         <v>350</v>
       </c>
       <c r="K57" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L57" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -5056,10 +5056,10 @@
         <v>351</v>
       </c>
       <c r="K58" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L58" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5092,10 +5092,10 @@
         <v>352</v>
       </c>
       <c r="K59" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="L59" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -5127,10 +5127,10 @@
         <v>302</v>
       </c>
       <c r="K60" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L60" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5165,10 +5165,10 @@
         <v>353</v>
       </c>
       <c r="K61" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="L61" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5201,10 +5201,10 @@
         <v>354</v>
       </c>
       <c r="K62" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L62" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5239,10 +5239,10 @@
         <v>355</v>
       </c>
       <c r="K63" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L63" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5277,10 +5277,10 @@
         <v>356</v>
       </c>
       <c r="K64" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L64" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="240" x14ac:dyDescent="0.2">
@@ -5313,10 +5313,10 @@
         <v>357</v>
       </c>
       <c r="K65" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L65" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5348,10 +5348,10 @@
         <v>329</v>
       </c>
       <c r="K66" t="s">
+        <v>416</v>
+      </c>
+      <c r="L66" t="s">
         <v>418</v>
-      </c>
-      <c r="L66" t="s">
-        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/db/Database.xlsx
+++ b/db/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blakerowley/code/clique-connect/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398D2F8B-1F25-A246-A682-CB188EDBB5C8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE7AC7B-5470-FA48-B20B-C9713F12DAE8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2273,9 +2273,6 @@
     <t>https://s3.producthunt.com/static/ph-logo-1.png</t>
   </si>
   <si>
-    <t>https://www.taskrabbit.com/assets/img/logo_horizontal.svg</t>
-  </si>
-  <si>
     <t>https://dcassetcdn.com/assets/images/new-world/logos/designcrowd-logo-7ed4b832df.svg</t>
   </si>
   <si>
@@ -2439,6 +2436,9 @@
   </si>
   <si>
     <t>https://www.shopirvinecompany.com/media/4273/store-logo-splendid.png</t>
+  </si>
+  <si>
+    <t>https://www.taskrabbit.com/v3/assets/web/logos/logo-h-3f5a5ffaf590a5dcff9ae06f47e7e67f.svg</t>
   </si>
 </sst>
 </file>
@@ -2909,8 +2909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K30" zoomScale="113" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="K18" zoomScale="113" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2964,7 +2964,7 @@
         <v>359</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
@@ -3002,7 +3002,7 @@
         <v>358</v>
       </c>
       <c r="L2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="368" x14ac:dyDescent="0.2">
@@ -3040,7 +3040,7 @@
         <v>360</v>
       </c>
       <c r="L3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -3078,7 +3078,7 @@
         <v>361</v>
       </c>
       <c r="L4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -3116,7 +3116,7 @@
         <v>362</v>
       </c>
       <c r="L5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="144" x14ac:dyDescent="0.2">
@@ -3154,7 +3154,7 @@
         <v>363</v>
       </c>
       <c r="L6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="320" x14ac:dyDescent="0.2">
@@ -3192,7 +3192,7 @@
         <v>364</v>
       </c>
       <c r="L7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="192" x14ac:dyDescent="0.2">
@@ -3230,7 +3230,7 @@
         <v>365</v>
       </c>
       <c r="L8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="192" x14ac:dyDescent="0.2">
@@ -3268,7 +3268,7 @@
         <v>366</v>
       </c>
       <c r="L9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="288" x14ac:dyDescent="0.2">
@@ -3303,10 +3303,10 @@
         <v>71</v>
       </c>
       <c r="K10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -3341,10 +3341,10 @@
         <v>76</v>
       </c>
       <c r="K11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -3382,7 +3382,7 @@
         <v>367</v>
       </c>
       <c r="L12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="384" x14ac:dyDescent="0.2">
@@ -3420,7 +3420,7 @@
         <v>368</v>
       </c>
       <c r="L13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -3458,7 +3458,7 @@
         <v>369</v>
       </c>
       <c r="L14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="256" x14ac:dyDescent="0.2">
@@ -3496,7 +3496,7 @@
         <v>370</v>
       </c>
       <c r="L15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="288" x14ac:dyDescent="0.2">
@@ -3532,7 +3532,7 @@
         <v>371</v>
       </c>
       <c r="L16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -3567,10 +3567,10 @@
         <v>107</v>
       </c>
       <c r="K17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="288" x14ac:dyDescent="0.2">
@@ -3608,7 +3608,7 @@
         <v>372</v>
       </c>
       <c r="L18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="224" x14ac:dyDescent="0.2">
@@ -3643,10 +3643,10 @@
         <v>117</v>
       </c>
       <c r="K19" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="L19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="144" x14ac:dyDescent="0.2">
@@ -3681,10 +3681,10 @@
         <v>123</v>
       </c>
       <c r="K20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -3719,10 +3719,10 @@
         <v>127</v>
       </c>
       <c r="K21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -3757,10 +3757,10 @@
         <v>134</v>
       </c>
       <c r="K22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -3793,10 +3793,10 @@
         <v>139</v>
       </c>
       <c r="K23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="256" x14ac:dyDescent="0.2">
@@ -3831,10 +3831,10 @@
         <v>145</v>
       </c>
       <c r="K24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="208" x14ac:dyDescent="0.2">
@@ -3869,10 +3869,10 @@
         <v>151</v>
       </c>
       <c r="K25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -3907,10 +3907,10 @@
         <v>156</v>
       </c>
       <c r="K26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="320" x14ac:dyDescent="0.2">
@@ -3943,10 +3943,10 @@
         <v>161</v>
       </c>
       <c r="K27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -3979,10 +3979,10 @@
         <v>166</v>
       </c>
       <c r="K28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4015,10 +4015,10 @@
         <v>172</v>
       </c>
       <c r="K29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4051,10 +4051,10 @@
         <v>178</v>
       </c>
       <c r="K30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="208" x14ac:dyDescent="0.2">
@@ -4087,10 +4087,10 @@
         <v>184</v>
       </c>
       <c r="K31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="144" x14ac:dyDescent="0.2">
@@ -4123,10 +4123,10 @@
         <v>189</v>
       </c>
       <c r="K32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4159,10 +4159,10 @@
         <v>193</v>
       </c>
       <c r="K33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4195,10 +4195,10 @@
         <v>199</v>
       </c>
       <c r="K34" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="224" x14ac:dyDescent="0.2">
@@ -4231,10 +4231,10 @@
         <v>205</v>
       </c>
       <c r="K35" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4267,10 +4267,10 @@
         <v>209</v>
       </c>
       <c r="K36" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -4303,10 +4303,10 @@
         <v>212</v>
       </c>
       <c r="K37" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L37" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="208" x14ac:dyDescent="0.2">
@@ -4337,10 +4337,10 @@
         <v>217</v>
       </c>
       <c r="K38" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4373,10 +4373,10 @@
         <v>338</v>
       </c>
       <c r="K39" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L39" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4407,10 +4407,10 @@
         <v>339</v>
       </c>
       <c r="K40" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L40" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4443,10 +4443,10 @@
         <v>340</v>
       </c>
       <c r="K41" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L41" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4479,10 +4479,10 @@
         <v>341</v>
       </c>
       <c r="K42" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L42" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="256" x14ac:dyDescent="0.2">
@@ -4515,10 +4515,10 @@
         <v>342</v>
       </c>
       <c r="K43" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4548,10 +4548,10 @@
         <v>239</v>
       </c>
       <c r="K44" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L44" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -4581,10 +4581,10 @@
         <v>241</v>
       </c>
       <c r="K45" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L45" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4619,10 +4619,10 @@
         <v>335</v>
       </c>
       <c r="K46" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L46" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4655,10 +4655,10 @@
         <v>343</v>
       </c>
       <c r="K47" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L47" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4691,10 +4691,10 @@
         <v>344</v>
       </c>
       <c r="K48" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L48" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4724,10 +4724,10 @@
         <v>255</v>
       </c>
       <c r="K49" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L49" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="256" x14ac:dyDescent="0.2">
@@ -4757,10 +4757,10 @@
         <v>258</v>
       </c>
       <c r="K50" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L50" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -4792,10 +4792,10 @@
         <v>264</v>
       </c>
       <c r="K51" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L51" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
@@ -4830,10 +4830,10 @@
         <v>345</v>
       </c>
       <c r="K52" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L52" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -4866,10 +4866,10 @@
         <v>346</v>
       </c>
       <c r="K53" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L53" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -4904,10 +4904,10 @@
         <v>347</v>
       </c>
       <c r="K54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="224" x14ac:dyDescent="0.2">
@@ -4942,10 +4942,10 @@
         <v>348</v>
       </c>
       <c r="K55" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L55" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="224" x14ac:dyDescent="0.2">
@@ -4980,10 +4980,10 @@
         <v>349</v>
       </c>
       <c r="K56" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L56" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="224" x14ac:dyDescent="0.2">
@@ -5018,10 +5018,10 @@
         <v>350</v>
       </c>
       <c r="K57" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L57" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -5056,10 +5056,10 @@
         <v>351</v>
       </c>
       <c r="K58" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L58" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5092,10 +5092,10 @@
         <v>352</v>
       </c>
       <c r="K59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L59" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -5127,10 +5127,10 @@
         <v>302</v>
       </c>
       <c r="K60" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L60" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5165,10 +5165,10 @@
         <v>353</v>
       </c>
       <c r="K61" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L61" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5201,10 +5201,10 @@
         <v>354</v>
       </c>
       <c r="K62" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L62" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5239,10 +5239,10 @@
         <v>355</v>
       </c>
       <c r="K63" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L63" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5277,10 +5277,10 @@
         <v>356</v>
       </c>
       <c r="K64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L64" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="240" x14ac:dyDescent="0.2">
@@ -5313,10 +5313,10 @@
         <v>357</v>
       </c>
       <c r="K65" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L65" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5348,10 +5348,10 @@
         <v>329</v>
       </c>
       <c r="K66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L66" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>

--- a/db/Database.xlsx
+++ b/db/Database.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="435">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -99,7 +99,7 @@
 Event Cinema
 Gather Online
 Clique Labs
-</t>
+Ford</t>
   </si>
   <si>
     <t xml:space="preserve">Hoyts Group
@@ -107,33 +107,45 @@
 Deliveroo</t>
   </si>
   <si>
-    <t xml:space="preserve">Sport
-Health
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Image
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Fun
+Explore
+Brands
+Sport
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Health
 Running
 Fashion
-Cosmetics
-Beauty
 Nightlife
-Zoho
-London
-Dogs
-Netflix
-Amazon
-Hipster
-Beach
-Dating
-Clubbing
-Dogs
-Marathons
-Friends
-Summer
 Holidays
-Sport
-Fashion
-Vouge
-Prada
-Westfield
 </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">https://tinder.com/</t>
@@ -2421,6 +2433,88 @@
     <t xml:space="preserve">https://s3.amazonaws.com/au-tm/1814983.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Ford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicles
+Manufacturing
+Transport
+Sales</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Clique Labs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Mad Paws
+Hoyts Group
+Event Cinema
+Gather Online</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Image
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Fun
+Explore
+Brands
+Sport
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Health
+Running
+Fashion
+Nightlife
+Holidays
+Cars
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ford.com.au/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/commons/thumb/d/d8/Ford_logo.svg/2000px-Ford_logo.svg.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">clicker</t>
   </si>
   <si>
@@ -2445,7 +2539,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="MMM\-YY"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2467,6 +2561,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -2518,11 +2618,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2555,20 +2655,28 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2661,10 +2769,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H51" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K52" activeCellId="0" sqref="K52"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="8:8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -2720,7 +2828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="409.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="172.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -2733,7 +2841,7 @@
       <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -5104,6 +5212,44 @@
         <v>423</v>
       </c>
       <c r="L66" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="186.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="L67" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5130,7 +5276,7 @@
   <dimension ref="A1:M164"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="8:8 B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -5142,13 +5288,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5381,20 +5527,20 @@
       <c r="C22" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -5416,7 +5562,7 @@
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="14" t="s">
         <v>119</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -5427,7 +5573,7 @@
       <c r="A26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -5438,7 +5584,7 @@
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="14" t="s">
         <v>238</v>
       </c>
       <c r="C27" s="0" t="n">
@@ -5460,7 +5606,7 @@
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="14" t="s">
         <v>250</v>
       </c>
       <c r="C29" s="0" t="n">
@@ -5471,7 +5617,7 @@
       <c r="A30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="14" t="s">
         <v>199</v>
       </c>
       <c r="C30" s="0" t="n">
@@ -5482,7 +5628,7 @@
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="14" t="s">
         <v>174</v>
       </c>
       <c r="C31" s="0" t="n">
@@ -5493,7 +5639,7 @@
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="0" t="n">
@@ -5766,27 +5912,27 @@
       <c r="A56" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="12"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="14"/>
     </row>
     <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="15" t="s">
         <v>412</v>
       </c>
       <c r="C57" s="0" t="n">
@@ -5797,7 +5943,7 @@
       <c r="A58" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="14" t="s">
         <v>324</v>
       </c>
       <c r="C58" s="0" t="n">
@@ -5808,7 +5954,7 @@
       <c r="A59" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="0" t="n">
@@ -5819,7 +5965,7 @@
       <c r="A60" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="14" t="s">
         <v>357</v>
       </c>
       <c r="C60" s="0" t="n">
@@ -5830,7 +5976,7 @@
       <c r="A61" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C61" s="0" t="n">
@@ -5852,7 +5998,7 @@
       <c r="A63" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="15" t="s">
         <v>359</v>
       </c>
       <c r="C63" s="0" t="n">
@@ -5863,7 +6009,7 @@
       <c r="A64" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="14" t="s">
         <v>206</v>
       </c>
       <c r="C64" s="0" t="n">
@@ -6639,7 +6785,7 @@
       <c r="A133" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B133" s="13" t="s">
+      <c r="B133" s="15" t="s">
         <v>357</v>
       </c>
       <c r="C133" s="0" t="n">
@@ -6650,7 +6796,7 @@
       <c r="A134" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B134" s="13" t="s">
+      <c r="B134" s="15" t="s">
         <v>375</v>
       </c>
       <c r="C134" s="0" t="n">
@@ -6672,7 +6818,7 @@
       <c r="A136" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B136" s="13" t="s">
+      <c r="B136" s="15" t="s">
         <v>399</v>
       </c>
       <c r="C136" s="0" t="n">
@@ -6705,7 +6851,7 @@
       <c r="A139" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="B139" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C139" s="0" t="n">
@@ -6716,7 +6862,7 @@
       <c r="A140" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="B140" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C140" s="0" t="n">
@@ -6727,7 +6873,7 @@
       <c r="A141" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B141" s="12" t="s">
+      <c r="B141" s="14" t="s">
         <v>119</v>
       </c>
       <c r="C141" s="0" t="n">
@@ -6738,7 +6884,7 @@
       <c r="A142" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B142" s="12" t="s">
+      <c r="B142" s="14" t="s">
         <v>295</v>
       </c>
       <c r="C142" s="0" t="n">
@@ -6881,7 +7027,7 @@
       <c r="A155" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B155" s="13" t="s">
+      <c r="B155" s="15" t="s">
         <v>278</v>
       </c>
       <c r="C155" s="0" t="n">
@@ -6892,7 +7038,7 @@
       <c r="A156" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B156" s="13" t="s">
+      <c r="B156" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C156" s="0" t="n">
@@ -6903,7 +7049,7 @@
       <c r="A157" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="B157" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C157" s="0" t="n">
@@ -6914,7 +7060,7 @@
       <c r="A158" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B158" s="12" t="s">
+      <c r="B158" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C158" s="0" t="n">
@@ -6925,7 +7071,7 @@
       <c r="A159" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B159" s="12" t="s">
+      <c r="B159" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C159" s="0" t="n">
@@ -6936,7 +7082,7 @@
       <c r="A160" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B160" s="12" t="s">
+      <c r="B160" s="14" t="s">
         <v>134</v>
       </c>
       <c r="C160" s="0" t="n">
@@ -6958,7 +7104,7 @@
       <c r="A162" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B162" s="13" t="s">
+      <c r="B162" s="15" t="s">
         <v>312</v>
       </c>
       <c r="C162" s="0" t="n">
@@ -6969,7 +7115,7 @@
       <c r="A163" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B163" s="13" t="s">
+      <c r="B163" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C163" s="0" t="n">
@@ -6980,7 +7126,7 @@
       <c r="A164" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B164" s="12" t="s">
+      <c r="B164" s="14" t="s">
         <v>213</v>
       </c>
       <c r="C164" s="0" t="n">
@@ -7006,58 +7152,58 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="8:8 A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="12.937037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="15.9740740740741"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="12.937037037037"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="13.8185185185185"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="14" width="11.8555555555556"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="12.937037037037"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="14.3074074074074"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="14" width="3.33333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="14" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="12.937037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="15.9740740740741"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="16" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="16" width="12.937037037037"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="16" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="16" width="11.8555555555556"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="16" width="12.937037037037"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="16" width="14.3074074074074"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="16" width="3.33333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="16" width="12.2481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="B1" s="12" t="n">
+      <c r="A1" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="n">
+      <c r="C1" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="n">
+      <c r="D1" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="n">
+      <c r="E1" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="n">
+      <c r="F1" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="n">
+      <c r="G1" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="n">
+      <c r="H1" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="n">
+      <c r="I1" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="n">
+      <c r="J1" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="n">
+      <c r="K1" s="14" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7065,188 +7211,188 @@
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="14" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="14" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>295</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="14" t="s">
         <v>238</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="14" t="s">
         <v>105</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -7258,16 +7404,16 @@
       <c r="G7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="14" t="s">
         <v>51</v>
       </c>
     </row>
@@ -7278,10 +7424,10 @@
       <c r="B8" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="14" t="s">
         <v>231</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -7293,16 +7439,16 @@
       <c r="G8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="15" t="s">
         <v>299</v>
       </c>
     </row>
@@ -7310,34 +7456,34 @@
       <c r="A9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="14" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="14" t="s">
         <v>174</v>
       </c>
     </row>
@@ -7345,34 +7491,34 @@
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>428</v>
+      <c r="G10" s="14" t="s">
+        <v>434</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="14" t="s">
         <v>213</v>
       </c>
     </row>
@@ -7380,16 +7526,16 @@
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="15" t="s">
         <v>375</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="15" t="s">
         <v>399</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -7398,16 +7544,16 @@
       <c r="G11" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="14" t="s">
         <v>295</v>
       </c>
     </row>

--- a/db/Database.xlsx
+++ b/db/Database.xlsx
@@ -115,7 +115,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Image
+      <t xml:space="preserve">Health
+Running
+Fashion
+Nightlife
+Holidays
 </t>
     </r>
     <r>
@@ -125,26 +129,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Fun
+      <t xml:space="preserve">Image
+Fun
 Explore
 Brands
-Sport
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Health
-Running
-Fashion
-Nightlife
-Holidays
-</t>
+Sport</t>
     </r>
   </si>
   <si>
@@ -436,7 +425,7 @@
     <t xml:space="preserve">https://www.gatheronline.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">https://assets.gatheronline.com/web/images/icons/logo.svg</t>
+    <t xml:space="preserve">https://www.thehappierhomemaker.com/wp-content/uploads/2017/09/gather-printable.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Fashion
@@ -493,7 +482,7 @@
     <t xml:space="preserve">https://www.glamcorner.com.au/</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.glamcorner.com.au/skin/frontend/glamcorner/default/images/logo.svg</t>
+    <t xml:space="preserve">http://www.dealsland.com.au/wp-content/uploads/2015/06/glamcorner_coupon_code.png</t>
   </si>
   <si>
     <t xml:space="preserve">England</t>
@@ -582,7 +571,7 @@
     <t xml:space="preserve">https://www.tribegroup.co/</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.tribegroup.co/hs-fs/hubfs/Tribe%202017/Images/logo.png?t=1523949699735&amp;width=666&amp;name=logo.png</t>
+    <t xml:space="preserve">https://d3p157427w54jq.cloudfront.net/uploads/2018/04/TRIBELogotype-RGB-V-FC-2-400x288.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Visual Amplifiers</t>
@@ -2137,7 +2126,7 @@
     <t xml:space="preserve">https://hismileteeth.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/2502/5300/files/text.svg</t>
+    <t xml:space="preserve">https://i.ytimg.com/vi/XTO4JyeWxKU/maxresdefault.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Little Cuggles
@@ -2475,7 +2464,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Image
+      <t xml:space="preserve">Health
+Running
+Nightlife
+Holidays
+Cars
 </t>
     </r>
     <r>
@@ -2485,26 +2478,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Fun
+      <t xml:space="preserve">Image
+Fun
 Explore
 Brands
 Sport
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Health
-Running
-Fashion
-Nightlife
-Holidays
-Cars
 </t>
     </r>
   </si>
@@ -2771,8 +2749,8 @@
   </sheetPr>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="8:8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I56" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K56" activeCellId="0" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -2828,7 +2806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="172.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="144.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -3056,7 +3034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="192" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="171.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>63</v>
       </c>
@@ -3094,7 +3072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="192" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="172.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -3170,7 +3148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="176" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="157.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>86</v>
       </c>
@@ -5215,7 +5193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="186.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="158.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>424</v>
       </c>
@@ -5255,8 +5233,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J15" r:id="rId1" display="https://www.happn.com/en/"/>
-    <hyperlink ref="J46" r:id="rId2" display="http://www.nudie.com.au/"/>
+    <hyperlink ref="K9" r:id="rId1" display="http://www.dealsland.com.au/wp-content/uploads/2015/06/glamcorner_coupon_code.png"/>
+    <hyperlink ref="J15" r:id="rId2" display="https://www.happn.com/en/"/>
+    <hyperlink ref="J46" r:id="rId3" display="http://www.nudie.com.au/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5276,7 +5255,7 @@
   <dimension ref="A1:M164"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="8:8 B10"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -7152,7 +7131,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="8:8 A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>

--- a/db/Database.xlsx
+++ b/db/Database.xlsx
@@ -107,34 +107,16 @@
 Deliveroo</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Health
+    <t xml:space="preserve">Health
 Running
 Fashion
 Nightlife
 Holidays
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Image
+Image
 Fun
 Explore
 Brands
 Sport</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">https://tinder.com/</t>
@@ -2431,60 +2413,24 @@
 Sales</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Clique Labs
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Mad Paws
+    <t xml:space="preserve">Clique Labs
+Mad Paws
 Hoyts Group
 Event Cinema
 Gather Online</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Health
+  </si>
+  <si>
+    <t xml:space="preserve">Health
 Running
 Nightlife
 Holidays
 Cars
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Image
+Image
 Fun
 Explore
 Brands
 Sport
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">https://www.ford.com.au/</t>
@@ -2517,7 +2463,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="MMM\-YY"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2539,12 +2485,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -2596,11 +2536,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2633,28 +2573,20 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2749,23 +2681,24 @@
   </sheetPr>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I56" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K56" activeCellId="0" sqref="K56"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F46" activeCellId="0" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.0518518518519"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3814814814815"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1296296296296"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.8111111111111"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.2259259259259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.0518518518519"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.262962962963"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.7333333333333"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.3037037037037"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.3777777777778"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.1851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.3444444444444"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5222222222222"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.7148148148148"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.3444444444444"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.8518518518519"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.2259259259259"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.7962962962963"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.162962962963"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4148,7 +4081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="208" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="186.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>254</v>
       </c>
@@ -5197,7 +5130,7 @@
       <c r="A67" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="5" t="s">
         <v>425</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -5209,13 +5142,13 @@
       <c r="E67" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="12" t="s">
+      <c r="F67" s="5" t="s">
         <v>426</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H67" s="13" t="s">
+      <c r="H67" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I67" s="1" t="s">
@@ -5260,9 +5193,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8185185185185"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0518518518519"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.56666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.3444444444444"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.76296296296296"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5506,20 +5440,20 @@
       <c r="C22" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -5541,7 +5475,7 @@
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="12" t="s">
         <v>119</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -5552,7 +5486,7 @@
       <c r="A26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -5563,7 +5497,7 @@
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>238</v>
       </c>
       <c r="C27" s="0" t="n">
@@ -5585,7 +5519,7 @@
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="12" t="s">
         <v>250</v>
       </c>
       <c r="C29" s="0" t="n">
@@ -5596,7 +5530,7 @@
       <c r="A30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>199</v>
       </c>
       <c r="C30" s="0" t="n">
@@ -5607,7 +5541,7 @@
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="12" t="s">
         <v>174</v>
       </c>
       <c r="C31" s="0" t="n">
@@ -5618,7 +5552,7 @@
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="0" t="n">
@@ -5891,27 +5825,27 @@
       <c r="A56" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E56" s="15"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="14"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="12"/>
     </row>
     <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="13" t="s">
         <v>412</v>
       </c>
       <c r="C57" s="0" t="n">
@@ -5922,7 +5856,7 @@
       <c r="A58" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="12" t="s">
         <v>324</v>
       </c>
       <c r="C58" s="0" t="n">
@@ -5933,7 +5867,7 @@
       <c r="A59" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="0" t="n">
@@ -5944,7 +5878,7 @@
       <c r="A60" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="12" t="s">
         <v>357</v>
       </c>
       <c r="C60" s="0" t="n">
@@ -5955,7 +5889,7 @@
       <c r="A61" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C61" s="0" t="n">
@@ -5977,7 +5911,7 @@
       <c r="A63" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="13" t="s">
         <v>359</v>
       </c>
       <c r="C63" s="0" t="n">
@@ -5988,7 +5922,7 @@
       <c r="A64" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C64" s="0" t="n">
@@ -6764,7 +6698,7 @@
       <c r="A133" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B133" s="15" t="s">
+      <c r="B133" s="13" t="s">
         <v>357</v>
       </c>
       <c r="C133" s="0" t="n">
@@ -6775,7 +6709,7 @@
       <c r="A134" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B134" s="15" t="s">
+      <c r="B134" s="13" t="s">
         <v>375</v>
       </c>
       <c r="C134" s="0" t="n">
@@ -6797,7 +6731,7 @@
       <c r="A136" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B136" s="15" t="s">
+      <c r="B136" s="13" t="s">
         <v>399</v>
       </c>
       <c r="C136" s="0" t="n">
@@ -6830,7 +6764,7 @@
       <c r="A139" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C139" s="0" t="n">
@@ -6841,7 +6775,7 @@
       <c r="A140" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B140" s="14" t="s">
+      <c r="B140" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C140" s="0" t="n">
@@ -6852,7 +6786,7 @@
       <c r="A141" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="12" t="s">
         <v>119</v>
       </c>
       <c r="C141" s="0" t="n">
@@ -6863,7 +6797,7 @@
       <c r="A142" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="12" t="s">
         <v>295</v>
       </c>
       <c r="C142" s="0" t="n">
@@ -7006,7 +6940,7 @@
       <c r="A155" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B155" s="15" t="s">
+      <c r="B155" s="13" t="s">
         <v>278</v>
       </c>
       <c r="C155" s="0" t="n">
@@ -7017,7 +6951,7 @@
       <c r="A156" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B156" s="15" t="s">
+      <c r="B156" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C156" s="0" t="n">
@@ -7028,7 +6962,7 @@
       <c r="A157" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C157" s="0" t="n">
@@ -7039,7 +6973,7 @@
       <c r="A158" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B158" s="14" t="s">
+      <c r="B158" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C158" s="0" t="n">
@@ -7050,7 +6984,7 @@
       <c r="A159" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B159" s="14" t="s">
+      <c r="B159" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C159" s="0" t="n">
@@ -7061,7 +6995,7 @@
       <c r="A160" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B160" s="14" t="s">
+      <c r="B160" s="12" t="s">
         <v>134</v>
       </c>
       <c r="C160" s="0" t="n">
@@ -7083,7 +7017,7 @@
       <c r="A162" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B162" s="15" t="s">
+      <c r="B162" s="13" t="s">
         <v>312</v>
       </c>
       <c r="C162" s="0" t="n">
@@ -7094,7 +7028,7 @@
       <c r="A163" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B163" s="15" t="s">
+      <c r="B163" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C163" s="0" t="n">
@@ -7105,7 +7039,7 @@
       <c r="A164" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B164" s="14" t="s">
+      <c r="B164" s="12" t="s">
         <v>213</v>
       </c>
       <c r="C164" s="0" t="n">
@@ -7136,53 +7070,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="12.937037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="15.9740740740741"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="16" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="16" width="12.937037037037"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="16" width="13.8185185185185"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="16" width="11.8555555555556"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="16" width="12.937037037037"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="16" width="14.3074074074074"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="16" width="3.33333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="16" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="13.2296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="16.3666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="14.4037037037037"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="13.2296296296296"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="14" width="12.1518518518519"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="13.2296296296296"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="14.6"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="14" width="3.33333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="14" width="12.4444444444444"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="B1" s="14" t="n">
+      <c r="B1" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="n">
+      <c r="C1" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="n">
+      <c r="D1" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="n">
+      <c r="E1" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="n">
+      <c r="F1" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="n">
+      <c r="G1" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="n">
+      <c r="H1" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="n">
+      <c r="I1" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="n">
+      <c r="J1" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="n">
+      <c r="K1" s="12" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7190,188 +7124,188 @@
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="12" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="12" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>295</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>238</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -7383,16 +7317,16 @@
       <c r="G7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -7403,10 +7337,10 @@
       <c r="B8" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>231</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -7418,16 +7352,16 @@
       <c r="G8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="13" t="s">
         <v>299</v>
       </c>
     </row>
@@ -7435,34 +7369,34 @@
       <c r="A9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="12" t="s">
         <v>174</v>
       </c>
     </row>
@@ -7470,34 +7404,34 @@
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>434</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="12" t="s">
         <v>213</v>
       </c>
     </row>
@@ -7505,16 +7439,16 @@
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>375</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="13" t="s">
         <v>399</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -7523,16 +7457,16 @@
       <c r="G11" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="12" t="s">
         <v>295</v>
       </c>
     </row>

--- a/db/Database.xlsx
+++ b/db/Database.xlsx
@@ -1603,7 +1603,7 @@
     <t xml:space="preserve">http://keynected.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">http://kwkeyclub.weebly.com/uploads/8/5/4/8/85481056/remindapp_orig.png</t>
+    <t xml:space="preserve">https://kwkeyclub.weebly.com/uploads/8/5/4/8/85481056/remindapp_orig.png</t>
   </si>
   <si>
     <t xml:space="preserve">Paws for Life</t>
@@ -2052,7 +2052,7 @@
     <t xml:space="preserve">http://www.ozifyaustralia.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.ozifyaustralia.com/thumbnaillarge/logo.jpg</t>
+    <t xml:space="preserve">http://www.soultosole.com.au/thumbnaillarge/logo.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">HiSmile</t>
@@ -2681,24 +2681,24 @@
   </sheetPr>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F46" activeCellId="0" sqref="F46"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G55" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K56" activeCellId="0" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.3444444444444"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5222222222222"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.7148148148148"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.3444444444444"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.8518518518519"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.2259259259259"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.7962962962963"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.162962962963"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.6777777777778"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.737037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.6555555555556"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9111111111111"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.9888888888889"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3037037037037"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.737037037037"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.3444444444444"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.7148148148148"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.2851851851852"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.9444444444444"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.1666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4185,7 +4185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>263</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="224" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="199.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
         <v>350</v>
       </c>
@@ -5193,10 +5193,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.3444444444444"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.76296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4037037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.737037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.95925925925926"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7070,19 +7070,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="13.2296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="16.3666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="14.4037037037037"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="13.2296296296296"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="14" width="12.1518518518519"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="13.2296296296296"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="14.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="13.1296296296296"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="13.5222222222222"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="16.7555555555556"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="14.7"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="13.1296296296296"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="13.5222222222222"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="14.4037037037037"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="14" width="12.3481481481481"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="13.5222222222222"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="14.8962962962963"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="14" width="3.33333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="14" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="14" width="12.6407407407407"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/db/Database.xlsx
+++ b/db/Database.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blakerowley/code/clique-connect/db/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71593513-1B12-244D-85A1-2244815776D6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Businesses" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Clicks" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Suggestions" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Businesses" sheetId="1" r:id="rId1"/>
+    <sheet name="Clicks" sheetId="2" r:id="rId2"/>
+    <sheet name="Suggestions" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Businesses!$A$1:$H$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Businesses!$A$1:$H$66</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,46 +32,46 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="435">
   <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">industry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desired_skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acquired_skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">competitors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desired_partnerships</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acquired_partnerships</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customer_interests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image_url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tinder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dating
+    <t>name</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>desired_skills</t>
+  </si>
+  <si>
+    <t>acquired_skills</t>
+  </si>
+  <si>
+    <t>competitors</t>
+  </si>
+  <si>
+    <t>desired_partnerships</t>
+  </si>
+  <si>
+    <t>acquired_partnerships</t>
+  </si>
+  <si>
+    <t>customer_interests</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>image_url</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Tinder</t>
+  </si>
+  <si>
+    <t>Dating
 Matchmaking
 Swiping
 Cheating
@@ -78,7 +83,7 @@
 Social Media</t>
   </si>
   <si>
-    <t xml:space="preserve">51 to 100</t>
+    <t>51 to 100</t>
   </si>
   <si>
     <t xml:space="preserve">Event Partnerships
@@ -94,7 +99,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Mad Paws
+    <t>Mad Paws
 Hoyts Group
 Event Cinema
 Gather Online
@@ -102,12 +107,12 @@
 Ford</t>
   </si>
   <si>
-    <t xml:space="preserve">Hoyts Group
+    <t>Hoyts Group
 Event Cinemas
 Deliveroo</t>
   </si>
   <si>
-    <t xml:space="preserve">Health
+    <t>Health
 Running
 Fashion
 Nightlife
@@ -119,19 +124,19 @@
 Sport</t>
   </si>
   <si>
-    <t xml:space="preserve">https://tinder.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tinder.com/static/build/93623929e83571fb02a182782e7e1d29.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad Paws</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dogs
+    <t>https://tinder.com/</t>
+  </si>
+  <si>
+    <t>https://tinder.com/static/build/93623929e83571fb02a182782e7e1d29.svg</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Mad Paws</t>
+  </si>
+  <si>
+    <t>Dogs
 Dog Walkers
 Everyday People
 Cats
@@ -141,23 +146,23 @@
 Pet</t>
   </si>
   <si>
-    <t xml:space="preserve">11 to 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TaskRabbit
+    <t>11 to 50</t>
+  </si>
+  <si>
+    <t>TaskRabbit
 AirTasker</t>
   </si>
   <si>
-    <t xml:space="preserve">Clique Labs
+    <t>Clique Labs
 Tribe
 Happn</t>
   </si>
   <si>
-    <t xml:space="preserve">Clique Labs
+    <t>Clique Labs
 Tribe</t>
   </si>
   <si>
-    <t xml:space="preserve">Entertainement
+    <t>Entertainement
 Netflix
 Dating
 Family
@@ -182,19 +187,19 @@
 Sport</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.madpaws.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.madpaws.com.au/logo-light2.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Cinemas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cinema
+    <t>https://www.madpaws.com.au/</t>
+  </si>
+  <si>
+    <t>https://www.madpaws.com.au/logo-light2.png</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Event Cinemas</t>
+  </si>
+  <si>
+    <t>Cinema
 Lifestyle
 Nightlife
 Dating
@@ -204,24 +209,24 @@
 Celebrities</t>
   </si>
   <si>
-    <t xml:space="preserve">750 to 1000</t>
+    <t>750 to 1000</t>
   </si>
   <si>
     <t xml:space="preserve">Hoyts Group
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Happn
 Bumble
 Glamcorner</t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Happn</t>
   </si>
   <si>
-    <t xml:space="preserve">Netflix
+    <t>Netflix
 Game of Thrones
 Tom Cruise
 Confectonary
@@ -230,16 +235,16 @@
 Kids</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.eventcinemas.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.evt.com/wp-content/uploads/2015/12/eventcinemas-logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoyts Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cinema
+    <t>https://www.eventcinemas.com.au/</t>
+  </si>
+  <si>
+    <t>https://www.evt.com/wp-content/uploads/2015/12/eventcinemas-logo.png</t>
+  </si>
+  <si>
+    <t>Hoyts Group</t>
+  </si>
+  <si>
+    <t>Cinema
 Lifestyle
 Nightlife
 Dating
@@ -252,10 +257,10 @@
 Social Media</t>
   </si>
   <si>
-    <t xml:space="preserve">Glamcorner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nightlife
+    <t>Glamcorner</t>
+  </si>
+  <si>
+    <t>Nightlife
 Gaming
 Entertainement
 Netflix
@@ -264,16 +269,16 @@
 Kids</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.hoyts.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.eahc.com.au/sites/default/files/Charity/hoyts%20logo.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recomazing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Reccomendations
+    <t>https://www.hoyts.com.au/</t>
+  </si>
+  <si>
+    <t>http://www.eahc.com.au/sites/default/files/Charity/hoyts%20logo.jpg</t>
+  </si>
+  <si>
+    <t>Recomazing</t>
+  </si>
+  <si>
+    <t>Product Reccomendations
 Social Media
 Influencers
 Technology
@@ -283,13 +288,13 @@
 Tech</t>
   </si>
   <si>
-    <t xml:space="preserve">1 to 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Hunt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tribe
+    <t>1 to 10</t>
+  </si>
+  <si>
+    <t>Product Hunt</t>
+  </si>
+  <si>
+    <t>Tribe
 Clique Labs</t>
   </si>
   <si>
@@ -304,13 +309,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.recomazing.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static1.squarespace.com/static/5778c5f39f74561e5111854b/t/58aa604ab8a79b71785cb965/1487560785088/recomazing-logo-e1462987952107.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Airtasker</t>
+    <t>https://www.recomazing.com/</t>
+  </si>
+  <si>
+    <t>https://static1.squarespace.com/static/5778c5f39f74561e5111854b/t/58aa604ab8a79b71785cb965/1487560785088/recomazing-logo-e1462987952107.png</t>
+  </si>
+  <si>
+    <t>Airtasker</t>
   </si>
   <si>
     <t xml:space="preserve">Everyday People
@@ -326,12 +331,12 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">TaskRabbit
+    <t>TaskRabbit
 Design Crowd
 Redbubble</t>
   </si>
   <si>
-    <t xml:space="preserve">Tribe
+    <t>Tribe
 Happn
 Clique Labs
 Gather Online
@@ -360,13 +365,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.airtasker.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.airtasker.com/images/brand/airtasker-logotype-transparent.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gather Online</t>
+    <t>https://www.airtasker.com/</t>
+  </si>
+  <si>
+    <t>https://www.airtasker.com/images/brand/airtasker-logotype-transparent.png</t>
+  </si>
+  <si>
+    <t>Gather Online</t>
   </si>
   <si>
     <t xml:space="preserve">Information Technology
@@ -383,20 +388,20 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Event Cinemas
+    <t>Event Cinemas
 Hoyts
 Tinder
 Happn
 Bumble</t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Clique Labs
 Deliveroo
 Product Hunt</t>
   </si>
   <si>
-    <t xml:space="preserve">Social
+    <t>Social
 Depression
 Movies
 Fandom
@@ -404,13 +409,13 @@
 Gaming</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gatheronline.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.thehappierhomemaker.com/wp-content/uploads/2017/09/gather-printable.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fashion
+    <t>https://www.gatheronline.com/</t>
+  </si>
+  <si>
+    <t>https://www.thehappierhomemaker.com/wp-content/uploads/2017/09/gather-printable.jpg</t>
+  </si>
+  <si>
+    <t>Fashion
 E-Commerce
 Dresses
 Glamourous
@@ -421,7 +426,7 @@
 Sharing Economy</t>
   </si>
   <si>
-    <t xml:space="preserve">DesignerEx
+    <t>DesignerEx
 The Iconic
 Asos
 Insitchu
@@ -461,19 +466,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.glamcorner.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.dealsland.com.au/wp-content/uploads/2015/06/glamcorner_coupon_code.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">England</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clique Labs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instagram
+    <t>https://www.glamcorner.com.au/</t>
+  </si>
+  <si>
+    <t>http://www.dealsland.com.au/wp-content/uploads/2015/06/glamcorner_coupon_code.png</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Clique Labs</t>
+  </si>
+  <si>
+    <t>Instagram
 Models
 Everyday People
 Creative Marketplace
@@ -486,11 +491,11 @@
 Enterprise Software</t>
   </si>
   <si>
-    <t xml:space="preserve">Tribe
+    <t>Tribe
 Visual Amplifiers</t>
   </si>
   <si>
-    <t xml:space="preserve">Insitchu
+    <t>Insitchu
 Glamcorner
 Deliveroo
 Happn
@@ -499,7 +504,7 @@
 Canva</t>
   </si>
   <si>
-    <t xml:space="preserve">The Iconic
+    <t>The Iconic
 Coles
 Canva
 Tinder</t>
@@ -525,24 +530,24 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cliquelabs.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cliquelabs.com/wp-content/uploads/2018/03/logo-1-e1523772838215.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tribe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clique Labs
+    <t>https://www.cliquelabs.com/</t>
+  </si>
+  <si>
+    <t>https://www.cliquelabs.com/wp-content/uploads/2018/03/logo-1-e1523772838215.png</t>
+  </si>
+  <si>
+    <t>Tribe</t>
+  </si>
+  <si>
+    <t>Clique Labs
 Visual Amplifiers</t>
   </si>
   <si>
-    <t xml:space="preserve">Insitchu
+    <t>Insitchu
 Glamcorner</t>
   </si>
   <si>
-    <t xml:space="preserve">Everyday People
+    <t>Everyday People
 Influencer
 Money
 Instagram
@@ -550,21 +555,21 @@
 Chia Seeds</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.tribegroup.co/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://d3p157427w54jq.cloudfront.net/uploads/2018/04/TRIBELogotype-RGB-V-FC-2-400x288.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visual Amplifiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insitchu
+    <t>https://www.tribegroup.co/</t>
+  </si>
+  <si>
+    <t>https://d3p157427w54jq.cloudfront.net/uploads/2018/04/TRIBELogotype-RGB-V-FC-2-400x288.jpg</t>
+  </si>
+  <si>
+    <t>Visual Amplifiers</t>
+  </si>
+  <si>
+    <t>Insitchu
 Coles
 Canva</t>
   </si>
   <si>
-    <t xml:space="preserve">Money
+    <t>Money
 Instagram
 Experiences
 Photography
@@ -573,16 +578,16 @@
 Chia Seeds</t>
   </si>
   <si>
-    <t xml:space="preserve">http://visualamplifiers.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://vamp.wpengine.com/wp-content/uploads/2015/12/logo.vamp_.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deliveroo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Late Night
+    <t>http://visualamplifiers.com/</t>
+  </si>
+  <si>
+    <t>http://vamp.wpengine.com/wp-content/uploads/2015/12/logo.vamp_.svg</t>
+  </si>
+  <si>
+    <t>Deliveroo</t>
+  </si>
+  <si>
+    <t>Late Night
 Dine-In
 Date Night
 Delivery
@@ -591,7 +596,7 @@
 Same Day Delivery</t>
   </si>
   <si>
-    <t xml:space="preserve">101 to 250</t>
+    <t>101 to 250</t>
   </si>
   <si>
     <t xml:space="preserve">Uber Eats
@@ -599,7 +604,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Happn</t>
+    <t>Happn</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -628,16 +633,16 @@
 Marketing</t>
   </si>
   <si>
-    <t xml:space="preserve">https://deliveroo.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://treetopcafe.com.au/images/graphics/delivery-logo/logo-deliveroo.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uber Eats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1001 to 5000</t>
+    <t>https://deliveroo.com.au/</t>
+  </si>
+  <si>
+    <t>http://treetopcafe.com.au/images/graphics/delivery-logo/logo-deliveroo.jpg</t>
+  </si>
+  <si>
+    <t>Uber Eats</t>
+  </si>
+  <si>
+    <t>1001 to 5000</t>
   </si>
   <si>
     <t xml:space="preserve">Deliveroo
@@ -657,7 +662,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Millenial
+    <t>Millenial
 Takeaway
 Netflix
 Movies
@@ -665,13 +670,13 @@
 Marketing</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ubereats.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://thehypedgeek.com/wp-content/uploads/2017/09/Uber-eats-logo.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dating
+    <t>https://www.ubereats.com/</t>
+  </si>
+  <si>
+    <t>http://thehypedgeek.com/wp-content/uploads/2017/09/Uber-eats-logo.jpg</t>
+  </si>
+  <si>
+    <t>Dating
 Matchmaking
 Cheating
 Restaurants
@@ -682,11 +687,11 @@
 Social Media</t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Bumble</t>
   </si>
   <si>
-    <t xml:space="preserve">Coles
+    <t>Coles
 Nexvet</t>
   </si>
   <si>
@@ -707,13 +712,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.happn.com/en/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.happn.com/images/logo-happn-mini-laptop.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bumble</t>
+    <t>https://www.happn.com/en/</t>
+  </si>
+  <si>
+    <t>https://www.happn.com/images/logo-happn-mini-laptop.svg</t>
+  </si>
+  <si>
+    <t>Bumble</t>
   </si>
   <si>
     <t xml:space="preserve">Hipster
@@ -735,16 +740,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://bumble.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://media.globaldatinginsights.com/wp-content/uploads/2016/01/18223915/bee.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DesignerEx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Iconic
+    <t>https://bumble.com/</t>
+  </si>
+  <si>
+    <t>http://media.globaldatinginsights.com/wp-content/uploads/2016/01/18223915/bee.png</t>
+  </si>
+  <si>
+    <t>DesignerEx</t>
+  </si>
+  <si>
+    <t>The Iconic
 Asos
 Insitchu
 Style Rocks
@@ -760,7 +765,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Fashion
+    <t>Fashion
 Vouge
 Prada
 Westfield
@@ -771,20 +776,20 @@
 New York</t>
   </si>
   <si>
-    <t xml:space="preserve">https://designerex.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://designerex.com.au/assets/logo2-1ffc7ca7a093c4d36451efbffe32a8f6f72f8cea45bde6e78bc550aa3c768370.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canva
+    <t>https://designerex.com.au/</t>
+  </si>
+  <si>
+    <t>https://designerex.com.au/assets/logo2-1ffc7ca7a093c4d36451efbffe32a8f6f72f8cea45bde6e78bc550aa3c768370.png</t>
+  </si>
+  <si>
+    <t>Canva
 The Iconic</t>
   </si>
   <si>
-    <t xml:space="preserve">Canva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everyday People
+    <t>Canva</t>
+  </si>
+  <si>
+    <t>Everyday People
 Influencer
 Money
 Instagram
@@ -804,25 +809,25 @@
 Amazon</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.producthunt.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://s3.producthunt.com/static/ph-logo-1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TaskRabbit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Airtasker
+    <t>https://www.producthunt.com/</t>
+  </si>
+  <si>
+    <t>https://s3.producthunt.com/static/ph-logo-1.png</t>
+  </si>
+  <si>
+    <t>TaskRabbit</t>
+  </si>
+  <si>
+    <t>Airtasker
 Mad Paws</t>
   </si>
   <si>
-    <t xml:space="preserve">Deliveroo
+    <t>Deliveroo
 Uber Eats
 Tinder</t>
   </si>
   <si>
-    <t xml:space="preserve">Deliveroo
+    <t>Deliveroo
 Uber Eats</t>
   </si>
   <si>
@@ -842,16 +847,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.taskrabbit.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.taskrabbit.com/v3/assets/web/logos/logo-h-3f5a5ffaf590a5dcff9ae06f47e7e67f.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DesignCrowd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apps
+    <t>https://www.taskrabbit.com/</t>
+  </si>
+  <si>
+    <t>https://www.taskrabbit.com/v3/assets/web/logos/logo-h-3f5a5ffaf590a5dcff9ae06f47e7e67f.svg</t>
+  </si>
+  <si>
+    <t>DesignCrowd</t>
+  </si>
+  <si>
+    <t>Apps
 E-Commerce
 Internet
 Mobile
@@ -862,16 +867,16 @@
 Crowdsourced</t>
   </si>
   <si>
-    <t xml:space="preserve">TaskRabbit
+    <t>TaskRabbit
 AirTasker
 Canva</t>
   </si>
   <si>
-    <t xml:space="preserve">Recomazing
+    <t>Recomazing
 Splend</t>
   </si>
   <si>
-    <t xml:space="preserve">Design
+    <t>Design
 Creative Arts
 Fashion
 Art
@@ -880,22 +885,22 @@
 Meditation</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.designcrowd.com.au</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dcassetcdn.com/assets/images/new-world/logos/designcrowd-logo-7ed4b832df.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nexvet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biotechnology
+    <t>https://www.designcrowd.com.au</t>
+  </si>
+  <si>
+    <t>https://dcassetcdn.com/assets/images/new-world/logos/designcrowd-logo-7ed4b832df.svg</t>
+  </si>
+  <si>
+    <t>Nexvet</t>
+  </si>
+  <si>
+    <t>Biotechnology
 Health Care 
 Pet
 Medicine</t>
   </si>
   <si>
-    <t xml:space="preserve">Photography
+    <t>Photography
 Animals
 Parks
 Art
@@ -905,13 +910,13 @@
 Clean Eating</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.zoetis.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.zoetis.com.au/global-assets/img/logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Iconic</t>
+    <t>https://www.zoetis.com.au/</t>
+  </si>
+  <si>
+    <t>https://www.zoetis.com.au/global-assets/img/logo.png</t>
+  </si>
+  <si>
+    <t>The Iconic</t>
   </si>
   <si>
     <t xml:space="preserve">Fashion 
@@ -921,10 +926,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">501 to 1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DesignerEx
+    <t>501 to 1000</t>
+  </si>
+  <si>
+    <t>DesignerEx
 Asos
 Insitchu
 Style Rocks
@@ -936,7 +941,7 @@
 Bloch Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Happn
 Bumble
 Clique Labs
@@ -945,7 +950,7 @@
 Mastercard</t>
   </si>
   <si>
-    <t xml:space="preserve">Fashion
+    <t>Fashion
 Vouge
 Prada
 Westfield
@@ -956,16 +961,16 @@
 Amazon</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.theiconic.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://vascopay.com/wp-content/uploads/2016/04/the-iconic-logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DesignerEx
+    <t>https://www.theiconic.com.au/</t>
+  </si>
+  <si>
+    <t>https://vascopay.com/wp-content/uploads/2016/04/the-iconic-logo.png</t>
+  </si>
+  <si>
+    <t>Asos</t>
+  </si>
+  <si>
+    <t>DesignerEx
 The Iconic
 Insitchu
 Style Rocks
@@ -988,7 +993,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Fashion
+    <t>Fashion
 Vouge
 Prada
 Westfield
@@ -996,13 +1001,13 @@
 Instyle Magazine</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.asos.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://content.asos-media.com/-/media/images/meta/asos-logo.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graphic Design
+    <t>http://www.asos.com/</t>
+  </si>
+  <si>
+    <t>http://content.asos-media.com/-/media/images/meta/asos-logo.jpg</t>
+  </si>
+  <si>
+    <t>Graphic Design
 Photo Editing
 Web Apps
 Web Design
@@ -1014,7 +1019,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Clique Labs
+    <t>Clique Labs
 Tribe
 The Iconic</t>
   </si>
@@ -1024,7 +1029,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Art
+    <t>Art
 Tasks
 Marketing
 Professional
@@ -1042,16 +1047,16 @@
 Amazon</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.canva.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.freelogovectors.net/wp-content/uploads/2017/01/canva-logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venmo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rent
+    <t>https://www.canva.com</t>
+  </si>
+  <si>
+    <t>http://www.freelogovectors.net/wp-content/uploads/2017/01/canva-logo.png</t>
+  </si>
+  <si>
+    <t>Venmo</t>
+  </si>
+  <si>
+    <t>Rent
 Utilities
 Dinner
 Drinks
@@ -1061,15 +1066,15 @@
 Laughs</t>
   </si>
   <si>
-    <t xml:space="preserve">Zelle
+    <t>Zelle
 Mastercard</t>
   </si>
   <si>
-    <t xml:space="preserve">Asos
+    <t>Asos
 Tinder</t>
   </si>
   <si>
-    <t xml:space="preserve">Hipster
+    <t>Hipster
 Beach
 Dating
 Clubbing
@@ -1084,16 +1089,16 @@
 Netflix</t>
   </si>
   <si>
-    <t xml:space="preserve">https://venmo.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cdn1.venmo.com/marketing/images/branding/downloads/venmo_logo_blue.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiverr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apps
+    <t>https://venmo.com/</t>
+  </si>
+  <si>
+    <t>https://cdn1.venmo.com/marketing/images/branding/downloads/venmo_logo_blue.png</t>
+  </si>
+  <si>
+    <t>Fiverr</t>
+  </si>
+  <si>
+    <t>Apps
 E-Commerce
 Internet
 Mobile
@@ -1108,7 +1113,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Art
+    <t>Art
 Tasks
 Marketing
 Professional
@@ -1117,16 +1122,16 @@
 Fiverr</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.fiverr.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://i2.wp.com/farjani.com/wp-content/uploads/2017/08/Fiverr-Logo-PNG.png?fit=942%2C376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insitchu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DesignerEx
+    <t>https://www.fiverr.com/</t>
+  </si>
+  <si>
+    <t>https://i2.wp.com/farjani.com/wp-content/uploads/2017/08/Fiverr-Logo-PNG.png?fit=942%2C376</t>
+  </si>
+  <si>
+    <t>Insitchu</t>
+  </si>
+  <si>
+    <t>DesignerEx
 The Iconic
 Asos
 Style Rocks
@@ -1138,7 +1143,7 @@
 Bloch Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Happn
 Bumble
 Clique Labs
@@ -1172,56 +1177,56 @@
 Netflix</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.institchu.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://s.productreview.com.au/products/images/institchu_4f0bec5d75746.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile Payments
+    <t>https://www.institchu.com</t>
+  </si>
+  <si>
+    <t>https://s.productreview.com.au/products/images/institchu_4f0bec5d75746.jpg</t>
+  </si>
+  <si>
+    <t>Zelle</t>
+  </si>
+  <si>
+    <t>Mobile Payments
 Payments
 Peer to Peer</t>
   </si>
   <si>
-    <t xml:space="preserve">Venmo
+    <t>Venmo
 Mastercard</t>
   </si>
   <si>
-    <t xml:space="preserve">Money
+    <t>Money
 Reality TV
 Game of Thrones
 Friends
 Netflix</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.zellepay.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lendedu.com/wp-content/uploads/2017/09/final-zelle-logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mastercard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payments
+    <t>https://www.zellepay.com/</t>
+  </si>
+  <si>
+    <t>https://lendedu.com/wp-content/uploads/2017/09/final-zelle-logo.png</t>
+  </si>
+  <si>
+    <t>Mastercard</t>
+  </si>
+  <si>
+    <t>Payments
 Credit Card
 Financial Institution 
 Credit
 Bank</t>
   </si>
   <si>
-    <t xml:space="preserve">10000 to 100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venmo
+    <t>10000 to 100000</t>
+  </si>
+  <si>
+    <t>Venmo
 Mastercard
 Zelle</t>
   </si>
   <si>
-    <t xml:space="preserve">Money
+    <t>Money
 Space
 Car Sharing
 Reality TV
@@ -1231,23 +1236,23 @@
 Netflix</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mastercard.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/commons/thumb/2/2a/Mastercard-logo.svg/2000px-Mastercard-logo.svg.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supermarket
+    <t>https://www.mastercard.com.au/</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2a/Mastercard-logo.svg/2000px-Mastercard-logo.svg.png</t>
+  </si>
+  <si>
+    <t>Coles</t>
+  </si>
+  <si>
+    <t>Supermarket
 Fresh Food</t>
   </si>
   <si>
-    <t xml:space="preserve">1000 to 10000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wine Gallery
+    <t>1000 to 10000</t>
+  </si>
+  <si>
+    <t>Wine Gallery
 Asos
 Mastercard</t>
   </si>
@@ -1262,16 +1267,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.coles.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/commons/thumb/2/28/Coles_logo.svg/2000px-Coles_logo.svg.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Splend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automotive
+    <t>https://www.coles.com.au/</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/28/Coles_logo.svg/2000px-Coles_logo.svg.png</t>
+  </si>
+  <si>
+    <t>Splend</t>
+  </si>
+  <si>
+    <t>Automotive
 Leasing
 Sharing Economy
 Transportation
@@ -1285,14 +1290,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Spacer
+    <t>Spacer
 Hourz
 Huddle Money
 Rentwolf
 Happn</t>
   </si>
   <si>
-    <t xml:space="preserve">Car Sharing
+    <t>Car Sharing
 Money
 Economics
 Music Loving
@@ -1307,16 +1312,16 @@
 Sport</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.splend.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.splend.com.au/wp-content/uploads/2016/02/splend-logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liftango</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ride-Sharing
+    <t>https://www.splend.com.au/</t>
+  </si>
+  <si>
+    <t>https://www.splend.com.au/wp-content/uploads/2016/02/splend-logo.png</t>
+  </si>
+  <si>
+    <t>Liftango</t>
+  </si>
+  <si>
+    <t>Ride-Sharing
 Crowd-Sourced
 Parking
 Taxi
@@ -1328,7 +1333,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Car Sharing
+    <t>Car Sharing
 Money
 Economics
 Spotify
@@ -1336,35 +1341,35 @@
 Friends</t>
   </si>
   <si>
-    <t xml:space="preserve">http://liftango.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lh3.googleusercontent.com/3wmu9sd4MzAcaCNq0aNjAYquYANAEUB-0GUZlR5zNuDxBzhISzbCgUreiaahb6Hxdg=w300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spacer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storage
+    <t>http://liftango.com/</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/3wmu9sd4MzAcaCNq0aNjAYquYANAEUB-0GUZlR5zNuDxBzhISzbCgUreiaahb6Hxdg=w300</t>
+  </si>
+  <si>
+    <t>Spacer</t>
+  </si>
+  <si>
+    <t>Storage
 Marketplace
 E-Commerce
 Space
 Storage Unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Wine Cue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.spacer.com.au</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.bocris.ro/image/d/1/d1f44b88121bd248908d3bc6b7754c01.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redbubble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Art
+    <t>Wine Cue</t>
+  </si>
+  <si>
+    <t>https://www.spacer.com.au</t>
+  </si>
+  <si>
+    <t>https://www.bocris.ro/image/d/1/d1f44b88121bd248908d3bc6b7754c01.jpg</t>
+  </si>
+  <si>
+    <t>Redbubble</t>
+  </si>
+  <si>
+    <t>Art
 Creative Marketplace
 E-Commerce
 Internet
@@ -1380,11 +1385,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Glamcorner
+    <t>Glamcorner
 Nude by Nature</t>
   </si>
   <si>
-    <t xml:space="preserve">Design
+    <t>Design
 Art
 E-Commerce
 Ranking
@@ -1392,16 +1397,16 @@
 Meditation</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.redbubble.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://p4.zdassets.com/hc/settings_assets/558695/200038749/RTUjWuxFgtzmM093RkeBvw-RB_Small_Pos_RGB_copy.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dining
+    <t>https://www.redbubble.com/</t>
+  </si>
+  <si>
+    <t>https://p4.zdassets.com/hc/settings_assets/558695/200038749/RTUjWuxFgtzmM093RkeBvw-RB_Small_Pos_RGB_copy.jpg</t>
+  </si>
+  <si>
+    <t>Liven</t>
+  </si>
+  <si>
+    <t>Dining
 Nightlife
 Dinner
 Restaurants
@@ -1417,16 +1422,16 @@
 Virtual Currency</t>
   </si>
   <si>
-    <t xml:space="preserve">Qpay
+    <t>Qpay
 GiggedIn</t>
   </si>
   <si>
-    <t xml:space="preserve">TaskRabbit
+    <t>TaskRabbit
 Liftango
 Spacer</t>
   </si>
   <si>
-    <t xml:space="preserve">Restaurants
+    <t>Restaurants
 Fine Dining
 Health
 France
@@ -1440,13 +1445,13 @@
 Kids</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.liven.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.liven.com.au/img/opengraph.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qpay</t>
+    <t>https://www.liven.com.au/</t>
+  </si>
+  <si>
+    <t>https://www.liven.com.au/img/opengraph.png</t>
+  </si>
+  <si>
+    <t>Qpay</t>
   </si>
   <si>
     <t xml:space="preserve">Discounts
@@ -1458,19 +1463,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Giggedn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://getqpay.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static1.squarespace.com/static/54a8abcce4b03d35accd2eed/t/571034d4cf80a10d47b05059/1460679930411/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car Next Door</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bondi Beach
+    <t>Giggedn</t>
+  </si>
+  <si>
+    <t>https://getqpay.com/</t>
+  </si>
+  <si>
+    <t>https://static1.squarespace.com/static/54a8abcce4b03d35accd2eed/t/571034d4cf80a10d47b05059/1460679930411/</t>
+  </si>
+  <si>
+    <t>Car Next Door</t>
+  </si>
+  <si>
+    <t>Bondi Beach
 Pets
 Family
 Netflix
@@ -1483,16 +1488,16 @@
 Kids</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.carnextdoor.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://theme.zdassets.com/theme_assets/212153/0f6bc687c583e19e4c679136a7b54fe98c8bd533.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tinybeans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content
+    <t>https://www.carnextdoor.com.au/</t>
+  </si>
+  <si>
+    <t>https://theme.zdassets.com/theme_assets/212153/0f6bc687c583e19e4c679136a7b54fe98c8bd533.png</t>
+  </si>
+  <si>
+    <t>Tinybeans</t>
+  </si>
+  <si>
+    <t>Content
 Journalism
 Parenting
 Photography
@@ -1505,7 +1510,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Content
+    <t>Content
 Netflix
 YouTube
 Esports
@@ -1520,16 +1525,16 @@
 Nightlife</t>
   </si>
   <si>
-    <t xml:space="preserve">https://tinybeans.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://oppo-studio.com/work/tinybeans/logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GiggedIn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Art
+    <t>https://tinybeans.com/</t>
+  </si>
+  <si>
+    <t>http://oppo-studio.com/work/tinybeans/logo.png</t>
+  </si>
+  <si>
+    <t>GiggedIn</t>
+  </si>
+  <si>
+    <t>Art
 Innovation Management
 Media and Entertainment
 Music
@@ -1544,7 +1549,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Keynected</t>
+    <t>Keynected</t>
   </si>
   <si>
     <t xml:space="preserve">Esports
@@ -1552,19 +1557,19 @@
 Journalism </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.giggedin.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://events.giggedin.com/assets/v2/images/logo-dark-lg.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voicebyte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apps
+    <t>https://www.giggedin.com/</t>
+  </si>
+  <si>
+    <t>https://events.giggedin.com/assets/v2/images/logo-dark-lg.png</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Voicebyte</t>
+  </si>
+  <si>
+    <t>Apps
 Information Technology
 Media and Entertainment
 Social Media</t>
@@ -1578,21 +1583,21 @@
 Journalism </t>
   </si>
   <si>
-    <t xml:space="preserve">https://voicebyte.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.investible.com/hs-fs/hubfs/Portfolio/vblowlogo.png?t=1523453514294&amp;width=700&amp;height=421&amp;name=vblowlogo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apps
+    <t>https://voicebyte.com/</t>
+  </si>
+  <si>
+    <t>http://www.investible.com/hs-fs/hubfs/Portfolio/vblowlogo.png?t=1523453514294&amp;width=700&amp;height=421&amp;name=vblowlogo.png</t>
+  </si>
+  <si>
+    <t>Apps
 Mobile
 Social Media</t>
   </si>
   <si>
-    <t xml:space="preserve">HowAboutEat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wine
+    <t>HowAboutEat</t>
+  </si>
+  <si>
+    <t>Wine
 Food
 Health
 Cheese
@@ -1600,24 +1605,24 @@
 Millenial</t>
   </si>
   <si>
-    <t xml:space="preserve">http://keynected.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://kwkeyclub.weebly.com/uploads/8/5/4/8/85481056/remindapp_orig.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paws for Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-Commerce
+    <t>http://keynected.com/</t>
+  </si>
+  <si>
+    <t>https://kwkeyclub.weebly.com/uploads/8/5/4/8/85481056/remindapp_orig.png</t>
+  </si>
+  <si>
+    <t>Paws for Life</t>
+  </si>
+  <si>
+    <t>E-Commerce
 Food and Beverage
 Retail</t>
   </si>
   <si>
-    <t xml:space="preserve">Madpaws</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reality TV
+    <t>Madpaws</t>
+  </si>
+  <si>
+    <t>Reality TV
 Pets
 Social Media
 Food Delivery
@@ -1626,26 +1631,26 @@
 Dogs</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.petcircle.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://yt3.ggpht.com/-ZvZy-WHU_Iw/AAAAAAAAAAI/AAAAAAAAAAA/D-Aw2H3qR3Q/s88-c-k-no-mo-rj-c0xffffff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wine Gallery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consumer
+    <t>https://www.petcircle.com.au/</t>
+  </si>
+  <si>
+    <t>https://yt3.ggpht.com/-ZvZy-WHU_Iw/AAAAAAAAAAI/AAAAAAAAAAA/D-Aw2H3qR3Q/s88-c-k-no-mo-rj-c0xffffff</t>
+  </si>
+  <si>
+    <t>Wine Gallery</t>
+  </si>
+  <si>
+    <t>Consumer
 E-Commerce
 Wine And Spirits</t>
   </si>
   <si>
-    <t xml:space="preserve">Asos
+    <t>Asos
 Deliveroo
 Uber Eats</t>
   </si>
   <si>
-    <t xml:space="preserve">Photograhy
+    <t>Photograhy
 Travel
 Health
 Affluent 
@@ -1663,13 +1668,13 @@
 Nightlife</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.thewinegallery.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cdn.thewinegallery.com.au/static/site/img/the-wine-gallery-logo.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivery
+    <t>https://www.thewinegallery.com.au/</t>
+  </si>
+  <si>
+    <t>https://cdn.thewinegallery.com.au/static/site/img/the-wine-gallery-logo.svg</t>
+  </si>
+  <si>
+    <t>Delivery
 Delivery Service
 Food and Beverag
 Service Industry</t>
@@ -1680,7 +1685,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Photography
+    <t>Photography
 Animals
 Parks
 Art
@@ -1690,17 +1695,17 @@
 Clean Eating</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.freelogovectors.net/wp-content/uploads/2017/03/eat-logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-Commerce
+    <t>http://www.freelogovectors.net/wp-content/uploads/2017/03/eat-logo.png</t>
+  </si>
+  <si>
+    <t>E-Commerce
 Wine And Spirits</t>
   </si>
   <si>
-    <t xml:space="preserve">Nudie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creativity
+    <t>Nudie</t>
+  </si>
+  <si>
+    <t>Creativity
 Family
 Economics
 Business
@@ -1713,24 +1718,24 @@
 Kids</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gust-production.s3.amazonaws.com/uploads/startup/logo_image/159952/logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food and Beverage
+    <t>https://gust-production.s3.amazonaws.com/uploads/startup/logo_image/159952/logo.png</t>
+  </si>
+  <si>
+    <t>Food and Beverage
 Natural Resources
 Organic Food</t>
   </si>
   <si>
-    <t xml:space="preserve">Caravela Coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tinder
+    <t>Caravela Coffee</t>
+  </si>
+  <si>
+    <t>Tinder
 Wine Gallery
 Asos
 Mastercard</t>
   </si>
   <si>
-    <t xml:space="preserve">Sport
+    <t>Sport
 Health
 Running
 Marathons
@@ -1740,28 +1745,28 @@
 Nightlife</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.nudie.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://mumbrella-uploads.s3.amazonaws.com/uploads/2014/01/Screen-Shot-2014-01-13-at-12.26.22-PM.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GroupDiner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deliveroo
+    <t>http://www.nudie.com.au/</t>
+  </si>
+  <si>
+    <t>http://mumbrella-uploads.s3.amazonaws.com/uploads/2014/01/Screen-Shot-2014-01-13-at-12.26.22-PM.png</t>
+  </si>
+  <si>
+    <t>GroupDiner</t>
+  </si>
+  <si>
+    <t>Restaurants</t>
+  </si>
+  <si>
+    <t>Deliveroo
 Uber Eats
 Hourz</t>
   </si>
   <si>
-    <t xml:space="preserve">Carevela Coffee
+    <t>Carevela Coffee
 Nudie</t>
   </si>
   <si>
-    <t xml:space="preserve">Millenial
+    <t>Millenial
 Takeaway
 Netflix
 Movies
@@ -1771,57 +1776,57 @@
 Marketing</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.groupdiner.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://duckduckgoatchicago.com/assets/logo6-57c8824a9d893d6fc2bf437507f6ef15.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hourz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://caravela.coffee/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pbs.twimg.com/profile_images/2937425693/d89da87a4488073a551182897b2e6941_400x400.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurants
+    <t>http://www.groupdiner.com.au/</t>
+  </si>
+  <si>
+    <t>http://duckduckgoatchicago.com/assets/logo6-57c8824a9d893d6fc2bf437507f6ef15.png</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Hourz</t>
+  </si>
+  <si>
+    <t>https://caravela.coffee/</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/2937425693/d89da87a4488073a551182897b2e6941_400x400.png</t>
+  </si>
+  <si>
+    <t>Restaurants
 Search Engine
 Shopping
 Travel</t>
   </si>
   <si>
-    <t xml:space="preserve">GroupDiner
+    <t>GroupDiner
 Deliveroo
 Uber Eats</t>
   </si>
   <si>
-    <t xml:space="preserve">Lust Have it!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fashion
+    <t>Lust Have it!</t>
+  </si>
+  <si>
+    <t>Fashion
 Vouge
 Apple
 Zara
 Instyle Magazine</t>
   </si>
   <si>
-    <t xml:space="preserve">https://cdn.dribbble.com/users/92593/screenshots/2437084/dribbble_1x.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beauty
+    <t>https://cdn.dribbble.com/users/92593/screenshots/2437084/dribbble_1x.png</t>
+  </si>
+  <si>
+    <t>Beauty
 E-Commerce</t>
   </si>
   <si>
-    <t xml:space="preserve">Glamcorner
+    <t>Glamcorner
 Bloch Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">Craft
+    <t>Craft
 Theater
 Marathons
 Family
@@ -1839,16 +1844,16 @@
 Nightlife</t>
   </si>
   <si>
-    <t xml:space="preserve">https://pbs.twimg.com/profile_images/488909294578827264/QljZah9X_400x400.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Style Rocks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jewelry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DesignerEx
+    <t>https://pbs.twimg.com/profile_images/488909294578827264/QljZah9X_400x400.png</t>
+  </si>
+  <si>
+    <t>Style Rocks</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>DesignerEx
 The Iconic
 Asos
 Insitchu
@@ -1860,7 +1865,7 @@
 Bloch Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Happn
 Bumble
 Clique Labs
@@ -1871,13 +1876,13 @@
 Canva</t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Happn
 Bumble
 Clique Labs</t>
   </si>
   <si>
-    <t xml:space="preserve">Craft
+    <t>Craft
 Fashion
 Cosmetics
 Marathons
@@ -1888,24 +1893,24 @@
 InStyle</t>
   </si>
   <si>
-    <t xml:space="preserve">http://fabfivelifestyle.com/wp-content/uploads/bfi_thumb/style_channel_logo_new-me4ispzqgs6ojd2ip4j432ylxb9wwwcz6ohj87zv4s.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gloskinbody</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beauty
+    <t>http://fabfivelifestyle.com/wp-content/uploads/bfi_thumb/style_channel_logo_new-me4ispzqgs6ojd2ip4j432ylxb9wwwcz6ohj87zv4s.jpg</t>
+  </si>
+  <si>
+    <t>Gloskinbody</t>
+  </si>
+  <si>
+    <t>Beauty
 Consulting
 E-Commerce
 Health Care</t>
   </si>
   <si>
-    <t xml:space="preserve">HiSmile
+    <t>HiSmile
 Smile Concepts
 The Iconic</t>
   </si>
   <si>
-    <t xml:space="preserve">HiSmile
+    <t>HiSmile
 Smile Concepts</t>
   </si>
   <si>
@@ -1936,22 +1941,22 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gloskinbody.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.gloskinbody.com.au/skin/frontend/ultimo/gloskinbody/images/logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloch Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StyleTread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Craft
+    <t>https://www.gloskinbody.com.au/</t>
+  </si>
+  <si>
+    <t>https://www.gloskinbody.com.au/skin/frontend/ultimo/gloskinbody/images/logo.png</t>
+  </si>
+  <si>
+    <t>Bloch Australia</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>StyleTread</t>
+  </si>
+  <si>
+    <t>Craft
 Fashion
 Cosmetics
 Marathons
@@ -1960,16 +1965,16 @@
 InStyle</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.bloch.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.sammysroom.com.au/bloch_items2/bloch_logo_screen.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AmberSceats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DesignerEx
+    <t>http://www.bloch.com.au/</t>
+  </si>
+  <si>
+    <t>http://www.sammysroom.com.au/bloch_items2/bloch_logo_screen.jpg</t>
+  </si>
+  <si>
+    <t>AmberSceats</t>
+  </si>
+  <si>
+    <t>DesignerEx
 The Iconic
 Asos
 Insitchu
@@ -1982,11 +1987,11 @@
 Bloch Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">Ozify
+    <t>Ozify
 Styletread</t>
   </si>
   <si>
-    <t xml:space="preserve">Marathons
+    <t>Marathons
 Family
 Jewelry
 Sport
@@ -1998,22 +2003,22 @@
 Nightlife</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ambersceats.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.raradesigns.com.au/wp-content/uploads/2013/10/Ambersceats_Branding_11.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ozify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consumer Goods
+    <t>https://ambersceats.com/</t>
+  </si>
+  <si>
+    <t>http://www.raradesigns.com.au/wp-content/uploads/2013/10/Ambersceats_Branding_11.jpg</t>
+  </si>
+  <si>
+    <t>Ozify</t>
+  </si>
+  <si>
+    <t>Consumer Goods
 Fashion
 Manufacturing
 Retail</t>
   </si>
   <si>
-    <t xml:space="preserve">DesignerEx
+    <t>DesignerEx
 The Iconic
 Asos
 Insitchu
@@ -2025,7 +2030,7 @@
 Bloch Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Happn
 Bumble
 Clique Labs
@@ -2033,7 +2038,7 @@
 The Iconic</t>
   </si>
   <si>
-    <t xml:space="preserve">Craft
+    <t>Craft
 Fashion
 Cosmetics
 Marathons
@@ -2049,16 +2054,13 @@
 Amazon</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.ozifyaustralia.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.ozifyaustralia.com/thumbnaillarge/logo.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HiSmile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cosmetics
+    <t>http://www.soultosole.com.au/thumbnaillarge/logo.jpg</t>
+  </si>
+  <si>
+    <t>HiSmile</t>
+  </si>
+  <si>
+    <t>Cosmetics
 Dental
 Health Care
 E-Commerce
@@ -2066,10 +2068,10 @@
 Health</t>
   </si>
   <si>
-    <t xml:space="preserve">Smile Concepts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tinder
+    <t>Smile Concepts</t>
+  </si>
+  <si>
+    <t>Tinder
 Happn
 Bumble
 DesignerEx
@@ -2085,12 +2087,12 @@
 Bloch Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Happn
 Bloch Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">Hipster
+    <t>Hipster
 Beach
 Dating
 Clubbing
@@ -2105,18 +2107,18 @@
 InStyle</t>
   </si>
   <si>
-    <t xml:space="preserve">https://hismileteeth.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://i.ytimg.com/vi/XTO4JyeWxKU/maxresdefault.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Cuggles
+    <t>https://hismileteeth.com/</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/XTO4JyeWxKU/maxresdefault.jpg</t>
+  </si>
+  <si>
+    <t>Little Cuggles
 Glamcorner
 Bloch Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">Craft
+    <t>Craft
 Fashion
 Family
 Jewelry
@@ -2125,18 +2127,18 @@
 InStyle</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.smileconcepts.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://roseinnesdesigns.com/assets/files/projects/smile-logo.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fashion
+    <t>https://www.smileconcepts.com.au/</t>
+  </si>
+  <si>
+    <t>http://roseinnesdesigns.com/assets/files/projects/smile-logo.jpg</t>
+  </si>
+  <si>
+    <t>Fashion
 Internet
 Shoes</t>
   </si>
   <si>
-    <t xml:space="preserve">DesignerEx
+    <t>DesignerEx
 The Iconic
 Asos
 Insitchu
@@ -2148,13 +2150,13 @@
 Bloch Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Happn
 Bumble
 Canva</t>
   </si>
   <si>
-    <t xml:space="preserve">Content
+    <t>Content
 Netflix
 YouTube
 Esports
@@ -2162,42 +2164,42 @@
 Journalism</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.styletread.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pbs.twimg.com/profile_images/439197864497930241/0wSzrHMY_400x400.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nude By Nature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beauty
+    <t>https://www.styletread.com.au/</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/439197864497930241/0wSzrHMY_400x400.jpeg</t>
+  </si>
+  <si>
+    <t>Nude By Nature</t>
+  </si>
+  <si>
+    <t>Beauty
 Cosmetics
 Women's</t>
   </si>
   <si>
-    <t xml:space="preserve">Gloskinbody
+    <t>Gloskinbody
 Glamcorner</t>
   </si>
   <si>
-    <t xml:space="preserve">Carevela Coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://nudebynature.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/2405/1749/t/1/assets/logo-nbn-dark.svg?12527679877109719171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Cuggles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-Commerce
+    <t>Carevela Coffee</t>
+  </si>
+  <si>
+    <t>https://nudebynature.com.au/</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/2405/1749/t/1/assets/logo-nbn-dark.svg?12527679877109719171</t>
+  </si>
+  <si>
+    <t>Little Cuggles</t>
+  </si>
+  <si>
+    <t>E-Commerce
 Fashion
 Shoes</t>
   </si>
   <si>
-    <t xml:space="preserve">DesignerEx
+    <t>DesignerEx
 The Iconic
 Asos
 Insitchu
@@ -2209,7 +2211,7 @@
 Bloch Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">Shoes
+    <t>Shoes
 New York
 Vouge
 Single
@@ -2218,44 +2220,44 @@
 Gym</t>
   </si>
   <si>
-    <t xml:space="preserve">https://dcassetcdn.com/design_img/704268/162911/162911_4422839_704268_image.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xinja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financial Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MC Payment
+    <t>https://dcassetcdn.com/design_img/704268/162911/162911_4422839_704268_image.jpg</t>
+  </si>
+  <si>
+    <t>Xinja</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>MC Payment
 Huddle Money
 Blueshyft</t>
   </si>
   <si>
-    <t xml:space="preserve">Paws for life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Men
+    <t>Paws for life</t>
+  </si>
+  <si>
+    <t>Men
 Fitness
 Style
 Netflix</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.xinja.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mark.trademarkia.com/logo-images/shishi-xinjia-electronics-co/xinjia-79009971.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MC Payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financial Services
+    <t>https://www.xinja.com.au/</t>
+  </si>
+  <si>
+    <t>https://mark.trademarkia.com/logo-images/shishi-xinjia-electronics-co/xinjia-79009971.jpg</t>
+  </si>
+  <si>
+    <t>MC Payment</t>
+  </si>
+  <si>
+    <t>Financial Services
 FinTech
 Payments</t>
   </si>
   <si>
-    <t xml:space="preserve">Blueshyft
+    <t>Blueshyft
 Xinja
 Huddle Money</t>
   </si>
@@ -2270,27 +2272,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://mcpayment.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goldenequatorcapital.com/wp-content/uploads/2017/12/mcpayment-white.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blueshyft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-Commerce
+    <t>https://mcpayment.com/</t>
+  </si>
+  <si>
+    <t>https://www.goldenequatorcapital.com/wp-content/uploads/2017/12/mcpayment-white.png</t>
+  </si>
+  <si>
+    <t>Blueshyft</t>
+  </si>
+  <si>
+    <t>E-Commerce
 FinTech
 Hardware 
 Information Technology</t>
   </si>
   <si>
-    <t xml:space="preserve">Xinja
+    <t>Xinja
 MC Payment
 Huddle Money</t>
   </si>
   <si>
-    <t xml:space="preserve">Spacer
+    <t>Spacer
 Hourz
 Huddle Money
 Rentwolf</t>
@@ -2308,21 +2310,21 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.blueshyft.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images.g2crowd.com/uploads/product/image/social_landscape/social_landscape_1512061963/blueshift.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clipp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospitality
+    <t>https://www.blueshyft.com.au/</t>
+  </si>
+  <si>
+    <t>https://images.g2crowd.com/uploads/product/image/social_landscape/social_landscape_1512061963/blueshift.png</t>
+  </si>
+  <si>
+    <t>Clipp</t>
+  </si>
+  <si>
+    <t>Hospitality
 Loyalty Programs
 Mobile Payments</t>
   </si>
   <si>
-    <t xml:space="preserve">Wine
+    <t>Wine
 Health
 Nightlife
 Gym
@@ -2330,26 +2332,26 @@
 Millenial</t>
   </si>
   <si>
-    <t xml:space="preserve">https://clipp.co/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nfcworld.com/wp-content/uploads/2014/10/clipp.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huddle Money</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finance
+    <t>https://clipp.co/</t>
+  </si>
+  <si>
+    <t>https://www.nfcworld.com/wp-content/uploads/2014/10/clipp.jpg</t>
+  </si>
+  <si>
+    <t>Huddle Money</t>
+  </si>
+  <si>
+    <t>Finance
 Financial Services
 Peer to Peer</t>
   </si>
   <si>
-    <t xml:space="preserve">MC Payment
+    <t>MC Payment
 Xinja
 Blueshyft</t>
   </si>
   <si>
-    <t xml:space="preserve">MC Payment
+    <t>MC Payment
 Xinja
 Blueshyft
 Clipp
@@ -2373,21 +2375,21 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://huddle.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.huddle.com/sites/all/themes/huddle/blue-logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rentwolf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FinTech
+    <t>https://huddle.com.au/</t>
+  </si>
+  <si>
+    <t>https://www.huddle.com/sites/all/themes/huddle/blue-logo.png</t>
+  </si>
+  <si>
+    <t>Rentwolf</t>
+  </si>
+  <si>
+    <t>FinTech
 Internet
 Real Estate</t>
   </si>
   <si>
-    <t xml:space="preserve">MC Payment
+    <t>MC Payment
 Xinja
 Blueshyft
 Clipp</t>
@@ -2401,19 +2403,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://s3.amazonaws.com/au-tm/1814983.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vehicles
+    <t>https://s3.amazonaws.com/au-tm/1814983.jpg</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Vehicles
 Manufacturing
 Transport
 Sales</t>
   </si>
   <si>
-    <t xml:space="preserve">Clique Labs
+    <t>Clique Labs
 Mad Paws
 Hoyts Group
 Event Cinema
@@ -2433,37 +2435,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ford.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/commons/thumb/d/d8/Ford_logo.svg/2000px-Ford_logo.svg.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clicker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clicked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">business</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task Rabbit</t>
+    <t>https://www.ford.com.au/</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d8/Ford_logo.svg/2000px-Ford_logo.svg.png</t>
+  </si>
+  <si>
+    <t>clicker</t>
+  </si>
+  <si>
+    <t>clicked</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>Task Rabbit</t>
+  </si>
+  <si>
+    <t>http://www.soultosole.com.au/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="MMM\-YY"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2472,22 +2472,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -2504,7 +2489,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2512,105 +2497,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2669,39 +2604,346 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F46" activeCellId="0" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.3444444444444"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5222222222222"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.7148148148148"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.3444444444444"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.8518518518519"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.2259259259259"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.7962962962963"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.162962962963"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.6777777777778"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.62222222222222"/>
+    <col min="1" max="1" width="17.6640625" style="1"/>
+    <col min="2" max="2" width="26.6640625"/>
+    <col min="3" max="3" width="18.83203125"/>
+    <col min="4" max="4" width="25"/>
+    <col min="5" max="5" width="24.33203125"/>
+    <col min="6" max="6" width="17.6640625"/>
+    <col min="7" max="7" width="22.33203125"/>
+    <col min="8" max="8" width="23.6640625"/>
+    <col min="9" max="9" width="20.33203125"/>
+    <col min="10" max="10" width="32"/>
+    <col min="11" max="11" width="140.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2739,7 +2981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="144.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -2767,17 +3009,17 @@
       <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="368" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" ht="368" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -2805,17 +3047,17 @@
       <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -2843,17 +3085,17 @@
       <c r="I4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="176" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" ht="176" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -2881,17 +3123,17 @@
       <c r="I5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="L5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12" ht="144" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
@@ -2919,17 +3161,17 @@
       <c r="I6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="320" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12" ht="320" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>56</v>
       </c>
@@ -2957,17 +3199,17 @@
       <c r="I7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="L7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="171.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12" ht="192" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>63</v>
       </c>
@@ -2995,17 +3237,17 @@
       <c r="I8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="172.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:12" ht="192" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -3033,17 +3275,17 @@
       <c r="I9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" t="s">
         <v>75</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="288" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:12" ht="288" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>78</v>
       </c>
@@ -3071,17 +3313,17 @@
       <c r="I10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" t="s">
         <v>85</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="157.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:12" ht="176" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>86</v>
       </c>
@@ -3109,17 +3351,17 @@
       <c r="I11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" t="s">
         <v>91</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="176" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:12" ht="176" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>92</v>
       </c>
@@ -3147,17 +3389,17 @@
       <c r="I12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" t="s">
         <v>96</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="L12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="384" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:12" ht="384" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>97</v>
       </c>
@@ -3185,17 +3427,17 @@
       <c r="I13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" t="s">
         <v>103</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" t="s">
         <v>104</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="L13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>105</v>
       </c>
@@ -3223,17 +3465,17 @@
       <c r="I14" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" t="s">
         <v>111</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" t="s">
         <v>112</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="L14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="256" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:12" ht="256" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>101</v>
       </c>
@@ -3264,14 +3506,14 @@
       <c r="J15" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="K15" t="s">
         <v>118</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="L15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="288" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:12" ht="288" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>119</v>
       </c>
@@ -3297,17 +3539,17 @@
       <c r="I16" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" t="s">
         <v>121</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="K16" t="s">
         <v>122</v>
       </c>
-      <c r="L16" s="0" t="s">
+      <c r="L16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="160" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:12" ht="160" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>123</v>
       </c>
@@ -3335,17 +3577,17 @@
       <c r="I17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" t="s">
         <v>127</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" t="s">
         <v>128</v>
       </c>
-      <c r="L17" s="0" t="s">
+      <c r="L17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="288" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:12" ht="288" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
@@ -3373,17 +3615,17 @@
       <c r="I18" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" t="s">
         <v>132</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="K18" t="s">
         <v>133</v>
       </c>
-      <c r="L18" s="0" t="s">
+      <c r="L18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="199.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:12" ht="224" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>134</v>
       </c>
@@ -3411,17 +3653,17 @@
       <c r="I19" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" t="s">
         <v>139</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" t="s">
         <v>140</v>
       </c>
-      <c r="L19" s="0" t="s">
+      <c r="L19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:12" ht="144" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>141</v>
       </c>
@@ -3449,17 +3691,17 @@
       <c r="I20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" t="s">
         <v>146</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="K20" t="s">
         <v>147</v>
       </c>
-      <c r="L20" s="0" t="s">
+      <c r="L20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>148</v>
       </c>
@@ -3487,17 +3729,17 @@
       <c r="I21" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" t="s">
         <v>151</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="K21" t="s">
         <v>152</v>
       </c>
-      <c r="L21" s="0" t="s">
+      <c r="L21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="160" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:12" ht="160" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>153</v>
       </c>
@@ -3525,17 +3767,17 @@
       <c r="I22" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="J22" t="s">
         <v>159</v>
       </c>
-      <c r="K22" s="0" t="s">
+      <c r="K22" t="s">
         <v>160</v>
       </c>
-      <c r="L22" s="0" t="s">
+      <c r="L22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="160" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:12" ht="160" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>161</v>
       </c>
@@ -3561,17 +3803,17 @@
       <c r="I23" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="J23" t="s">
         <v>165</v>
       </c>
-      <c r="K23" s="0" t="s">
+      <c r="K23" t="s">
         <v>166</v>
       </c>
-      <c r="L23" s="0" t="s">
+      <c r="L23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="256" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:12" ht="256" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>130</v>
       </c>
@@ -3599,17 +3841,17 @@
       <c r="I24" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J24" s="0" t="s">
+      <c r="J24" t="s">
         <v>172</v>
       </c>
-      <c r="K24" s="0" t="s">
+      <c r="K24" t="s">
         <v>173</v>
       </c>
-      <c r="L24" s="0" t="s">
+      <c r="L24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="208" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:12" ht="208" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>174</v>
       </c>
@@ -3637,17 +3879,17 @@
       <c r="I25" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="J25" t="s">
         <v>179</v>
       </c>
-      <c r="K25" s="0" t="s">
+      <c r="K25" t="s">
         <v>180</v>
       </c>
-      <c r="L25" s="0" t="s">
+      <c r="L25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>181</v>
       </c>
@@ -3678,14 +3920,14 @@
       <c r="J26" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="K26" s="0" t="s">
+      <c r="K26" t="s">
         <v>186</v>
       </c>
-      <c r="L26" s="0" t="s">
+      <c r="L26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="320" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:12" ht="320" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>187</v>
       </c>
@@ -3711,17 +3953,17 @@
       <c r="I27" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J27" s="0" t="s">
+      <c r="J27" t="s">
         <v>191</v>
       </c>
-      <c r="K27" s="0" t="s">
+      <c r="K27" t="s">
         <v>192</v>
       </c>
-      <c r="L27" s="0" t="s">
+      <c r="L27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>193</v>
       </c>
@@ -3747,17 +3989,17 @@
       <c r="I28" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J28" s="0" t="s">
+      <c r="J28" t="s">
         <v>197</v>
       </c>
-      <c r="K28" s="0" t="s">
+      <c r="K28" t="s">
         <v>198</v>
       </c>
-      <c r="L28" s="0" t="s">
+      <c r="L28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>199</v>
       </c>
@@ -3783,17 +4025,17 @@
       <c r="I29" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J29" s="0" t="s">
+      <c r="J29" t="s">
         <v>204</v>
       </c>
-      <c r="K29" s="0" t="s">
+      <c r="K29" t="s">
         <v>205</v>
       </c>
-      <c r="L29" s="0" t="s">
+      <c r="L29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>206</v>
       </c>
@@ -3819,17 +4061,17 @@
       <c r="I30" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="J30" t="s">
         <v>211</v>
       </c>
-      <c r="K30" s="0" t="s">
+      <c r="K30" t="s">
         <v>212</v>
       </c>
-      <c r="L30" s="0" t="s">
+      <c r="L30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="208" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:12" ht="208" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>213</v>
       </c>
@@ -3855,17 +4097,17 @@
       <c r="I31" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="J31" s="0" t="s">
+      <c r="J31" t="s">
         <v>218</v>
       </c>
-      <c r="K31" s="0" t="s">
+      <c r="K31" t="s">
         <v>219</v>
       </c>
-      <c r="L31" s="0" t="s">
+      <c r="L31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:12" ht="144" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>220</v>
       </c>
@@ -3891,17 +4133,17 @@
       <c r="I32" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J32" s="0" t="s">
+      <c r="J32" t="s">
         <v>224</v>
       </c>
-      <c r="K32" s="0" t="s">
+      <c r="K32" t="s">
         <v>225</v>
       </c>
-      <c r="L32" s="0" t="s">
+      <c r="L32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>226</v>
       </c>
@@ -3927,17 +4169,17 @@
       <c r="I33" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J33" s="0" t="s">
+      <c r="J33" t="s">
         <v>229</v>
       </c>
-      <c r="K33" s="0" t="s">
+      <c r="K33" t="s">
         <v>230</v>
       </c>
-      <c r="L33" s="0" t="s">
+      <c r="L33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>231</v>
       </c>
@@ -3963,17 +4205,17 @@
       <c r="I34" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="J34" s="0" t="s">
+      <c r="J34" t="s">
         <v>236</v>
       </c>
-      <c r="K34" s="0" t="s">
+      <c r="K34" t="s">
         <v>237</v>
       </c>
-      <c r="L34" s="0" t="s">
+      <c r="L34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="224" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:12" ht="224" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>238</v>
       </c>
@@ -3999,17 +4241,17 @@
       <c r="I35" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J35" s="0" t="s">
+      <c r="J35" t="s">
         <v>243</v>
       </c>
-      <c r="K35" s="0" t="s">
+      <c r="K35" t="s">
         <v>244</v>
       </c>
-      <c r="L35" s="0" t="s">
+      <c r="L35" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>245</v>
       </c>
@@ -4035,17 +4277,17 @@
       <c r="I36" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J36" s="0" t="s">
+      <c r="J36" t="s">
         <v>248</v>
       </c>
-      <c r="K36" s="0" t="s">
+      <c r="K36" t="s">
         <v>249</v>
       </c>
-      <c r="L36" s="0" t="s">
+      <c r="L36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="176" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:12" ht="176" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>250</v>
       </c>
@@ -4071,17 +4313,17 @@
       <c r="I37" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J37" s="0" t="s">
+      <c r="J37" t="s">
         <v>252</v>
       </c>
-      <c r="K37" s="0" t="s">
+      <c r="K37" t="s">
         <v>253</v>
       </c>
-      <c r="L37" s="0" t="s">
+      <c r="L37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="186.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:12" ht="208" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>254</v>
       </c>
@@ -4105,17 +4347,17 @@
       <c r="I38" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="J38" s="0" t="s">
+      <c r="J38" t="s">
         <v>258</v>
       </c>
-      <c r="K38" s="0" t="s">
+      <c r="K38" t="s">
         <v>259</v>
       </c>
-      <c r="L38" s="0" t="s">
+      <c r="L38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>260</v>
       </c>
@@ -4141,17 +4383,17 @@
       <c r="I39" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="J39" s="0" t="s">
+      <c r="J39" t="s">
         <v>265</v>
       </c>
-      <c r="K39" s="0" t="s">
+      <c r="K39" t="s">
         <v>266</v>
       </c>
-      <c r="L39" s="0" t="s">
+      <c r="L39" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>268</v>
       </c>
@@ -4175,17 +4417,17 @@
       <c r="I40" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="J40" s="0" t="s">
+      <c r="J40" t="s">
         <v>271</v>
       </c>
-      <c r="K40" s="0" t="s">
+      <c r="K40" t="s">
         <v>272</v>
       </c>
-      <c r="L40" s="0" t="s">
+      <c r="L40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>263</v>
       </c>
@@ -4211,17 +4453,17 @@
       <c r="I41" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="J41" s="0" t="s">
+      <c r="J41" t="s">
         <v>276</v>
       </c>
-      <c r="K41" s="0" t="s">
+      <c r="K41" t="s">
         <v>277</v>
       </c>
-      <c r="L41" s="0" t="s">
+      <c r="L41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>278</v>
       </c>
@@ -4247,17 +4489,17 @@
       <c r="I42" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="J42" s="0" t="s">
+      <c r="J42" t="s">
         <v>282</v>
       </c>
-      <c r="K42" s="0" t="s">
+      <c r="K42" t="s">
         <v>283</v>
       </c>
-      <c r="L42" s="0" t="s">
+      <c r="L42" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="256" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:12" ht="256" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>284</v>
       </c>
@@ -4283,17 +4525,17 @@
       <c r="I43" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="J43" s="0" t="s">
+      <c r="J43" t="s">
         <v>288</v>
       </c>
-      <c r="K43" s="0" t="s">
+      <c r="K43" t="s">
         <v>289</v>
       </c>
-      <c r="L43" s="0" t="s">
+      <c r="L43" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>274</v>
       </c>
@@ -4319,14 +4561,14 @@
       <c r="I44" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="K44" s="0" t="s">
+      <c r="K44" t="s">
         <v>293</v>
       </c>
-      <c r="L44" s="0" t="s">
+      <c r="L44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="176" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:12" ht="176" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>228</v>
       </c>
@@ -4352,14 +4594,14 @@
       <c r="I45" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="K45" s="0" t="s">
+      <c r="K45" t="s">
         <v>297</v>
       </c>
-      <c r="L45" s="0" t="s">
+      <c r="L45" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>295</v>
       </c>
@@ -4390,14 +4632,14 @@
       <c r="J46" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="K46" s="0" t="s">
+      <c r="K46" t="s">
         <v>303</v>
       </c>
-      <c r="L46" s="0" t="s">
+      <c r="L46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>304</v>
       </c>
@@ -4423,17 +4665,17 @@
       <c r="I47" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J47" s="0" t="s">
+      <c r="J47" t="s">
         <v>309</v>
       </c>
-      <c r="K47" s="0" t="s">
+      <c r="K47" t="s">
         <v>310</v>
       </c>
-      <c r="L47" s="0" t="s">
+      <c r="L47" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>299</v>
       </c>
@@ -4459,17 +4701,17 @@
       <c r="I48" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J48" s="0" t="s">
+      <c r="J48" t="s">
         <v>313</v>
       </c>
-      <c r="K48" s="0" t="s">
+      <c r="K48" t="s">
         <v>314</v>
       </c>
-      <c r="L48" s="0" t="s">
+      <c r="L48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>312</v>
       </c>
@@ -4495,14 +4737,14 @@
       <c r="I49" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="K49" s="0" t="s">
+      <c r="K49" t="s">
         <v>319</v>
       </c>
-      <c r="L49" s="0" t="s">
+      <c r="L49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="256" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:12" ht="256" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>317</v>
       </c>
@@ -4528,14 +4770,14 @@
       <c r="I50" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="K50" s="0" t="s">
+      <c r="K50" t="s">
         <v>323</v>
       </c>
-      <c r="L50" s="0" t="s">
+      <c r="L50" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="160" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:12" ht="160" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>324</v>
       </c>
@@ -4563,14 +4805,14 @@
       <c r="I51" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K51" s="0" t="s">
+      <c r="K51" t="s">
         <v>330</v>
       </c>
-      <c r="L51" s="0" t="s">
+      <c r="L51" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="370.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>331</v>
       </c>
@@ -4598,17 +4840,17 @@
       <c r="I52" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="J52" s="0" t="s">
+      <c r="J52" t="s">
         <v>336</v>
       </c>
-      <c r="K52" s="0" t="s">
+      <c r="K52" t="s">
         <v>337</v>
       </c>
-      <c r="L52" s="0" t="s">
+      <c r="L52" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>338</v>
       </c>
@@ -4634,17 +4876,17 @@
       <c r="I53" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J53" s="0" t="s">
+      <c r="J53" t="s">
         <v>342</v>
       </c>
-      <c r="K53" s="0" t="s">
+      <c r="K53" t="s">
         <v>343</v>
       </c>
-      <c r="L53" s="0" t="s">
+      <c r="L53" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="176" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:12" ht="176" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>344</v>
       </c>
@@ -4672,17 +4914,17 @@
       <c r="I54" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="J54" s="0" t="s">
+      <c r="J54" t="s">
         <v>348</v>
       </c>
-      <c r="K54" s="0" t="s">
+      <c r="K54" t="s">
         <v>349</v>
       </c>
-      <c r="L54" s="0" t="s">
+      <c r="L54" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="224" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:12" ht="224" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>350</v>
       </c>
@@ -4710,22 +4952,22 @@
       <c r="I55" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="J55" s="0" t="s">
+      <c r="J55" t="s">
+        <v>434</v>
+      </c>
+      <c r="K55" t="s">
         <v>355</v>
       </c>
-      <c r="K55" s="0" t="s">
+      <c r="L55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="224" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="L55" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="199.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="s">
+      <c r="B56" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>358</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>50</v>
@@ -4737,33 +4979,33 @@
         <v>15</v>
       </c>
       <c r="F56" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="H56" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="I56" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="I56" s="11" t="s">
+      <c r="J56" t="s">
         <v>362</v>
       </c>
-      <c r="J56" s="0" t="s">
+      <c r="K56" t="s">
         <v>363</v>
       </c>
-      <c r="K56" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="L56" s="0" t="s">
+      <c r="L56" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="224" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:12" ht="224" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>25</v>
@@ -4775,33 +5017,33 @@
         <v>15</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H57" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="I57" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="J57" t="s">
         <v>366</v>
       </c>
-      <c r="J57" s="0" t="s">
+      <c r="K57" t="s">
         <v>367</v>
       </c>
-      <c r="K57" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="L57" s="0" t="s">
+      <c r="L57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="160" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:12" ht="160" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>340</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>14</v>
@@ -4813,33 +5055,33 @@
         <v>15</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>327</v>
       </c>
       <c r="H58" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="J58" t="s">
         <v>372</v>
       </c>
-      <c r="J58" s="0" t="s">
+      <c r="K58" t="s">
         <v>373</v>
       </c>
-      <c r="K58" s="0" t="s">
+      <c r="L58" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="L58" s="0" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5" t="s">
+      <c r="B59" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>376</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>14</v>
@@ -4851,31 +5093,31 @@
         <v>15</v>
       </c>
       <c r="F59" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="J59" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="J59" t="s">
+        <v>378</v>
+      </c>
+      <c r="K59" t="s">
         <v>379</v>
       </c>
-      <c r="K59" s="0" t="s">
+      <c r="L59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="L59" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="160" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="s">
+      <c r="B60" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>382</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>25</v>
@@ -4887,7 +5129,7 @@
         <v>15</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>327</v>
@@ -4896,21 +5138,21 @@
         <v>327</v>
       </c>
       <c r="I60" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="K60" t="s">
         <v>384</v>
       </c>
-      <c r="K60" s="0" t="s">
+      <c r="L60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="L60" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5" t="s">
+      <c r="B61" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>50</v>
@@ -4922,33 +5164,33 @@
         <v>15</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>338</v>
       </c>
       <c r="H61" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="J61" t="s">
         <v>390</v>
       </c>
-      <c r="J61" s="0" t="s">
+      <c r="K61" t="s">
         <v>391</v>
       </c>
-      <c r="K61" s="0" t="s">
+      <c r="L61" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="L61" s="0" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5" t="s">
+      <c r="B62" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>99</v>
@@ -4960,31 +5202,31 @@
         <v>15</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>234</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J62" t="s">
         <v>396</v>
       </c>
-      <c r="J62" s="0" t="s">
+      <c r="K62" t="s">
         <v>397</v>
       </c>
-      <c r="K62" s="0" t="s">
+      <c r="L62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="L62" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5" t="s">
+      <c r="B63" s="5" t="s">
         <v>399</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>400</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>25</v>
@@ -4996,33 +5238,33 @@
         <v>15</v>
       </c>
       <c r="F63" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="G63" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="H63" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="I63" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="J63" t="s">
         <v>404</v>
       </c>
-      <c r="J63" s="0" t="s">
+      <c r="K63" t="s">
         <v>405</v>
       </c>
-      <c r="K63" s="0" t="s">
+      <c r="L63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="L63" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5" t="s">
+      <c r="B64" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>408</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>50</v>
@@ -5043,24 +5285,24 @@
         <v>263</v>
       </c>
       <c r="I64" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J64" t="s">
         <v>409</v>
       </c>
-      <c r="J64" s="0" t="s">
+      <c r="K64" t="s">
         <v>410</v>
       </c>
-      <c r="K64" s="0" t="s">
+      <c r="L64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="240" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L64" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5" t="s">
+      <c r="B65" s="5" t="s">
         <v>412</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>413</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>50</v>
@@ -5072,31 +5314,31 @@
         <v>15</v>
       </c>
       <c r="F65" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G65" s="5" t="s">
         <v>414</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>415</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="J65" t="s">
         <v>416</v>
       </c>
-      <c r="J65" s="0" t="s">
+      <c r="K65" t="s">
         <v>417</v>
       </c>
-      <c r="K65" s="0" t="s">
+      <c r="L65" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="L65" s="0" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5" t="s">
+      <c r="B66" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>420</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>50</v>
@@ -5108,30 +5350,30 @@
         <v>15</v>
       </c>
       <c r="F66" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="G66" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="I66" s="1" t="s">
+      <c r="K66" t="s">
         <v>422</v>
       </c>
-      <c r="K66" s="0" t="s">
+      <c r="L66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="176" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="L66" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="158.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
+      <c r="B67" s="5" t="s">
         <v>424</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>425</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>106</v>
@@ -5143,7 +5385,7 @@
         <v>15</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>12</v>
@@ -5152,292 +5394,283 @@
         <v>18</v>
       </c>
       <c r="I67" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J67" t="s">
         <v>427</v>
       </c>
-      <c r="J67" s="0" t="s">
+      <c r="K67" t="s">
         <v>428</v>
       </c>
-      <c r="K67" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="L67" s="0" t="s">
+      <c r="L67" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K9" r:id="rId1" display="http://www.dealsland.com.au/wp-content/uploads/2015/06/glamcorner_coupon_code.png"/>
-    <hyperlink ref="J15" r:id="rId2" display="https://www.happn.com/en/"/>
-    <hyperlink ref="J46" r:id="rId3" display="http://www.nudie.com.au/"/>
+    <hyperlink ref="K9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J46" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M164"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.3444444444444"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.76296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.62222222222222"/>
+    <col min="1" max="1" width="14.33203125"/>
+    <col min="2" max="2" width="17.6640625"/>
+    <col min="3" max="3" width="7"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B1" t="s">
         <v>430</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" t="s">
         <v>431</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>250</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="B9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>295</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>16</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C14" s="0" t="n">
+        <v>356</v>
+      </c>
+      <c r="C14">
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>12</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>11</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="C20" s="0" t="n">
+        <v>411</v>
+      </c>
+      <c r="C20">
         <v>9</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>16</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>3</v>
       </c>
       <c r="F22" s="12"/>
@@ -5449,256 +5682,256 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>14</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>13</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>13</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>12</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>11</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>11</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>10</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>9</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>9</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>284</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>4</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>284</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>284</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>284</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>284</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>284</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="C39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>284</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>5</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>284</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>3</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>284</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42">
         <v>7</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>284</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>284</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>8</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>19</v>
       </c>
       <c r="E45" s="7"/>
@@ -5711,124 +5944,124 @@
       <c r="L45" s="7"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47">
         <v>17</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>16</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C49" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50">
         <v>14</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51">
         <v>13</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52">
         <v>12</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>11</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54">
         <v>10</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>20</v>
       </c>
       <c r="E56" s="13"/>
@@ -5841,245 +6074,245 @@
       <c r="L56" s="13"/>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="C57" s="0" t="n">
+        <v>411</v>
+      </c>
+      <c r="C57">
         <v>19</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58">
         <v>18</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59">
         <v>17</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="C60" s="0" t="n">
+        <v>356</v>
+      </c>
+      <c r="C60">
         <v>16</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62">
         <v>14</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="C63" s="0" t="n">
+        <v>358</v>
+      </c>
+      <c r="C63">
         <v>13</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64">
         <v>12</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65">
         <v>11</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66">
         <v>10</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68">
         <v>13</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69">
         <v>6</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70">
         <v>19</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71">
         <v>8</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73">
         <v>7</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74">
         <v>4</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76">
         <v>9</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77">
         <v>6</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>295</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78">
         <v>15</v>
       </c>
       <c r="E78" s="5"/>
@@ -6091,487 +6324,487 @@
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
     </row>
-    <row r="79" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>295</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79">
         <v>14</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>295</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80">
         <v>13</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>295</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81">
         <v>12</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>295</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82">
         <v>11</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>295</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83">
         <v>11</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>295</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84">
         <v>10</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>295</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85">
         <v>9</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>295</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86">
         <v>8</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>295</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>295</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="C88" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="C88">
         <v>2</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>340</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="C89" s="0" t="n">
+        <v>380</v>
+      </c>
+      <c r="C89">
         <v>3</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>340</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="C90" s="0" t="n">
+        <v>385</v>
+      </c>
+      <c r="C90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>340</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C91" s="0" t="n">
+        <v>392</v>
+      </c>
+      <c r="C91">
         <v>6</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>340</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C92" s="0" t="n">
+        <v>398</v>
+      </c>
+      <c r="C92">
         <v>13</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>340</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="C93" s="0" t="n">
+        <v>406</v>
+      </c>
+      <c r="C93">
         <v>3</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>340</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94">
         <v>4</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>340</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95">
         <v>16</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>340</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96">
         <v>6</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>340</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97">
         <v>2</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>340</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>340</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99">
         <v>2</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C102">
         <v>5</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103">
         <v>13</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104">
         <v>3</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C106" s="0" t="n">
+      <c r="C106">
         <v>4</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107">
         <v>5</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C108" s="0" t="n">
+      <c r="C108">
         <v>2</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C109" s="0" t="n">
+      <c r="C109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C110" s="0" t="n">
+      <c r="C110">
         <v>4</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C111">
         <v>4</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" t="s">
         <v>101</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C112">
         <v>5</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C113" s="0" t="n">
+      <c r="C113">
         <v>2</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="C114" s="0" t="n">
+        <v>356</v>
+      </c>
+      <c r="C114">
         <v>2</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C115" s="0" t="n">
+        <v>392</v>
+      </c>
+      <c r="C115">
         <v>3</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C116" s="0" t="n">
+        <v>398</v>
+      </c>
+      <c r="C116">
         <v>4</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C117" s="0" t="n">
+      <c r="C117">
         <v>4</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C118" s="0" t="n">
+      <c r="C118">
         <v>2</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="C119" s="0" t="n">
+        <v>380</v>
+      </c>
+      <c r="C119">
         <v>14</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C120" s="0" t="n">
+      <c r="C120">
         <v>2</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C121" s="0" t="n">
+      <c r="C121">
         <v>3</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C122" s="0" t="n">
+      <c r="C122">
         <v>19</v>
       </c>
       <c r="E122" s="7"/>
@@ -6584,543 +6817,535 @@
       <c r="L122" s="5"/>
       <c r="M122" s="7"/>
     </row>
-    <row r="123" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C123" s="0" t="n">
+      <c r="C123">
         <v>16</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C124" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C125" s="0" t="n">
+      <c r="C125">
         <v>14</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C126" s="0" t="n">
+      <c r="C126">
         <v>13</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C127" s="0" t="n">
+      <c r="C127">
         <v>13</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C128" s="0" t="n">
+      <c r="C128">
         <v>12</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C129" s="0" t="n">
+      <c r="C129">
         <v>11</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C130" s="0" t="n">
+      <c r="C130">
         <v>10</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C131" s="0" t="n">
+      <c r="C131">
         <v>8</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C132" s="0" t="n">
+      <c r="C132">
         <v>2</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="C133" s="0" t="n">
+        <v>356</v>
+      </c>
+      <c r="C133">
         <v>13</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="C134" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="C134">
         <v>12</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C135" s="0" t="n">
+      <c r="C135">
         <v>11</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="C136" s="0" t="n">
+        <v>398</v>
+      </c>
+      <c r="C136">
         <v>10</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C137" s="0" t="n">
+      <c r="C137">
         <v>10</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C138" s="0" t="n">
+      <c r="C138">
         <v>7</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B139" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C139" s="0" t="n">
+      <c r="C139">
         <v>6</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B140" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C140" s="0" t="n">
+      <c r="C140">
         <v>4</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B141" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C141" s="0" t="n">
+      <c r="C141">
         <v>3</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B142" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="C142" s="0" t="n">
+      <c r="C142">
         <v>3</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C143" s="0" t="n">
+      <c r="C143">
         <v>1</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C144" s="0" t="n">
+        <v>356</v>
+      </c>
+      <c r="C144">
         <v>14</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C145" s="0" t="n">
+      <c r="C145">
         <v>13</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C146" s="0" t="n">
+      <c r="C146">
         <v>12</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C147" s="0" t="n">
+      <c r="C147">
         <v>11</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C148" s="0" t="n">
+      <c r="C148">
         <v>10</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C149" s="0" t="n">
+      <c r="C149">
         <v>9</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C150" s="0" t="n">
+      <c r="C150">
         <v>8</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C151" s="0" t="n">
+      <c r="C151">
         <v>7</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C152" s="0" t="n">
+      <c r="C152">
         <v>6</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="C153" s="0" t="n">
+      <c r="C153">
         <v>5</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C154" s="0" t="n">
+      <c r="C154">
         <v>1</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B155" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="C155" s="0" t="n">
+      <c r="C155">
         <v>22</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B156" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C156" s="0" t="n">
+      <c r="C156">
         <v>18</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B157" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C157" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C157">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B158" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C158" s="0" t="n">
+      <c r="C158">
         <v>12</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B159" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C159" s="0" t="n">
+      <c r="C159">
         <v>11</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B160" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C160" s="0" t="n">
+      <c r="C160">
         <v>10</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="C161" s="0" t="n">
+        <v>385</v>
+      </c>
+      <c r="C161">
         <v>7</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B162" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="C162" s="0" t="n">
+      <c r="C162">
         <v>5</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B163" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C163" s="0" t="n">
+      <c r="C163">
         <v>5</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B164" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C164" s="0" t="n">
+      <c r="C164">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMK11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="13.2296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="16.3666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="14.4037037037037"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="13.2296296296296"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="14" width="12.1518518518519"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="13.2296296296296"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="14.6"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="14" width="3.33333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="14" width="12.4444444444444"/>
+    <col min="1" max="1" width="13.1640625" style="14"/>
+    <col min="2" max="2" width="13.5" style="14"/>
+    <col min="3" max="3" width="16.83203125" style="14"/>
+    <col min="4" max="4" width="14.6640625" style="14"/>
+    <col min="5" max="5" width="13.1640625" style="14"/>
+    <col min="6" max="6" width="12.6640625" style="14"/>
+    <col min="7" max="7" width="13.5" style="14"/>
+    <col min="8" max="8" width="14.33203125" style="14"/>
+    <col min="9" max="9" width="12.33203125" style="14"/>
+    <col min="10" max="10" width="13.5" style="14"/>
+    <col min="11" max="11" width="14.83203125" style="14"/>
+    <col min="12" max="12" width="3.33203125" style="14"/>
+    <col min="13" max="1025" width="12.6640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="B1" s="12" t="n">
+        <v>432</v>
+      </c>
+      <c r="B1" s="12">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="n">
+      <c r="C1" s="12">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="n">
+      <c r="D1" s="12">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="n">
+      <c r="E1" s="12">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="n">
+      <c r="F1" s="12">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="n">
+      <c r="G1" s="12">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="n">
+      <c r="H1" s="12">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="n">
+      <c r="I1" s="12">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="n">
+      <c r="J1" s="12">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="n">
+      <c r="K1" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -7134,7 +7359,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>101</v>
@@ -7149,24 +7374,24 @@
         <v>174</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>101</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>295</v>
@@ -7190,7 +7415,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>153</v>
       </c>
@@ -7204,7 +7429,7 @@
         <v>51</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>44</v>
@@ -7222,10 +7447,10 @@
         <v>350</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>295</v>
       </c>
@@ -7260,7 +7485,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>42</v>
       </c>
@@ -7295,7 +7520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>134</v>
       </c>
@@ -7330,7 +7555,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>56</v>
       </c>
@@ -7365,7 +7590,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>78</v>
       </c>
@@ -7373,7 +7598,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>324</v>
@@ -7382,7 +7607,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>51</v>
@@ -7391,7 +7616,7 @@
         <v>123</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>206</v>
@@ -7400,7 +7625,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -7420,10 +7645,10 @@
         <v>56</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>312</v>
@@ -7435,21 +7660,21 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>250</v>
@@ -7471,12 +7696,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/db/Database.xlsx
+++ b/db/Database.xlsx
@@ -2681,8 +2681,8 @@
   </sheetPr>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G55" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K56" activeCellId="0" sqref="K56"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G52" activeCellId="0" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>

--- a/db/Database.xlsx
+++ b/db/Database.xlsx
@@ -2469,7 +2469,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2492,7 +2491,6 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2681,24 +2679,24 @@
   </sheetPr>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G52" activeCellId="0" sqref="G52"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.737037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.6555555555556"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9111111111111"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.9888888888889"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3037037037037"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.737037037037"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.3444444444444"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.7148148148148"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.2851851851852"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.9444444444444"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.1666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.1296296296296"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.3407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3037037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.5777777777778"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.8888888888889"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.1296296296296"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.8333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.3037037037037"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.7740740740741"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="32.6333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.6555555555556"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4293,7 +4291,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
         <v>274</v>
       </c>
@@ -5193,10 +5191,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4037037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.737037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.95925925925926"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.15185185185185"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7070,19 +7068,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="13.5222222222222"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="16.7555555555556"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="14.7"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="13.5222222222222"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="14.4037037037037"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="14" width="12.3481481481481"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="13.5222222222222"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="14.8962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="13.4259259259259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="17.1481481481481"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="14.9925925925926"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="13.4259259259259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="14.7"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="14" width="12.5444444444444"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="15.2888888888889"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="14" width="3.33333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="14" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="14" width="12.837037037037"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/db/Database.xlsx
+++ b/db/Database.xlsx
@@ -710,7 +710,7 @@
     <t xml:space="preserve">https://www.happn.com/en/</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.happn.com/images/logo-happn-mini-laptop.svg</t>
+    <t xml:space="preserve">https://www.happn.com/static/images/logo-happn-mini-laptop.svg</t>
   </si>
   <si>
     <t xml:space="preserve">Bumble</t>
@@ -2052,7 +2052,7 @@
     <t xml:space="preserve">http://www.ozifyaustralia.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.soultosole.com.au/thumbnaillarge/logo.jpg</t>
+    <t xml:space="preserve">https://www.soultosole.com.au/thumbnaillarge/logo.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">HiSmile</t>
@@ -2681,24 +2681,24 @@
   </sheetPr>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G52" activeCellId="0" sqref="G52"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F55" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K56" activeCellId="0" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.737037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.6555555555556"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9111111111111"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.9888888888889"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3037037037037"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.737037037037"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.3444444444444"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.7148148148148"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.2851851851852"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.9444444444444"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.1666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.1296296296296"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.3407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3037037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.5777777777778"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.8888888888889"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.1296296296296"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.8333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.3037037037037"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.7740740740741"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="32.6333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.6555555555556"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3233,7 +3233,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="256" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="229.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>101</v>
       </c>
@@ -5168,7 +5168,8 @@
   <hyperlinks>
     <hyperlink ref="K9" r:id="rId1" display="http://www.dealsland.com.au/wp-content/uploads/2015/06/glamcorner_coupon_code.png"/>
     <hyperlink ref="J15" r:id="rId2" display="https://www.happn.com/en/"/>
-    <hyperlink ref="J46" r:id="rId3" display="http://www.nudie.com.au/"/>
+    <hyperlink ref="K15" r:id="rId3" display="https://www.happn.com/static/images/logo-happn-mini-laptop.svg"/>
+    <hyperlink ref="J46" r:id="rId4" display="http://www.nudie.com.au/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5193,10 +5194,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4037037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.737037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.95925925925926"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.15185185185185"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7070,19 +7071,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="13.5222222222222"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="16.7555555555556"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="14.7"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="13.5222222222222"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="14.4037037037037"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="14" width="12.3481481481481"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="13.5222222222222"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="14.8962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="13.4259259259259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="17.1481481481481"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="14.9925925925926"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="13.4259259259259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="14.7"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="14" width="12.5444444444444"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="15.2888888888889"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="14" width="3.33333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="14" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="14" width="12.837037037037"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
